--- a/kursdaten.xlsx
+++ b/kursdaten.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MarcusKleuser\Documents\Planer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="452" documentId="13_ncr:1_{E28ED437-FB49-4FB7-9FAD-F2DC67C662FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F13483CB-CF47-48C4-AEDE-08215254B903}"/>
+  <xr:revisionPtr revIDLastSave="453" documentId="13_ncr:1_{E28ED437-FB49-4FB7-9FAD-F2DC67C662FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{88E4C14F-F68C-473F-ABD3-53E2695B5829}"/>
   <bookViews>
     <workbookView xWindow="1894" yWindow="2709" windowWidth="24686" windowHeight="13054" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -267,11 +267,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -565,7 +562,7 @@
   <dimension ref="A1:G799"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="C1" sqref="C1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="14.65"/>
@@ -576,7 +573,7 @@
     <col min="4" max="4" width="15.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="23.85546875" customWidth="1"/>
     <col min="6" max="6" width="24.5703125" customWidth="1"/>
-    <col min="7" max="7" width="49.7109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="49.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -609,7 +606,7 @@
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>46129</v>
       </c>
     </row>
@@ -620,10 +617,10 @@
       <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>46090</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>46157</v>
       </c>
     </row>
@@ -634,10 +631,10 @@
       <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>46132</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>46199</v>
       </c>
     </row>
@@ -648,10 +645,10 @@
       <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>46160</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>46227</v>
       </c>
     </row>
@@ -665,7 +662,7 @@
       <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>46269</v>
       </c>
     </row>
@@ -676,10 +673,10 @@
       <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>46230</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>46297</v>
       </c>
     </row>
@@ -690,10 +687,10 @@
       <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>46272</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>46339</v>
       </c>
     </row>
@@ -704,10 +701,10 @@
       <c r="B9" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>46300</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <v>46367</v>
       </c>
     </row>
@@ -718,10 +715,10 @@
       <c r="B10" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <v>46342</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="1">
         <v>46416</v>
       </c>
     </row>
@@ -732,10 +729,10 @@
       <c r="B11" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="1">
         <v>46370</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="1">
         <v>46444</v>
       </c>
     </row>
@@ -746,13 +743,13 @@
       <c r="B12" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="4">
         <v>46419</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <v>46486</v>
       </c>
-      <c r="G12" s="4"/>
+      <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:7" ht="15">
       <c r="A13" t="s">
@@ -761,10 +758,10 @@
       <c r="B13" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="4">
         <v>46447</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="4">
         <v>46514</v>
       </c>
     </row>
@@ -775,10 +772,10 @@
       <c r="B14" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="4">
         <v>46489</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="4">
         <v>46556</v>
       </c>
     </row>
@@ -789,10 +786,10 @@
       <c r="B15" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="4">
         <v>46517</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="4">
         <v>46584</v>
       </c>
     </row>
@@ -803,10 +800,10 @@
       <c r="B16" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="4">
         <v>46559</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="4">
         <v>46626</v>
       </c>
     </row>
@@ -817,10 +814,10 @@
       <c r="B17" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="4">
         <v>46587</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="4">
         <v>46654</v>
       </c>
     </row>
@@ -831,10 +828,10 @@
       <c r="B18" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="4">
         <v>46629</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="4">
         <v>46696</v>
       </c>
     </row>
@@ -845,10 +842,10 @@
       <c r="B19" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="4">
         <v>46657</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="4">
         <v>46724</v>
       </c>
     </row>
@@ -859,10 +856,10 @@
       <c r="B20" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="4">
         <v>46699</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="4">
         <v>46773</v>
       </c>
     </row>
@@ -873,10 +870,10 @@
       <c r="B21" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="4">
         <v>46727</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="4">
         <v>46801</v>
       </c>
     </row>
@@ -887,10 +884,10 @@
       <c r="B22" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="1">
         <v>46048</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="1">
         <v>46073</v>
       </c>
     </row>
@@ -901,10 +898,10 @@
       <c r="B23" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="1">
         <v>46062</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="1">
         <v>46087</v>
       </c>
     </row>
@@ -915,10 +912,10 @@
       <c r="B24" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="1">
         <v>46076</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="1">
         <v>46101</v>
       </c>
     </row>
@@ -929,10 +926,10 @@
       <c r="B25" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="1">
         <v>46090</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="1">
         <v>46115</v>
       </c>
     </row>
@@ -943,10 +940,10 @@
       <c r="B26" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="1">
         <v>46104</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="1">
         <v>46129</v>
       </c>
     </row>
@@ -957,10 +954,10 @@
       <c r="B27" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="1">
         <v>46118</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="1">
         <v>46143</v>
       </c>
     </row>
@@ -971,10 +968,10 @@
       <c r="B28" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="1">
         <v>46132</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="1">
         <v>46157</v>
       </c>
     </row>
@@ -985,10 +982,10 @@
       <c r="B29" t="s">
         <v>11</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="1">
         <v>46146</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="1">
         <v>46171</v>
       </c>
     </row>
@@ -999,10 +996,10 @@
       <c r="B30" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="1">
         <v>46160</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30" s="1">
         <v>46185</v>
       </c>
     </row>
@@ -1013,10 +1010,10 @@
       <c r="B31" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="1">
         <v>46174</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31" s="1">
         <v>46199</v>
       </c>
     </row>
@@ -1027,10 +1024,10 @@
       <c r="B32" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="1">
         <v>46188</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32" s="1">
         <v>46213</v>
       </c>
     </row>
@@ -1041,10 +1038,10 @@
       <c r="B33" t="s">
         <v>11</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33" s="1">
         <v>46202</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33" s="1">
         <v>46227</v>
       </c>
     </row>
@@ -1055,10 +1052,10 @@
       <c r="B34" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34" s="1">
         <v>46216</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D34" s="1">
         <v>46241</v>
       </c>
     </row>
@@ -1069,10 +1066,10 @@
       <c r="B35" t="s">
         <v>11</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="1">
         <v>46230</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35" s="1">
         <v>46255</v>
       </c>
     </row>
@@ -1083,10 +1080,10 @@
       <c r="B36" t="s">
         <v>11</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36" s="1">
         <v>46244</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D36" s="1">
         <v>46269</v>
       </c>
     </row>
@@ -1097,10 +1094,10 @@
       <c r="B37" t="s">
         <v>11</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37" s="1">
         <v>46258</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D37" s="1">
         <v>46275</v>
       </c>
     </row>
@@ -1111,10 +1108,10 @@
       <c r="B38" t="s">
         <v>11</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C38" s="1">
         <v>46272</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D38" s="1">
         <v>46297</v>
       </c>
     </row>
@@ -1125,10 +1122,10 @@
       <c r="B39" t="s">
         <v>11</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C39" s="1">
         <v>46286</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D39" s="1">
         <v>46311</v>
       </c>
     </row>
@@ -1139,10 +1136,10 @@
       <c r="B40" t="s">
         <v>11</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C40" s="1">
         <v>46300</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D40" s="1">
         <v>46326</v>
       </c>
     </row>
@@ -1153,10 +1150,10 @@
       <c r="B41" t="s">
         <v>11</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C41" s="1">
         <v>46314</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D41" s="1">
         <v>46339</v>
       </c>
     </row>
@@ -1167,10 +1164,10 @@
       <c r="B42" t="s">
         <v>11</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C42" s="1">
         <v>46328</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D42" s="1">
         <v>46353</v>
       </c>
     </row>
@@ -1181,10 +1178,10 @@
       <c r="B43" t="s">
         <v>11</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C43" s="1">
         <v>46342</v>
       </c>
-      <c r="D43" s="2">
+      <c r="D43" s="1">
         <v>46367</v>
       </c>
     </row>
@@ -1195,10 +1192,10 @@
       <c r="B44" t="s">
         <v>11</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C44" s="1">
         <v>46356</v>
       </c>
-      <c r="D44" s="2">
+      <c r="D44" s="1">
         <v>46381</v>
       </c>
     </row>
@@ -1209,10 +1206,10 @@
       <c r="B45" t="s">
         <v>11</v>
       </c>
-      <c r="C45" s="2">
+      <c r="C45" s="1">
         <v>46370</v>
       </c>
-      <c r="D45" s="2">
+      <c r="D45" s="1">
         <v>46402</v>
       </c>
     </row>
@@ -1223,10 +1220,10 @@
       <c r="B46" t="s">
         <v>11</v>
       </c>
-      <c r="C46" s="2">
+      <c r="C46" s="1">
         <v>46384</v>
       </c>
-      <c r="D46" s="2">
+      <c r="D46" s="1">
         <v>46409</v>
       </c>
     </row>
@@ -1237,10 +1234,10 @@
       <c r="B47" t="s">
         <v>11</v>
       </c>
-      <c r="C47" s="5">
+      <c r="C47" s="4">
         <v>46405</v>
       </c>
-      <c r="D47" s="5">
+      <c r="D47" s="4">
         <v>46430</v>
       </c>
     </row>
@@ -1251,10 +1248,10 @@
       <c r="B48" t="s">
         <v>11</v>
       </c>
-      <c r="C48" s="5">
+      <c r="C48" s="4">
         <v>46419</v>
       </c>
-      <c r="D48" s="5">
+      <c r="D48" s="4">
         <v>46444</v>
       </c>
     </row>
@@ -1265,10 +1262,10 @@
       <c r="B49" t="s">
         <v>11</v>
       </c>
-      <c r="C49" s="5">
+      <c r="C49" s="4">
         <v>46433</v>
       </c>
-      <c r="D49" s="5">
+      <c r="D49" s="4">
         <v>46458</v>
       </c>
     </row>
@@ -1279,10 +1276,10 @@
       <c r="B50" t="s">
         <v>11</v>
       </c>
-      <c r="C50" s="5">
+      <c r="C50" s="4">
         <v>46447</v>
       </c>
-      <c r="D50" s="5">
+      <c r="D50" s="4">
         <v>46472</v>
       </c>
     </row>
@@ -1293,10 +1290,10 @@
       <c r="B51" t="s">
         <v>11</v>
       </c>
-      <c r="C51" s="5">
+      <c r="C51" s="4">
         <v>46461</v>
       </c>
-      <c r="D51" s="5">
+      <c r="D51" s="4">
         <v>46486</v>
       </c>
     </row>
@@ -1307,10 +1304,10 @@
       <c r="B52" t="s">
         <v>11</v>
       </c>
-      <c r="C52" s="5">
+      <c r="C52" s="4">
         <v>46475</v>
       </c>
-      <c r="D52" s="5">
+      <c r="D52" s="4">
         <v>46500</v>
       </c>
     </row>
@@ -1321,10 +1318,10 @@
       <c r="B53" t="s">
         <v>11</v>
       </c>
-      <c r="C53" s="5">
+      <c r="C53" s="4">
         <v>46489</v>
       </c>
-      <c r="D53" s="5">
+      <c r="D53" s="4">
         <v>46514</v>
       </c>
     </row>
@@ -1335,10 +1332,10 @@
       <c r="B54" t="s">
         <v>11</v>
       </c>
-      <c r="C54" s="5">
+      <c r="C54" s="4">
         <v>46503</v>
       </c>
-      <c r="D54" s="5">
+      <c r="D54" s="4">
         <v>46528</v>
       </c>
     </row>
@@ -1349,10 +1346,10 @@
       <c r="B55" t="s">
         <v>11</v>
       </c>
-      <c r="C55" s="5">
+      <c r="C55" s="4">
         <v>46517</v>
       </c>
-      <c r="D55" s="5">
+      <c r="D55" s="4">
         <v>46542</v>
       </c>
     </row>
@@ -1363,10 +1360,10 @@
       <c r="B56" t="s">
         <v>11</v>
       </c>
-      <c r="C56" s="5">
+      <c r="C56" s="4">
         <v>46531</v>
       </c>
-      <c r="D56" s="5">
+      <c r="D56" s="4">
         <v>46556</v>
       </c>
     </row>
@@ -1377,10 +1374,10 @@
       <c r="B57" t="s">
         <v>11</v>
       </c>
-      <c r="C57" s="5">
+      <c r="C57" s="4">
         <v>46545</v>
       </c>
-      <c r="D57" s="5">
+      <c r="D57" s="4">
         <v>46570</v>
       </c>
     </row>
@@ -1391,10 +1388,10 @@
       <c r="B58" t="s">
         <v>11</v>
       </c>
-      <c r="C58" s="5">
+      <c r="C58" s="4">
         <v>46559</v>
       </c>
-      <c r="D58" s="5">
+      <c r="D58" s="4">
         <v>46584</v>
       </c>
     </row>
@@ -1405,10 +1402,10 @@
       <c r="B59" t="s">
         <v>11</v>
       </c>
-      <c r="C59" s="5">
+      <c r="C59" s="4">
         <v>46573</v>
       </c>
-      <c r="D59" s="5">
+      <c r="D59" s="4">
         <v>46598</v>
       </c>
     </row>
@@ -1419,10 +1416,10 @@
       <c r="B60" t="s">
         <v>11</v>
       </c>
-      <c r="C60" s="5">
+      <c r="C60" s="4">
         <v>46587</v>
       </c>
-      <c r="D60" s="5">
+      <c r="D60" s="4">
         <v>46612</v>
       </c>
     </row>
@@ -1433,10 +1430,10 @@
       <c r="B61" t="s">
         <v>11</v>
       </c>
-      <c r="C61" s="5">
+      <c r="C61" s="4">
         <v>46601</v>
       </c>
-      <c r="D61" s="5">
+      <c r="D61" s="4">
         <v>46626</v>
       </c>
     </row>
@@ -1447,10 +1444,10 @@
       <c r="B62" t="s">
         <v>11</v>
       </c>
-      <c r="C62" s="5">
+      <c r="C62" s="4">
         <v>46615</v>
       </c>
-      <c r="D62" s="2">
+      <c r="D62" s="1">
         <v>46640</v>
       </c>
     </row>
@@ -1461,10 +1458,10 @@
       <c r="B63" t="s">
         <v>11</v>
       </c>
-      <c r="C63" s="5">
+      <c r="C63" s="4">
         <v>46629</v>
       </c>
-      <c r="D63" s="2">
+      <c r="D63" s="1">
         <v>46654</v>
       </c>
     </row>
@@ -1475,10 +1472,10 @@
       <c r="B64" t="s">
         <v>11</v>
       </c>
-      <c r="C64" s="5">
+      <c r="C64" s="4">
         <v>46643</v>
       </c>
-      <c r="D64" s="2">
+      <c r="D64" s="1">
         <v>46668</v>
       </c>
     </row>
@@ -1489,10 +1486,10 @@
       <c r="B65" t="s">
         <v>11</v>
       </c>
-      <c r="C65" s="5">
+      <c r="C65" s="4">
         <v>46657</v>
       </c>
-      <c r="D65" s="5">
+      <c r="D65" s="4">
         <v>46682</v>
       </c>
     </row>
@@ -1503,10 +1500,10 @@
       <c r="B66" t="s">
         <v>11</v>
       </c>
-      <c r="C66" s="5">
+      <c r="C66" s="4">
         <v>46671</v>
       </c>
-      <c r="D66" s="5">
+      <c r="D66" s="4">
         <v>46696</v>
       </c>
     </row>
@@ -1517,10 +1514,10 @@
       <c r="B67" t="s">
         <v>11</v>
       </c>
-      <c r="C67" s="5">
+      <c r="C67" s="4">
         <v>46685</v>
       </c>
-      <c r="D67" s="5">
+      <c r="D67" s="4">
         <v>46710</v>
       </c>
     </row>
@@ -1531,10 +1528,10 @@
       <c r="B68" t="s">
         <v>11</v>
       </c>
-      <c r="C68" s="5">
+      <c r="C68" s="4">
         <v>46699</v>
       </c>
-      <c r="D68" s="5">
+      <c r="D68" s="4">
         <v>46724</v>
       </c>
     </row>
@@ -1545,10 +1542,10 @@
       <c r="B69" t="s">
         <v>11</v>
       </c>
-      <c r="C69" s="5">
+      <c r="C69" s="4">
         <v>46713</v>
       </c>
-      <c r="D69" s="5">
+      <c r="D69" s="4">
         <v>46738</v>
       </c>
     </row>
@@ -1559,10 +1556,10 @@
       <c r="B70" t="s">
         <v>11</v>
       </c>
-      <c r="C70" s="5">
+      <c r="C70" s="4">
         <v>46727</v>
       </c>
-      <c r="D70" s="5">
+      <c r="D70" s="4">
         <v>46759</v>
       </c>
     </row>
@@ -1573,10 +1570,10 @@
       <c r="B71" t="s">
         <v>11</v>
       </c>
-      <c r="C71" s="5">
+      <c r="C71" s="4">
         <v>46748</v>
       </c>
-      <c r="D71" s="5">
+      <c r="D71" s="4">
         <v>46773</v>
       </c>
     </row>
@@ -1587,10 +1584,10 @@
       <c r="B72" t="s">
         <v>13</v>
       </c>
-      <c r="C72" s="2">
+      <c r="C72" s="1">
         <v>46034</v>
       </c>
-      <c r="D72" s="2">
+      <c r="D72" s="1">
         <v>46059</v>
       </c>
     </row>
@@ -1601,10 +1598,10 @@
       <c r="B73" t="s">
         <v>13</v>
       </c>
-      <c r="C73" s="2">
+      <c r="C73" s="1">
         <v>46062</v>
       </c>
-      <c r="D73" s="2">
+      <c r="D73" s="1">
         <v>46087</v>
       </c>
     </row>
@@ -1615,10 +1612,10 @@
       <c r="B74" t="s">
         <v>13</v>
       </c>
-      <c r="C74" s="2">
+      <c r="C74" s="1">
         <v>46090</v>
       </c>
-      <c r="D74" s="2">
+      <c r="D74" s="1">
         <v>46115</v>
       </c>
     </row>
@@ -1629,10 +1626,10 @@
       <c r="B75" t="s">
         <v>13</v>
       </c>
-      <c r="C75" s="2">
+      <c r="C75" s="1">
         <v>46118</v>
       </c>
-      <c r="D75" s="2">
+      <c r="D75" s="1">
         <v>46143</v>
       </c>
     </row>
@@ -1643,10 +1640,10 @@
       <c r="B76" t="s">
         <v>13</v>
       </c>
-      <c r="C76" s="2">
+      <c r="C76" s="1">
         <v>46146</v>
       </c>
-      <c r="D76" s="2">
+      <c r="D76" s="1">
         <v>46171</v>
       </c>
     </row>
@@ -1657,10 +1654,10 @@
       <c r="B77" t="s">
         <v>13</v>
       </c>
-      <c r="C77" s="2">
+      <c r="C77" s="1">
         <v>46174</v>
       </c>
-      <c r="D77" s="2">
+      <c r="D77" s="1">
         <v>46199</v>
       </c>
     </row>
@@ -1671,10 +1668,10 @@
       <c r="B78" t="s">
         <v>13</v>
       </c>
-      <c r="C78" s="2">
+      <c r="C78" s="1">
         <v>46202</v>
       </c>
-      <c r="D78" s="2">
+      <c r="D78" s="1">
         <v>46227</v>
       </c>
     </row>
@@ -1685,10 +1682,10 @@
       <c r="B79" t="s">
         <v>13</v>
       </c>
-      <c r="C79" s="2">
+      <c r="C79" s="1">
         <v>46230</v>
       </c>
-      <c r="D79" s="2">
+      <c r="D79" s="1">
         <v>46255</v>
       </c>
     </row>
@@ -1699,10 +1696,10 @@
       <c r="B80" t="s">
         <v>13</v>
       </c>
-      <c r="C80" s="2">
+      <c r="C80" s="1">
         <v>46258</v>
       </c>
-      <c r="D80" s="2">
+      <c r="D80" s="1">
         <v>46275</v>
       </c>
     </row>
@@ -1713,10 +1710,10 @@
       <c r="B81" t="s">
         <v>13</v>
       </c>
-      <c r="C81" s="2">
+      <c r="C81" s="1">
         <v>46286</v>
       </c>
-      <c r="D81" s="2">
+      <c r="D81" s="1">
         <v>46311</v>
       </c>
     </row>
@@ -1727,10 +1724,10 @@
       <c r="B82" t="s">
         <v>13</v>
       </c>
-      <c r="C82" s="2">
+      <c r="C82" s="1">
         <v>46314</v>
       </c>
-      <c r="D82" s="2">
+      <c r="D82" s="1">
         <v>46339</v>
       </c>
     </row>
@@ -1741,10 +1738,10 @@
       <c r="B83" t="s">
         <v>13</v>
       </c>
-      <c r="C83" s="2">
+      <c r="C83" s="1">
         <v>46342</v>
       </c>
-      <c r="D83" s="2">
+      <c r="D83" s="1">
         <v>46367</v>
       </c>
     </row>
@@ -1755,10 +1752,10 @@
       <c r="B84" t="s">
         <v>13</v>
       </c>
-      <c r="C84" s="2">
+      <c r="C84" s="1">
         <v>46370</v>
       </c>
-      <c r="D84" s="2">
+      <c r="D84" s="1">
         <v>46402</v>
       </c>
     </row>
@@ -1769,10 +1766,10 @@
       <c r="B85" t="s">
         <v>13</v>
       </c>
-      <c r="C85" s="5">
+      <c r="C85" s="4">
         <v>46405</v>
       </c>
-      <c r="D85" s="5">
+      <c r="D85" s="4">
         <v>46430</v>
       </c>
     </row>
@@ -1783,10 +1780,10 @@
       <c r="B86" t="s">
         <v>13</v>
       </c>
-      <c r="C86" s="5">
+      <c r="C86" s="4">
         <v>46433</v>
       </c>
-      <c r="D86" s="5">
+      <c r="D86" s="4">
         <v>46458</v>
       </c>
     </row>
@@ -1797,10 +1794,10 @@
       <c r="B87" t="s">
         <v>13</v>
       </c>
-      <c r="C87" s="5">
+      <c r="C87" s="4">
         <v>46461</v>
       </c>
-      <c r="D87" s="5">
+      <c r="D87" s="4">
         <v>46486</v>
       </c>
     </row>
@@ -1811,10 +1808,10 @@
       <c r="B88" t="s">
         <v>13</v>
       </c>
-      <c r="C88" s="5">
+      <c r="C88" s="4">
         <v>46489</v>
       </c>
-      <c r="D88" s="5">
+      <c r="D88" s="4">
         <v>46514</v>
       </c>
     </row>
@@ -1825,10 +1822,10 @@
       <c r="B89" t="s">
         <v>13</v>
       </c>
-      <c r="C89" s="5">
+      <c r="C89" s="4">
         <v>46517</v>
       </c>
-      <c r="D89" s="5">
+      <c r="D89" s="4">
         <v>46542</v>
       </c>
     </row>
@@ -1839,10 +1836,10 @@
       <c r="B90" t="s">
         <v>13</v>
       </c>
-      <c r="C90" s="5">
+      <c r="C90" s="4">
         <v>46545</v>
       </c>
-      <c r="D90" s="5">
+      <c r="D90" s="4">
         <v>46570</v>
       </c>
     </row>
@@ -1853,10 +1850,10 @@
       <c r="B91" t="s">
         <v>13</v>
       </c>
-      <c r="C91" s="5">
+      <c r="C91" s="4">
         <v>46573</v>
       </c>
-      <c r="D91" s="5">
+      <c r="D91" s="4">
         <v>46598</v>
       </c>
     </row>
@@ -1867,10 +1864,10 @@
       <c r="B92" t="s">
         <v>13</v>
       </c>
-      <c r="C92" s="5">
+      <c r="C92" s="4">
         <v>46601</v>
       </c>
-      <c r="D92" s="5">
+      <c r="D92" s="4">
         <v>46626</v>
       </c>
     </row>
@@ -1881,10 +1878,10 @@
       <c r="B93" t="s">
         <v>13</v>
       </c>
-      <c r="C93" s="5">
+      <c r="C93" s="4">
         <v>46629</v>
       </c>
-      <c r="D93" s="2">
+      <c r="D93" s="1">
         <v>46654</v>
       </c>
     </row>
@@ -1895,10 +1892,10 @@
       <c r="B94" t="s">
         <v>13</v>
       </c>
-      <c r="C94" s="5">
+      <c r="C94" s="4">
         <v>46657</v>
       </c>
-      <c r="D94" s="5">
+      <c r="D94" s="4">
         <v>46682</v>
       </c>
     </row>
@@ -1909,10 +1906,10 @@
       <c r="B95" t="s">
         <v>13</v>
       </c>
-      <c r="C95" s="5">
+      <c r="C95" s="4">
         <v>46685</v>
       </c>
-      <c r="D95" s="5">
+      <c r="D95" s="4">
         <v>46710</v>
       </c>
     </row>
@@ -1923,10 +1920,10 @@
       <c r="B96" t="s">
         <v>13</v>
       </c>
-      <c r="C96" s="5">
+      <c r="C96" s="4">
         <v>46713</v>
       </c>
-      <c r="D96" s="5">
+      <c r="D96" s="4">
         <v>46738</v>
       </c>
     </row>
@@ -1937,10 +1934,10 @@
       <c r="B97" t="s">
         <v>13</v>
       </c>
-      <c r="C97" s="5">
+      <c r="C97" s="4">
         <v>46748</v>
       </c>
-      <c r="D97" s="5">
+      <c r="D97" s="4">
         <v>46773</v>
       </c>
     </row>
@@ -1951,10 +1948,10 @@
       <c r="B98" t="s">
         <v>15</v>
       </c>
-      <c r="C98" s="2">
+      <c r="C98" s="1">
         <v>46034</v>
       </c>
-      <c r="D98" s="2">
+      <c r="D98" s="1">
         <v>46045</v>
       </c>
     </row>
@@ -1965,10 +1962,10 @@
       <c r="B99" t="s">
         <v>15</v>
       </c>
-      <c r="C99" s="2">
+      <c r="C99" s="1">
         <v>46062</v>
       </c>
-      <c r="D99" s="2">
+      <c r="D99" s="1">
         <v>46073</v>
       </c>
     </row>
@@ -1979,10 +1976,10 @@
       <c r="B100" t="s">
         <v>15</v>
       </c>
-      <c r="C100" s="2">
+      <c r="C100" s="1">
         <v>46090</v>
       </c>
-      <c r="D100" s="2">
+      <c r="D100" s="1">
         <v>46101</v>
       </c>
     </row>
@@ -1993,10 +1990,10 @@
       <c r="B101" t="s">
         <v>15</v>
       </c>
-      <c r="C101" s="2">
+      <c r="C101" s="1">
         <v>46118</v>
       </c>
-      <c r="D101" s="2">
+      <c r="D101" s="1">
         <v>46129</v>
       </c>
     </row>
@@ -2007,10 +2004,10 @@
       <c r="B102" t="s">
         <v>15</v>
       </c>
-      <c r="C102" s="2">
+      <c r="C102" s="1">
         <v>46146</v>
       </c>
-      <c r="D102" s="2">
+      <c r="D102" s="1">
         <v>46157</v>
       </c>
     </row>
@@ -2021,10 +2018,10 @@
       <c r="B103" t="s">
         <v>15</v>
       </c>
-      <c r="C103" s="2">
+      <c r="C103" s="1">
         <v>46174</v>
       </c>
-      <c r="D103" s="2">
+      <c r="D103" s="1">
         <v>46185</v>
       </c>
     </row>
@@ -2035,10 +2032,10 @@
       <c r="B104" t="s">
         <v>15</v>
       </c>
-      <c r="C104" s="2">
+      <c r="C104" s="1">
         <v>46202</v>
       </c>
-      <c r="D104" s="2">
+      <c r="D104" s="1">
         <v>46213</v>
       </c>
     </row>
@@ -2049,10 +2046,10 @@
       <c r="B105" t="s">
         <v>15</v>
       </c>
-      <c r="C105" s="2">
+      <c r="C105" s="1">
         <v>46230</v>
       </c>
-      <c r="D105" s="2">
+      <c r="D105" s="1">
         <v>46241</v>
       </c>
     </row>
@@ -2063,10 +2060,10 @@
       <c r="B106" t="s">
         <v>15</v>
       </c>
-      <c r="C106" s="2">
+      <c r="C106" s="1">
         <v>46258</v>
       </c>
-      <c r="D106" s="2">
+      <c r="D106" s="1">
         <v>46269</v>
       </c>
     </row>
@@ -2077,10 +2074,10 @@
       <c r="B107" t="s">
         <v>15</v>
       </c>
-      <c r="C107" s="2">
+      <c r="C107" s="1">
         <v>46286</v>
       </c>
-      <c r="D107" s="2">
+      <c r="D107" s="1">
         <v>46297</v>
       </c>
     </row>
@@ -2091,10 +2088,10 @@
       <c r="B108" t="s">
         <v>15</v>
       </c>
-      <c r="C108" s="2">
+      <c r="C108" s="1">
         <v>46314</v>
       </c>
-      <c r="D108" s="2">
+      <c r="D108" s="1">
         <v>46346</v>
       </c>
     </row>
@@ -2105,10 +2102,10 @@
       <c r="B109" t="s">
         <v>15</v>
       </c>
-      <c r="C109" s="2">
+      <c r="C109" s="1">
         <v>46342</v>
       </c>
-      <c r="D109" s="2">
+      <c r="D109" s="1">
         <v>46353</v>
       </c>
     </row>
@@ -2119,10 +2116,10 @@
       <c r="B110" t="s">
         <v>15</v>
       </c>
-      <c r="C110" s="2">
+      <c r="C110" s="1">
         <v>46370</v>
       </c>
-      <c r="D110" s="2">
+      <c r="D110" s="1">
         <v>46388</v>
       </c>
     </row>
@@ -2133,10 +2130,10 @@
       <c r="B111" t="s">
         <v>15</v>
       </c>
-      <c r="C111" s="5">
+      <c r="C111" s="4">
         <v>46405</v>
       </c>
-      <c r="D111" s="5">
+      <c r="D111" s="4">
         <v>46416</v>
       </c>
     </row>
@@ -2147,10 +2144,10 @@
       <c r="B112" t="s">
         <v>15</v>
       </c>
-      <c r="C112" s="5">
+      <c r="C112" s="4">
         <v>46433</v>
       </c>
-      <c r="D112" s="5">
+      <c r="D112" s="4">
         <v>46444</v>
       </c>
     </row>
@@ -2161,10 +2158,10 @@
       <c r="B113" t="s">
         <v>15</v>
       </c>
-      <c r="C113" s="5">
+      <c r="C113" s="4">
         <v>46461</v>
       </c>
-      <c r="D113" s="5">
+      <c r="D113" s="4">
         <v>46472</v>
       </c>
     </row>
@@ -2175,10 +2172,10 @@
       <c r="B114" t="s">
         <v>15</v>
       </c>
-      <c r="C114" s="5">
+      <c r="C114" s="4">
         <v>46489</v>
       </c>
-      <c r="D114" s="5">
+      <c r="D114" s="4">
         <v>46500</v>
       </c>
     </row>
@@ -2189,10 +2186,10 @@
       <c r="B115" t="s">
         <v>15</v>
       </c>
-      <c r="C115" s="5">
+      <c r="C115" s="4">
         <v>46517</v>
       </c>
-      <c r="D115" s="5">
+      <c r="D115" s="4">
         <v>46528</v>
       </c>
     </row>
@@ -2203,10 +2200,10 @@
       <c r="B116" t="s">
         <v>15</v>
       </c>
-      <c r="C116" s="5">
+      <c r="C116" s="4">
         <v>46545</v>
       </c>
-      <c r="D116" s="5">
+      <c r="D116" s="4">
         <v>46556</v>
       </c>
     </row>
@@ -2217,10 +2214,10 @@
       <c r="B117" t="s">
         <v>15</v>
       </c>
-      <c r="C117" s="5">
+      <c r="C117" s="4">
         <v>46573</v>
       </c>
-      <c r="D117" s="5">
+      <c r="D117" s="4">
         <v>46584</v>
       </c>
     </row>
@@ -2231,10 +2228,10 @@
       <c r="B118" t="s">
         <v>15</v>
       </c>
-      <c r="C118" s="5">
+      <c r="C118" s="4">
         <v>46601</v>
       </c>
-      <c r="D118" s="5">
+      <c r="D118" s="4">
         <v>46612</v>
       </c>
     </row>
@@ -2245,10 +2242,10 @@
       <c r="B119" t="s">
         <v>15</v>
       </c>
-      <c r="C119" s="5">
+      <c r="C119" s="4">
         <v>46629</v>
       </c>
-      <c r="D119" s="5">
+      <c r="D119" s="4">
         <v>46640</v>
       </c>
     </row>
@@ -2259,10 +2256,10 @@
       <c r="B120" t="s">
         <v>15</v>
       </c>
-      <c r="C120" s="5">
+      <c r="C120" s="4">
         <v>46657</v>
       </c>
-      <c r="D120" s="5">
+      <c r="D120" s="4">
         <v>46668</v>
       </c>
     </row>
@@ -2273,10 +2270,10 @@
       <c r="B121" t="s">
         <v>15</v>
       </c>
-      <c r="C121" s="5">
+      <c r="C121" s="4">
         <v>46685</v>
       </c>
-      <c r="D121" s="5">
+      <c r="D121" s="4">
         <v>46696</v>
       </c>
     </row>
@@ -2287,10 +2284,10 @@
       <c r="B122" t="s">
         <v>15</v>
       </c>
-      <c r="C122" s="5">
+      <c r="C122" s="4">
         <v>46713</v>
       </c>
-      <c r="D122" s="5">
+      <c r="D122" s="4">
         <v>46724</v>
       </c>
     </row>
@@ -2301,10 +2298,10 @@
       <c r="B123" t="s">
         <v>15</v>
       </c>
-      <c r="C123" s="5">
+      <c r="C123" s="4">
         <v>46748</v>
       </c>
-      <c r="D123" s="5">
+      <c r="D123" s="4">
         <v>46759</v>
       </c>
     </row>
@@ -2315,10 +2312,10 @@
       <c r="B124" t="s">
         <v>17</v>
       </c>
-      <c r="C124" s="2">
+      <c r="C124" s="1">
         <v>46048</v>
       </c>
-      <c r="D124" s="2">
+      <c r="D124" s="1">
         <v>46073</v>
       </c>
     </row>
@@ -2329,10 +2326,10 @@
       <c r="B125" t="s">
         <v>17</v>
       </c>
-      <c r="C125" s="2">
+      <c r="C125" s="1">
         <v>46076</v>
       </c>
-      <c r="D125" s="2">
+      <c r="D125" s="1">
         <v>46101</v>
       </c>
     </row>
@@ -2343,10 +2340,10 @@
       <c r="B126" t="s">
         <v>17</v>
       </c>
-      <c r="C126" s="2">
+      <c r="C126" s="1">
         <v>46104</v>
       </c>
-      <c r="D126" s="2">
+      <c r="D126" s="1">
         <v>46129</v>
       </c>
     </row>
@@ -2357,10 +2354,10 @@
       <c r="B127" t="s">
         <v>17</v>
       </c>
-      <c r="C127" s="2">
+      <c r="C127" s="1">
         <v>46132</v>
       </c>
-      <c r="D127" s="2">
+      <c r="D127" s="1">
         <v>46157</v>
       </c>
     </row>
@@ -2371,10 +2368,10 @@
       <c r="B128" t="s">
         <v>17</v>
       </c>
-      <c r="C128" s="2">
+      <c r="C128" s="1">
         <v>46160</v>
       </c>
-      <c r="D128" s="2">
+      <c r="D128" s="1">
         <v>46185</v>
       </c>
     </row>
@@ -2385,10 +2382,10 @@
       <c r="B129" t="s">
         <v>17</v>
       </c>
-      <c r="C129" s="2">
+      <c r="C129" s="1">
         <v>46188</v>
       </c>
-      <c r="D129" s="2">
+      <c r="D129" s="1">
         <v>46213</v>
       </c>
     </row>
@@ -2399,10 +2396,10 @@
       <c r="B130" t="s">
         <v>17</v>
       </c>
-      <c r="C130" s="2">
+      <c r="C130" s="1">
         <v>46216</v>
       </c>
-      <c r="D130" s="2">
+      <c r="D130" s="1">
         <v>46241</v>
       </c>
     </row>
@@ -2413,10 +2410,10 @@
       <c r="B131" t="s">
         <v>17</v>
       </c>
-      <c r="C131" s="2">
+      <c r="C131" s="1">
         <v>46244</v>
       </c>
-      <c r="D131" s="2">
+      <c r="D131" s="1">
         <v>46269</v>
       </c>
     </row>
@@ -2427,10 +2424,10 @@
       <c r="B132" t="s">
         <v>17</v>
       </c>
-      <c r="C132" s="2">
+      <c r="C132" s="1">
         <v>46272</v>
       </c>
-      <c r="D132" s="2">
+      <c r="D132" s="1">
         <v>46297</v>
       </c>
     </row>
@@ -2441,10 +2438,10 @@
       <c r="B133" t="s">
         <v>17</v>
       </c>
-      <c r="C133" s="2">
+      <c r="C133" s="1">
         <v>46300</v>
       </c>
-      <c r="D133" s="2">
+      <c r="D133" s="1">
         <v>46326</v>
       </c>
     </row>
@@ -2455,10 +2452,10 @@
       <c r="B134" t="s">
         <v>17</v>
       </c>
-      <c r="C134" s="2">
+      <c r="C134" s="1">
         <v>46328</v>
       </c>
-      <c r="D134" s="2">
+      <c r="D134" s="1">
         <v>46353</v>
       </c>
     </row>
@@ -2469,10 +2466,10 @@
       <c r="B135" t="s">
         <v>17</v>
       </c>
-      <c r="C135" s="2">
+      <c r="C135" s="1">
         <v>46356</v>
       </c>
-      <c r="D135" s="2">
+      <c r="D135" s="1">
         <v>46381</v>
       </c>
     </row>
@@ -2483,10 +2480,10 @@
       <c r="B136" t="s">
         <v>17</v>
       </c>
-      <c r="C136" s="2">
+      <c r="C136" s="1">
         <v>46384</v>
       </c>
-      <c r="D136" s="2">
+      <c r="D136" s="1">
         <v>46409</v>
       </c>
     </row>
@@ -2497,10 +2494,10 @@
       <c r="B137" t="s">
         <v>17</v>
       </c>
-      <c r="C137" s="5">
+      <c r="C137" s="4">
         <v>46419</v>
       </c>
-      <c r="D137" s="5">
+      <c r="D137" s="4">
         <v>46444</v>
       </c>
     </row>
@@ -2511,10 +2508,10 @@
       <c r="B138" t="s">
         <v>17</v>
       </c>
-      <c r="C138" s="5">
+      <c r="C138" s="4">
         <v>46447</v>
       </c>
-      <c r="D138" s="5">
+      <c r="D138" s="4">
         <v>46472</v>
       </c>
     </row>
@@ -2525,10 +2522,10 @@
       <c r="B139" t="s">
         <v>17</v>
       </c>
-      <c r="C139" s="5">
+      <c r="C139" s="4">
         <v>46475</v>
       </c>
-      <c r="D139" s="5">
+      <c r="D139" s="4">
         <v>46500</v>
       </c>
     </row>
@@ -2539,10 +2536,10 @@
       <c r="B140" t="s">
         <v>17</v>
       </c>
-      <c r="C140" s="5">
+      <c r="C140" s="4">
         <v>46503</v>
       </c>
-      <c r="D140" s="5">
+      <c r="D140" s="4">
         <v>46528</v>
       </c>
     </row>
@@ -2553,10 +2550,10 @@
       <c r="B141" t="s">
         <v>17</v>
       </c>
-      <c r="C141" s="5">
+      <c r="C141" s="4">
         <v>46531</v>
       </c>
-      <c r="D141" s="5">
+      <c r="D141" s="4">
         <v>46556</v>
       </c>
     </row>
@@ -2567,10 +2564,10 @@
       <c r="B142" t="s">
         <v>17</v>
       </c>
-      <c r="C142" s="5">
+      <c r="C142" s="4">
         <v>46559</v>
       </c>
-      <c r="D142" s="5">
+      <c r="D142" s="4">
         <v>46584</v>
       </c>
     </row>
@@ -2581,10 +2578,10 @@
       <c r="B143" t="s">
         <v>17</v>
       </c>
-      <c r="C143" s="5">
+      <c r="C143" s="4">
         <v>46587</v>
       </c>
-      <c r="D143" s="5">
+      <c r="D143" s="4">
         <v>46612</v>
       </c>
     </row>
@@ -2595,10 +2592,10 @@
       <c r="B144" t="s">
         <v>17</v>
       </c>
-      <c r="C144" s="5">
+      <c r="C144" s="4">
         <v>46615</v>
       </c>
-      <c r="D144" s="2">
+      <c r="D144" s="1">
         <v>46640</v>
       </c>
     </row>
@@ -2609,10 +2606,10 @@
       <c r="B145" t="s">
         <v>17</v>
       </c>
-      <c r="C145" s="5">
+      <c r="C145" s="4">
         <v>46643</v>
       </c>
-      <c r="D145" s="2">
+      <c r="D145" s="1">
         <v>46668</v>
       </c>
     </row>
@@ -2623,10 +2620,10 @@
       <c r="B146" t="s">
         <v>17</v>
       </c>
-      <c r="C146" s="5">
+      <c r="C146" s="4">
         <v>46671</v>
       </c>
-      <c r="D146" s="5">
+      <c r="D146" s="4">
         <v>46696</v>
       </c>
     </row>
@@ -2637,10 +2634,10 @@
       <c r="B147" t="s">
         <v>17</v>
       </c>
-      <c r="C147" s="5">
+      <c r="C147" s="4">
         <v>46699</v>
       </c>
-      <c r="D147" s="5">
+      <c r="D147" s="4">
         <v>46724</v>
       </c>
     </row>
@@ -2651,10 +2648,10 @@
       <c r="B148" t="s">
         <v>17</v>
       </c>
-      <c r="C148" s="5">
+      <c r="C148" s="4">
         <v>46727</v>
       </c>
-      <c r="D148" s="5">
+      <c r="D148" s="4">
         <v>46759</v>
       </c>
     </row>
@@ -2665,10 +2662,10 @@
       <c r="B149" t="s">
         <v>19</v>
       </c>
-      <c r="C149" s="2">
+      <c r="C149" s="1">
         <v>46034</v>
       </c>
-      <c r="D149" s="2">
+      <c r="D149" s="1">
         <v>46059</v>
       </c>
     </row>
@@ -2679,10 +2676,10 @@
       <c r="B150" t="s">
         <v>19</v>
       </c>
-      <c r="C150" s="2">
+      <c r="C150" s="1">
         <v>46062</v>
       </c>
-      <c r="D150" s="2">
+      <c r="D150" s="1">
         <v>46087</v>
       </c>
     </row>
@@ -2693,10 +2690,10 @@
       <c r="B151" t="s">
         <v>19</v>
       </c>
-      <c r="C151" s="2">
+      <c r="C151" s="1">
         <v>46090</v>
       </c>
-      <c r="D151" s="2">
+      <c r="D151" s="1">
         <v>46115</v>
       </c>
     </row>
@@ -2707,10 +2704,10 @@
       <c r="B152" t="s">
         <v>19</v>
       </c>
-      <c r="C152" s="2">
+      <c r="C152" s="1">
         <v>46118</v>
       </c>
-      <c r="D152" s="2">
+      <c r="D152" s="1">
         <v>46143</v>
       </c>
     </row>
@@ -2721,10 +2718,10 @@
       <c r="B153" t="s">
         <v>19</v>
       </c>
-      <c r="C153" s="2">
+      <c r="C153" s="1">
         <v>46146</v>
       </c>
-      <c r="D153" s="2">
+      <c r="D153" s="1">
         <v>46171</v>
       </c>
     </row>
@@ -2735,10 +2732,10 @@
       <c r="B154" t="s">
         <v>19</v>
       </c>
-      <c r="C154" s="2">
+      <c r="C154" s="1">
         <v>46174</v>
       </c>
-      <c r="D154" s="2">
+      <c r="D154" s="1">
         <v>46199</v>
       </c>
     </row>
@@ -2749,10 +2746,10 @@
       <c r="B155" t="s">
         <v>19</v>
       </c>
-      <c r="C155" s="2">
+      <c r="C155" s="1">
         <v>46202</v>
       </c>
-      <c r="D155" s="2">
+      <c r="D155" s="1">
         <v>46227</v>
       </c>
     </row>
@@ -2763,10 +2760,10 @@
       <c r="B156" t="s">
         <v>19</v>
       </c>
-      <c r="C156" s="2">
+      <c r="C156" s="1">
         <v>46230</v>
       </c>
-      <c r="D156" s="2">
+      <c r="D156" s="1">
         <v>46255</v>
       </c>
     </row>
@@ -2777,10 +2774,10 @@
       <c r="B157" t="s">
         <v>19</v>
       </c>
-      <c r="C157" s="2">
+      <c r="C157" s="1">
         <v>46258</v>
       </c>
-      <c r="D157" s="2">
+      <c r="D157" s="1">
         <v>46275</v>
       </c>
     </row>
@@ -2791,10 +2788,10 @@
       <c r="B158" t="s">
         <v>19</v>
       </c>
-      <c r="C158" s="2">
+      <c r="C158" s="1">
         <v>46286</v>
       </c>
-      <c r="D158" s="2">
+      <c r="D158" s="1">
         <v>46311</v>
       </c>
     </row>
@@ -2805,10 +2802,10 @@
       <c r="B159" t="s">
         <v>19</v>
       </c>
-      <c r="C159" s="2">
+      <c r="C159" s="1">
         <v>46314</v>
       </c>
-      <c r="D159" s="2">
+      <c r="D159" s="1">
         <v>46339</v>
       </c>
     </row>
@@ -2819,10 +2816,10 @@
       <c r="B160" t="s">
         <v>19</v>
       </c>
-      <c r="C160" s="2">
+      <c r="C160" s="1">
         <v>46342</v>
       </c>
-      <c r="D160" s="2">
+      <c r="D160" s="1">
         <v>46367</v>
       </c>
     </row>
@@ -2833,10 +2830,10 @@
       <c r="B161" t="s">
         <v>19</v>
       </c>
-      <c r="C161" s="2">
+      <c r="C161" s="1">
         <v>46370</v>
       </c>
-      <c r="D161" s="2">
+      <c r="D161" s="1">
         <v>46402</v>
       </c>
     </row>
@@ -2847,10 +2844,10 @@
       <c r="B162" t="s">
         <v>19</v>
       </c>
-      <c r="C162" s="5">
+      <c r="C162" s="4">
         <v>46405</v>
       </c>
-      <c r="D162" s="5">
+      <c r="D162" s="4">
         <v>46430</v>
       </c>
     </row>
@@ -2861,10 +2858,10 @@
       <c r="B163" t="s">
         <v>19</v>
       </c>
-      <c r="C163" s="5">
+      <c r="C163" s="4">
         <v>46433</v>
       </c>
-      <c r="D163" s="5">
+      <c r="D163" s="4">
         <v>46458</v>
       </c>
     </row>
@@ -2875,10 +2872,10 @@
       <c r="B164" t="s">
         <v>19</v>
       </c>
-      <c r="C164" s="5">
+      <c r="C164" s="4">
         <v>46461</v>
       </c>
-      <c r="D164" s="5">
+      <c r="D164" s="4">
         <v>46486</v>
       </c>
     </row>
@@ -2889,10 +2886,10 @@
       <c r="B165" t="s">
         <v>19</v>
       </c>
-      <c r="C165" s="5">
+      <c r="C165" s="4">
         <v>46489</v>
       </c>
-      <c r="D165" s="5">
+      <c r="D165" s="4">
         <v>46514</v>
       </c>
     </row>
@@ -2903,10 +2900,10 @@
       <c r="B166" t="s">
         <v>19</v>
       </c>
-      <c r="C166" s="5">
+      <c r="C166" s="4">
         <v>46517</v>
       </c>
-      <c r="D166" s="5">
+      <c r="D166" s="4">
         <v>46542</v>
       </c>
     </row>
@@ -2917,10 +2914,10 @@
       <c r="B167" t="s">
         <v>19</v>
       </c>
-      <c r="C167" s="5">
+      <c r="C167" s="4">
         <v>46545</v>
       </c>
-      <c r="D167" s="5">
+      <c r="D167" s="4">
         <v>46570</v>
       </c>
     </row>
@@ -2931,10 +2928,10 @@
       <c r="B168" t="s">
         <v>19</v>
       </c>
-      <c r="C168" s="5">
+      <c r="C168" s="4">
         <v>46573</v>
       </c>
-      <c r="D168" s="5">
+      <c r="D168" s="4">
         <v>46598</v>
       </c>
     </row>
@@ -2945,10 +2942,10 @@
       <c r="B169" t="s">
         <v>19</v>
       </c>
-      <c r="C169" s="5">
+      <c r="C169" s="4">
         <v>46601</v>
       </c>
-      <c r="D169" s="5">
+      <c r="D169" s="4">
         <v>46626</v>
       </c>
     </row>
@@ -2959,10 +2956,10 @@
       <c r="B170" t="s">
         <v>19</v>
       </c>
-      <c r="C170" s="5">
+      <c r="C170" s="4">
         <v>46629</v>
       </c>
-      <c r="D170" s="2">
+      <c r="D170" s="1">
         <v>46654</v>
       </c>
     </row>
@@ -2973,10 +2970,10 @@
       <c r="B171" t="s">
         <v>19</v>
       </c>
-      <c r="C171" s="5">
+      <c r="C171" s="4">
         <v>46657</v>
       </c>
-      <c r="D171" s="5">
+      <c r="D171" s="4">
         <v>46682</v>
       </c>
     </row>
@@ -2987,10 +2984,10 @@
       <c r="B172" t="s">
         <v>19</v>
       </c>
-      <c r="C172" s="5">
+      <c r="C172" s="4">
         <v>46685</v>
       </c>
-      <c r="D172" s="5">
+      <c r="D172" s="4">
         <v>46710</v>
       </c>
     </row>
@@ -3001,10 +2998,10 @@
       <c r="B173" t="s">
         <v>19</v>
       </c>
-      <c r="C173" s="5">
+      <c r="C173" s="4">
         <v>46713</v>
       </c>
-      <c r="D173" s="5">
+      <c r="D173" s="4">
         <v>46738</v>
       </c>
     </row>
@@ -3015,10 +3012,10 @@
       <c r="B174" t="s">
         <v>19</v>
       </c>
-      <c r="C174" s="5">
+      <c r="C174" s="4">
         <v>46748</v>
       </c>
-      <c r="D174" s="5">
+      <c r="D174" s="4">
         <v>46773</v>
       </c>
     </row>
@@ -3029,10 +3026,10 @@
       <c r="B175" t="s">
         <v>21</v>
       </c>
-      <c r="C175" s="2">
+      <c r="C175" s="1">
         <v>46090</v>
       </c>
-      <c r="D175" s="2">
+      <c r="D175" s="1">
         <v>46115</v>
       </c>
     </row>
@@ -3043,10 +3040,10 @@
       <c r="B176" t="s">
         <v>21</v>
       </c>
-      <c r="C176" s="2">
+      <c r="C176" s="1">
         <v>46174</v>
       </c>
-      <c r="D176" s="2">
+      <c r="D176" s="1">
         <v>46199</v>
       </c>
     </row>
@@ -3057,10 +3054,10 @@
       <c r="B177" t="s">
         <v>21</v>
       </c>
-      <c r="C177" s="2">
+      <c r="C177" s="1">
         <v>46258</v>
       </c>
-      <c r="D177" s="2">
+      <c r="D177" s="1">
         <v>46283</v>
       </c>
     </row>
@@ -3071,10 +3068,10 @@
       <c r="B178" t="s">
         <v>21</v>
       </c>
-      <c r="C178" s="2">
+      <c r="C178" s="1">
         <v>46342</v>
       </c>
-      <c r="D178" s="2">
+      <c r="D178" s="1">
         <v>46367</v>
       </c>
     </row>
@@ -3085,10 +3082,10 @@
       <c r="B179" t="s">
         <v>21</v>
       </c>
-      <c r="C179" s="5">
+      <c r="C179" s="4">
         <v>46433</v>
       </c>
-      <c r="D179" s="5">
+      <c r="D179" s="4">
         <v>46458</v>
       </c>
     </row>
@@ -3099,10 +3096,10 @@
       <c r="B180" t="s">
         <v>21</v>
       </c>
-      <c r="C180" s="5">
+      <c r="C180" s="4">
         <v>46517</v>
       </c>
-      <c r="D180" s="5">
+      <c r="D180" s="4">
         <v>46542</v>
       </c>
     </row>
@@ -3113,10 +3110,10 @@
       <c r="B181" t="s">
         <v>21</v>
       </c>
-      <c r="C181" s="5">
+      <c r="C181" s="4">
         <v>46601</v>
       </c>
-      <c r="D181" s="5">
+      <c r="D181" s="4">
         <v>46626</v>
       </c>
     </row>
@@ -3127,10 +3124,10 @@
       <c r="B182" t="s">
         <v>21</v>
       </c>
-      <c r="C182" s="5">
+      <c r="C182" s="4">
         <v>46685</v>
       </c>
-      <c r="D182" s="5">
+      <c r="D182" s="4">
         <v>46710</v>
       </c>
     </row>
@@ -3141,10 +3138,10 @@
       <c r="B183" t="s">
         <v>23</v>
       </c>
-      <c r="C183" s="2">
+      <c r="C183" s="1">
         <v>46034</v>
       </c>
-      <c r="D183" s="2">
+      <c r="D183" s="1">
         <v>46059</v>
       </c>
     </row>
@@ -3155,10 +3152,10 @@
       <c r="B184" t="s">
         <v>23</v>
       </c>
-      <c r="C184" s="2">
+      <c r="C184" s="1">
         <v>46118</v>
       </c>
-      <c r="D184" s="2">
+      <c r="D184" s="1">
         <v>46143</v>
       </c>
     </row>
@@ -3169,10 +3166,10 @@
       <c r="B185" t="s">
         <v>23</v>
       </c>
-      <c r="C185" s="2">
+      <c r="C185" s="1">
         <v>46202</v>
       </c>
-      <c r="D185" s="2">
+      <c r="D185" s="1">
         <v>46227</v>
       </c>
     </row>
@@ -3183,10 +3180,10 @@
       <c r="B186" t="s">
         <v>23</v>
       </c>
-      <c r="C186" s="2">
+      <c r="C186" s="1">
         <v>46286</v>
       </c>
-      <c r="D186" s="2">
+      <c r="D186" s="1">
         <v>46311</v>
       </c>
     </row>
@@ -3197,10 +3194,10 @@
       <c r="B187" t="s">
         <v>23</v>
       </c>
-      <c r="C187" s="2">
+      <c r="C187" s="1">
         <v>46370</v>
       </c>
-      <c r="D187" s="2">
+      <c r="D187" s="1">
         <v>46402</v>
       </c>
     </row>
@@ -3211,10 +3208,10 @@
       <c r="B188" t="s">
         <v>23</v>
       </c>
-      <c r="C188" s="5">
+      <c r="C188" s="4">
         <v>46461</v>
       </c>
-      <c r="D188" s="5">
+      <c r="D188" s="4">
         <v>46486</v>
       </c>
     </row>
@@ -3225,10 +3222,10 @@
       <c r="B189" t="s">
         <v>23</v>
       </c>
-      <c r="C189" s="5">
+      <c r="C189" s="4">
         <v>46545</v>
       </c>
-      <c r="D189" s="5">
+      <c r="D189" s="4">
         <v>46570</v>
       </c>
     </row>
@@ -3239,10 +3236,10 @@
       <c r="B190" t="s">
         <v>23</v>
       </c>
-      <c r="C190" s="5">
+      <c r="C190" s="4">
         <v>46629</v>
       </c>
-      <c r="D190" s="2">
+      <c r="D190" s="1">
         <v>46654</v>
       </c>
     </row>
@@ -3253,10 +3250,10 @@
       <c r="B191" t="s">
         <v>23</v>
       </c>
-      <c r="C191" s="5">
+      <c r="C191" s="4">
         <v>46713</v>
       </c>
-      <c r="D191" s="5">
+      <c r="D191" s="4">
         <v>46738</v>
       </c>
     </row>
@@ -3267,10 +3264,10 @@
       <c r="B192" t="s">
         <v>25</v>
       </c>
-      <c r="C192" s="2">
+      <c r="C192" s="1">
         <v>46048</v>
       </c>
-      <c r="D192" s="2">
+      <c r="D192" s="1">
         <v>46059</v>
       </c>
     </row>
@@ -3281,10 +3278,10 @@
       <c r="B193" t="s">
         <v>25</v>
       </c>
-      <c r="C193" s="2">
+      <c r="C193" s="1">
         <v>46076</v>
       </c>
-      <c r="D193" s="2">
+      <c r="D193" s="1">
         <v>46087</v>
       </c>
     </row>
@@ -3295,10 +3292,10 @@
       <c r="B194" t="s">
         <v>25</v>
       </c>
-      <c r="C194" s="2">
+      <c r="C194" s="1">
         <v>46104</v>
       </c>
-      <c r="D194" s="2">
+      <c r="D194" s="1">
         <v>46115</v>
       </c>
     </row>
@@ -3323,10 +3320,10 @@
       <c r="B196" t="s">
         <v>25</v>
       </c>
-      <c r="C196" s="2">
+      <c r="C196" s="1">
         <v>46160</v>
       </c>
-      <c r="D196" s="2">
+      <c r="D196" s="1">
         <v>46171</v>
       </c>
     </row>
@@ -3337,7 +3334,7 @@
       <c r="B197" t="s">
         <v>25</v>
       </c>
-      <c r="C197" s="2">
+      <c r="C197" s="1">
         <v>46188</v>
       </c>
       <c r="D197" s="1" t="s">
@@ -3351,10 +3348,10 @@
       <c r="B198" t="s">
         <v>25</v>
       </c>
-      <c r="C198" s="2">
+      <c r="C198" s="1">
         <v>46216</v>
       </c>
-      <c r="D198" s="2">
+      <c r="D198" s="1">
         <v>46227</v>
       </c>
     </row>
@@ -3365,10 +3362,10 @@
       <c r="B199" t="s">
         <v>25</v>
       </c>
-      <c r="C199" s="2">
+      <c r="C199" s="1">
         <v>46244</v>
       </c>
-      <c r="D199" s="2">
+      <c r="D199" s="1">
         <v>46255</v>
       </c>
     </row>
@@ -3379,10 +3376,10 @@
       <c r="B200" t="s">
         <v>25</v>
       </c>
-      <c r="C200" s="2">
+      <c r="C200" s="1">
         <v>46272</v>
       </c>
-      <c r="D200" s="2">
+      <c r="D200" s="1">
         <v>46283</v>
       </c>
     </row>
@@ -3393,10 +3390,10 @@
       <c r="B201" t="s">
         <v>25</v>
       </c>
-      <c r="C201" s="2">
+      <c r="C201" s="1">
         <v>46300</v>
       </c>
-      <c r="D201" s="2">
+      <c r="D201" s="1">
         <v>46311</v>
       </c>
     </row>
@@ -3407,10 +3404,10 @@
       <c r="B202" t="s">
         <v>25</v>
       </c>
-      <c r="C202" s="2">
+      <c r="C202" s="1">
         <v>46328</v>
       </c>
-      <c r="D202" s="2">
+      <c r="D202" s="1">
         <v>46339</v>
       </c>
     </row>
@@ -3421,10 +3418,10 @@
       <c r="B203" t="s">
         <v>25</v>
       </c>
-      <c r="C203" s="2">
+      <c r="C203" s="1">
         <v>46356</v>
       </c>
-      <c r="D203" s="2">
+      <c r="D203" s="1">
         <v>46367</v>
       </c>
     </row>
@@ -3435,10 +3432,10 @@
       <c r="B204" t="s">
         <v>25</v>
       </c>
-      <c r="C204" s="5">
+      <c r="C204" s="4">
         <v>46384</v>
       </c>
-      <c r="D204" s="5">
+      <c r="D204" s="4">
         <v>46402</v>
       </c>
     </row>
@@ -3449,10 +3446,10 @@
       <c r="B205" t="s">
         <v>25</v>
       </c>
-      <c r="C205" s="5">
+      <c r="C205" s="4">
         <v>46419</v>
       </c>
-      <c r="D205" s="5">
+      <c r="D205" s="4">
         <v>46430</v>
       </c>
     </row>
@@ -3463,10 +3460,10 @@
       <c r="B206" t="s">
         <v>25</v>
       </c>
-      <c r="C206" s="5">
+      <c r="C206" s="4">
         <v>46447</v>
       </c>
-      <c r="D206" s="5">
+      <c r="D206" s="4">
         <v>46458</v>
       </c>
     </row>
@@ -3477,10 +3474,10 @@
       <c r="B207" t="s">
         <v>25</v>
       </c>
-      <c r="C207" s="5">
+      <c r="C207" s="4">
         <v>46475</v>
       </c>
-      <c r="D207" s="5">
+      <c r="D207" s="4">
         <v>46486</v>
       </c>
     </row>
@@ -3491,10 +3488,10 @@
       <c r="B208" t="s">
         <v>25</v>
       </c>
-      <c r="C208" s="5">
+      <c r="C208" s="4">
         <v>46503</v>
       </c>
-      <c r="D208" s="5">
+      <c r="D208" s="4">
         <v>46514</v>
       </c>
     </row>
@@ -3505,10 +3502,10 @@
       <c r="B209" t="s">
         <v>25</v>
       </c>
-      <c r="C209" s="5">
+      <c r="C209" s="4">
         <v>46531</v>
       </c>
-      <c r="D209" s="5">
+      <c r="D209" s="4">
         <v>46542</v>
       </c>
     </row>
@@ -3519,10 +3516,10 @@
       <c r="B210" t="s">
         <v>25</v>
       </c>
-      <c r="C210" s="5">
+      <c r="C210" s="4">
         <v>46559</v>
       </c>
-      <c r="D210" s="5">
+      <c r="D210" s="4">
         <v>46570</v>
       </c>
     </row>
@@ -3533,10 +3530,10 @@
       <c r="B211" t="s">
         <v>25</v>
       </c>
-      <c r="C211" s="5">
+      <c r="C211" s="4">
         <v>46587</v>
       </c>
-      <c r="D211" s="5">
+      <c r="D211" s="4">
         <v>46598</v>
       </c>
     </row>
@@ -3547,10 +3544,10 @@
       <c r="B212" t="s">
         <v>25</v>
       </c>
-      <c r="C212" s="5">
+      <c r="C212" s="4">
         <v>46615</v>
       </c>
-      <c r="D212" s="5">
+      <c r="D212" s="4">
         <v>46626</v>
       </c>
     </row>
@@ -3561,10 +3558,10 @@
       <c r="B213" t="s">
         <v>25</v>
       </c>
-      <c r="C213" s="5">
+      <c r="C213" s="4">
         <v>46643</v>
       </c>
-      <c r="D213" s="5">
+      <c r="D213" s="4">
         <v>46654</v>
       </c>
     </row>
@@ -3575,10 +3572,10 @@
       <c r="B214" t="s">
         <v>25</v>
       </c>
-      <c r="C214" s="5">
+      <c r="C214" s="4">
         <v>46671</v>
       </c>
-      <c r="D214" s="5">
+      <c r="D214" s="4">
         <v>46682</v>
       </c>
     </row>
@@ -3589,10 +3586,10 @@
       <c r="B215" t="s">
         <v>25</v>
       </c>
-      <c r="C215" s="5">
+      <c r="C215" s="4">
         <v>46699</v>
       </c>
-      <c r="D215" s="5">
+      <c r="D215" s="4">
         <v>46710</v>
       </c>
     </row>
@@ -3603,10 +3600,10 @@
       <c r="B216" t="s">
         <v>25</v>
       </c>
-      <c r="C216" s="5">
+      <c r="C216" s="4">
         <v>46727</v>
       </c>
-      <c r="D216" s="5">
+      <c r="D216" s="4">
         <v>46738</v>
       </c>
     </row>
@@ -3617,10 +3614,10 @@
       <c r="B217" t="s">
         <v>30</v>
       </c>
-      <c r="C217" s="2">
+      <c r="C217" s="1">
         <v>46034</v>
       </c>
-      <c r="D217" s="2">
+      <c r="D217" s="1">
         <v>46059</v>
       </c>
     </row>
@@ -3631,10 +3628,10 @@
       <c r="B218" t="s">
         <v>30</v>
       </c>
-      <c r="C218" s="2">
+      <c r="C218" s="1">
         <v>46062</v>
       </c>
-      <c r="D218" s="2">
+      <c r="D218" s="1">
         <v>46087</v>
       </c>
     </row>
@@ -3645,10 +3642,10 @@
       <c r="B219" t="s">
         <v>30</v>
       </c>
-      <c r="C219" s="2">
+      <c r="C219" s="1">
         <v>46090</v>
       </c>
-      <c r="D219" s="2">
+      <c r="D219" s="1">
         <v>46115</v>
       </c>
     </row>
@@ -3659,10 +3656,10 @@
       <c r="B220" t="s">
         <v>30</v>
       </c>
-      <c r="C220" s="2">
+      <c r="C220" s="1">
         <v>46118</v>
       </c>
-      <c r="D220" s="2">
+      <c r="D220" s="1">
         <v>46143</v>
       </c>
     </row>
@@ -3673,10 +3670,10 @@
       <c r="B221" t="s">
         <v>30</v>
       </c>
-      <c r="C221" s="2">
+      <c r="C221" s="1">
         <v>46146</v>
       </c>
-      <c r="D221" s="2">
+      <c r="D221" s="1">
         <v>46171</v>
       </c>
     </row>
@@ -3687,10 +3684,10 @@
       <c r="B222" t="s">
         <v>30</v>
       </c>
-      <c r="C222" s="2">
+      <c r="C222" s="1">
         <v>46174</v>
       </c>
-      <c r="D222" s="2">
+      <c r="D222" s="1">
         <v>46199</v>
       </c>
     </row>
@@ -3701,10 +3698,10 @@
       <c r="B223" t="s">
         <v>30</v>
       </c>
-      <c r="C223" s="2">
+      <c r="C223" s="1">
         <v>46202</v>
       </c>
-      <c r="D223" s="2">
+      <c r="D223" s="1">
         <v>46227</v>
       </c>
     </row>
@@ -3715,10 +3712,10 @@
       <c r="B224" t="s">
         <v>30</v>
       </c>
-      <c r="C224" s="2">
+      <c r="C224" s="1">
         <v>46230</v>
       </c>
-      <c r="D224" s="2">
+      <c r="D224" s="1">
         <v>46255</v>
       </c>
     </row>
@@ -3729,10 +3726,10 @@
       <c r="B225" t="s">
         <v>30</v>
       </c>
-      <c r="C225" s="2">
+      <c r="C225" s="1">
         <v>46258</v>
       </c>
-      <c r="D225" s="2">
+      <c r="D225" s="1">
         <v>46283</v>
       </c>
     </row>
@@ -3743,10 +3740,10 @@
       <c r="B226" t="s">
         <v>30</v>
       </c>
-      <c r="C226" s="2">
+      <c r="C226" s="1">
         <v>46286</v>
       </c>
-      <c r="D226" s="2">
+      <c r="D226" s="1">
         <v>46311</v>
       </c>
     </row>
@@ -3757,10 +3754,10 @@
       <c r="B227" t="s">
         <v>30</v>
       </c>
-      <c r="C227" s="2">
+      <c r="C227" s="1">
         <v>46314</v>
       </c>
-      <c r="D227" s="2">
+      <c r="D227" s="1">
         <v>46339</v>
       </c>
     </row>
@@ -3771,10 +3768,10 @@
       <c r="B228" t="s">
         <v>30</v>
       </c>
-      <c r="C228" s="2">
+      <c r="C228" s="1">
         <v>46342</v>
       </c>
-      <c r="D228" s="2">
+      <c r="D228" s="1">
         <v>46367</v>
       </c>
     </row>
@@ -3785,10 +3782,10 @@
       <c r="B229" t="s">
         <v>30</v>
       </c>
-      <c r="C229" s="2">
+      <c r="C229" s="1">
         <v>46370</v>
       </c>
-      <c r="D229" s="2">
+      <c r="D229" s="1">
         <v>46402</v>
       </c>
     </row>
@@ -3799,10 +3796,10 @@
       <c r="B230" t="s">
         <v>30</v>
       </c>
-      <c r="C230" s="5">
+      <c r="C230" s="4">
         <v>46405</v>
       </c>
-      <c r="D230" s="5">
+      <c r="D230" s="4">
         <v>46430</v>
       </c>
     </row>
@@ -3813,10 +3810,10 @@
       <c r="B231" t="s">
         <v>30</v>
       </c>
-      <c r="C231" s="5">
+      <c r="C231" s="4">
         <v>46433</v>
       </c>
-      <c r="D231" s="5">
+      <c r="D231" s="4">
         <v>46458</v>
       </c>
     </row>
@@ -3827,10 +3824,10 @@
       <c r="B232" t="s">
         <v>30</v>
       </c>
-      <c r="C232" s="5">
+      <c r="C232" s="4">
         <v>46461</v>
       </c>
-      <c r="D232" s="5">
+      <c r="D232" s="4">
         <v>46486</v>
       </c>
     </row>
@@ -3841,10 +3838,10 @@
       <c r="B233" t="s">
         <v>30</v>
       </c>
-      <c r="C233" s="5">
+      <c r="C233" s="4">
         <v>46489</v>
       </c>
-      <c r="D233" s="5">
+      <c r="D233" s="4">
         <v>46514</v>
       </c>
     </row>
@@ -3855,10 +3852,10 @@
       <c r="B234" t="s">
         <v>30</v>
       </c>
-      <c r="C234" s="5">
+      <c r="C234" s="4">
         <v>46517</v>
       </c>
-      <c r="D234" s="5">
+      <c r="D234" s="4">
         <v>46542</v>
       </c>
     </row>
@@ -3869,10 +3866,10 @@
       <c r="B235" t="s">
         <v>30</v>
       </c>
-      <c r="C235" s="5">
+      <c r="C235" s="4">
         <v>46545</v>
       </c>
-      <c r="D235" s="5">
+      <c r="D235" s="4">
         <v>46570</v>
       </c>
     </row>
@@ -3883,10 +3880,10 @@
       <c r="B236" t="s">
         <v>30</v>
       </c>
-      <c r="C236" s="5">
+      <c r="C236" s="4">
         <v>46573</v>
       </c>
-      <c r="D236" s="5">
+      <c r="D236" s="4">
         <v>46598</v>
       </c>
     </row>
@@ -3897,10 +3894,10 @@
       <c r="B237" t="s">
         <v>30</v>
       </c>
-      <c r="C237" s="5">
+      <c r="C237" s="4">
         <v>46601</v>
       </c>
-      <c r="D237" s="5">
+      <c r="D237" s="4">
         <v>46626</v>
       </c>
     </row>
@@ -3911,10 +3908,10 @@
       <c r="B238" t="s">
         <v>30</v>
       </c>
-      <c r="C238" s="5">
+      <c r="C238" s="4">
         <v>46629</v>
       </c>
-      <c r="D238" s="2">
+      <c r="D238" s="1">
         <v>46654</v>
       </c>
     </row>
@@ -3925,10 +3922,10 @@
       <c r="B239" t="s">
         <v>30</v>
       </c>
-      <c r="C239" s="5">
+      <c r="C239" s="4">
         <v>46657</v>
       </c>
-      <c r="D239" s="5">
+      <c r="D239" s="4">
         <v>46682</v>
       </c>
     </row>
@@ -3939,10 +3936,10 @@
       <c r="B240" t="s">
         <v>30</v>
       </c>
-      <c r="C240" s="5">
+      <c r="C240" s="4">
         <v>46685</v>
       </c>
-      <c r="D240" s="5">
+      <c r="D240" s="4">
         <v>46710</v>
       </c>
     </row>
@@ -3953,10 +3950,10 @@
       <c r="B241" t="s">
         <v>30</v>
       </c>
-      <c r="C241" s="5">
+      <c r="C241" s="4">
         <v>46713</v>
       </c>
-      <c r="D241" s="5">
+      <c r="D241" s="4">
         <v>46738</v>
       </c>
     </row>
@@ -3967,10 +3964,10 @@
       <c r="B242" t="s">
         <v>30</v>
       </c>
-      <c r="C242" s="5">
+      <c r="C242" s="4">
         <v>46748</v>
       </c>
-      <c r="D242" s="5">
+      <c r="D242" s="4">
         <v>46773</v>
       </c>
     </row>
@@ -3981,10 +3978,10 @@
       <c r="B243" t="s">
         <v>32</v>
       </c>
-      <c r="C243" s="2">
+      <c r="C243" s="1">
         <v>46034</v>
       </c>
-      <c r="D243" s="2">
+      <c r="D243" s="1">
         <v>46045</v>
       </c>
     </row>
@@ -3995,10 +3992,10 @@
       <c r="B244" t="s">
         <v>32</v>
       </c>
-      <c r="C244" s="2">
+      <c r="C244" s="1">
         <v>46048</v>
       </c>
-      <c r="D244" s="2">
+      <c r="D244" s="1">
         <v>46059</v>
       </c>
     </row>
@@ -4023,10 +4020,10 @@
       <c r="B246" t="s">
         <v>32</v>
       </c>
-      <c r="C246" s="2">
+      <c r="C246" s="1">
         <v>46076</v>
       </c>
-      <c r="D246" s="2">
+      <c r="D246" s="1">
         <v>46087</v>
       </c>
     </row>
@@ -4037,10 +4034,10 @@
       <c r="B247" t="s">
         <v>32</v>
       </c>
-      <c r="C247" s="2">
+      <c r="C247" s="1">
         <v>46090</v>
       </c>
-      <c r="D247" s="2">
+      <c r="D247" s="1">
         <v>46101</v>
       </c>
     </row>
@@ -4051,10 +4048,10 @@
       <c r="B248" t="s">
         <v>32</v>
       </c>
-      <c r="C248" s="2">
+      <c r="C248" s="1">
         <v>46104</v>
       </c>
-      <c r="D248" s="2">
+      <c r="D248" s="1">
         <v>46115</v>
       </c>
     </row>
@@ -4065,10 +4062,10 @@
       <c r="B249" t="s">
         <v>32</v>
       </c>
-      <c r="C249" s="2">
+      <c r="C249" s="1">
         <v>46118</v>
       </c>
-      <c r="D249" s="2">
+      <c r="D249" s="1">
         <v>46129</v>
       </c>
     </row>
@@ -4093,10 +4090,10 @@
       <c r="B251" t="s">
         <v>32</v>
       </c>
-      <c r="C251" s="2">
+      <c r="C251" s="1">
         <v>46146</v>
       </c>
-      <c r="D251" s="2">
+      <c r="D251" s="1">
         <v>46157</v>
       </c>
     </row>
@@ -4107,10 +4104,10 @@
       <c r="B252" t="s">
         <v>32</v>
       </c>
-      <c r="C252" s="2">
+      <c r="C252" s="1">
         <v>46160</v>
       </c>
-      <c r="D252" s="2">
+      <c r="D252" s="1">
         <v>46171</v>
       </c>
     </row>
@@ -4124,7 +4121,7 @@
       <c r="C253" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D253" s="2">
+      <c r="D253" s="1">
         <v>46185</v>
       </c>
     </row>
@@ -4135,7 +4132,7 @@
       <c r="B254" t="s">
         <v>32</v>
       </c>
-      <c r="C254" s="2">
+      <c r="C254" s="1">
         <v>46188</v>
       </c>
       <c r="D254" s="1" t="s">
@@ -4149,10 +4146,10 @@
       <c r="B255" t="s">
         <v>32</v>
       </c>
-      <c r="C255" s="2">
+      <c r="C255" s="1">
         <v>46202</v>
       </c>
-      <c r="D255" s="2">
+      <c r="D255" s="1">
         <v>46213</v>
       </c>
     </row>
@@ -4163,10 +4160,10 @@
       <c r="B256" t="s">
         <v>32</v>
       </c>
-      <c r="C256" s="2">
+      <c r="C256" s="1">
         <v>46216</v>
       </c>
-      <c r="D256" s="2">
+      <c r="D256" s="1">
         <v>46227</v>
       </c>
     </row>
@@ -4177,10 +4174,10 @@
       <c r="B257" t="s">
         <v>32</v>
       </c>
-      <c r="C257" s="2">
+      <c r="C257" s="1">
         <v>46230</v>
       </c>
-      <c r="D257" s="2">
+      <c r="D257" s="1">
         <v>46241</v>
       </c>
     </row>
@@ -4191,10 +4188,10 @@
       <c r="B258" t="s">
         <v>32</v>
       </c>
-      <c r="C258" s="2">
+      <c r="C258" s="1">
         <v>46244</v>
       </c>
-      <c r="D258" s="2">
+      <c r="D258" s="1">
         <v>46255</v>
       </c>
     </row>
@@ -4205,10 +4202,10 @@
       <c r="B259" t="s">
         <v>32</v>
       </c>
-      <c r="C259" s="2">
+      <c r="C259" s="1">
         <v>46258</v>
       </c>
-      <c r="D259" s="2">
+      <c r="D259" s="1">
         <v>46269</v>
       </c>
     </row>
@@ -4219,10 +4216,10 @@
       <c r="B260" t="s">
         <v>32</v>
       </c>
-      <c r="C260" s="2">
+      <c r="C260" s="1">
         <v>46272</v>
       </c>
-      <c r="D260" s="2">
+      <c r="D260" s="1">
         <v>46283</v>
       </c>
     </row>
@@ -4233,10 +4230,10 @@
       <c r="B261" t="s">
         <v>32</v>
       </c>
-      <c r="C261" s="2">
+      <c r="C261" s="1">
         <v>46286</v>
       </c>
-      <c r="D261" s="2">
+      <c r="D261" s="1">
         <v>46297</v>
       </c>
     </row>
@@ -4247,10 +4244,10 @@
       <c r="B262" t="s">
         <v>32</v>
       </c>
-      <c r="C262" s="2">
+      <c r="C262" s="1">
         <v>46300</v>
       </c>
-      <c r="D262" s="2">
+      <c r="D262" s="1">
         <v>46311</v>
       </c>
     </row>
@@ -4261,10 +4258,10 @@
       <c r="B263" t="s">
         <v>32</v>
       </c>
-      <c r="C263" s="2">
+      <c r="C263" s="1">
         <v>46314</v>
       </c>
-      <c r="D263" s="2">
+      <c r="D263" s="1">
         <v>46325</v>
       </c>
     </row>
@@ -4275,10 +4272,10 @@
       <c r="B264" t="s">
         <v>32</v>
       </c>
-      <c r="C264" s="2">
+      <c r="C264" s="1">
         <v>46328</v>
       </c>
-      <c r="D264" s="2">
+      <c r="D264" s="1">
         <v>46339</v>
       </c>
     </row>
@@ -4289,10 +4286,10 @@
       <c r="B265" t="s">
         <v>32</v>
       </c>
-      <c r="C265" s="2">
+      <c r="C265" s="1">
         <v>46342</v>
       </c>
-      <c r="D265" s="2">
+      <c r="D265" s="1">
         <v>46353</v>
       </c>
     </row>
@@ -4303,10 +4300,10 @@
       <c r="B266" t="s">
         <v>32</v>
       </c>
-      <c r="C266" s="2">
+      <c r="C266" s="1">
         <v>46356</v>
       </c>
-      <c r="D266" s="2">
+      <c r="D266" s="1">
         <v>46367</v>
       </c>
     </row>
@@ -4317,10 +4314,10 @@
       <c r="B267" t="s">
         <v>32</v>
       </c>
-      <c r="C267" s="2">
+      <c r="C267" s="1">
         <v>46370</v>
       </c>
-      <c r="D267" s="2">
+      <c r="D267" s="1">
         <v>46388</v>
       </c>
     </row>
@@ -4331,10 +4328,10 @@
       <c r="B268" t="s">
         <v>32</v>
       </c>
-      <c r="C268" s="5">
+      <c r="C268" s="4">
         <v>46391</v>
       </c>
-      <c r="D268" s="5">
+      <c r="D268" s="4">
         <v>46402</v>
       </c>
     </row>
@@ -4345,10 +4342,10 @@
       <c r="B269" t="s">
         <v>32</v>
       </c>
-      <c r="C269" s="5">
+      <c r="C269" s="4">
         <v>46405</v>
       </c>
-      <c r="D269" s="5">
+      <c r="D269" s="4">
         <v>46416</v>
       </c>
     </row>
@@ -4359,10 +4356,10 @@
       <c r="B270" t="s">
         <v>32</v>
       </c>
-      <c r="C270" s="5">
+      <c r="C270" s="4">
         <v>46419</v>
       </c>
-      <c r="D270" s="5">
+      <c r="D270" s="4">
         <v>46430</v>
       </c>
     </row>
@@ -4373,10 +4370,10 @@
       <c r="B271" t="s">
         <v>32</v>
       </c>
-      <c r="C271" s="5">
+      <c r="C271" s="4">
         <v>46433</v>
       </c>
-      <c r="D271" s="5">
+      <c r="D271" s="4">
         <v>46444</v>
       </c>
     </row>
@@ -4387,10 +4384,10 @@
       <c r="B272" t="s">
         <v>32</v>
       </c>
-      <c r="C272" s="5">
+      <c r="C272" s="4">
         <v>46447</v>
       </c>
-      <c r="D272" s="5">
+      <c r="D272" s="4">
         <v>46458</v>
       </c>
     </row>
@@ -4401,10 +4398,10 @@
       <c r="B273" t="s">
         <v>32</v>
       </c>
-      <c r="C273" s="5">
+      <c r="C273" s="4">
         <v>46461</v>
       </c>
-      <c r="D273" s="5">
+      <c r="D273" s="4">
         <v>46472</v>
       </c>
     </row>
@@ -4415,10 +4412,10 @@
       <c r="B274" t="s">
         <v>32</v>
       </c>
-      <c r="C274" s="5">
+      <c r="C274" s="4">
         <v>46475</v>
       </c>
-      <c r="D274" s="5">
+      <c r="D274" s="4">
         <v>46486</v>
       </c>
     </row>
@@ -4429,10 +4426,10 @@
       <c r="B275" t="s">
         <v>32</v>
       </c>
-      <c r="C275" s="5">
+      <c r="C275" s="4">
         <v>46489</v>
       </c>
-      <c r="D275" s="5">
+      <c r="D275" s="4">
         <v>46500</v>
       </c>
     </row>
@@ -4443,10 +4440,10 @@
       <c r="B276" t="s">
         <v>32</v>
       </c>
-      <c r="C276" s="5">
+      <c r="C276" s="4">
         <v>46503</v>
       </c>
-      <c r="D276" s="5">
+      <c r="D276" s="4">
         <v>46514</v>
       </c>
     </row>
@@ -4457,10 +4454,10 @@
       <c r="B277" t="s">
         <v>32</v>
       </c>
-      <c r="C277" s="5">
+      <c r="C277" s="4">
         <v>46517</v>
       </c>
-      <c r="D277" s="5">
+      <c r="D277" s="4">
         <v>46528</v>
       </c>
     </row>
@@ -4471,10 +4468,10 @@
       <c r="B278" t="s">
         <v>32</v>
       </c>
-      <c r="C278" s="5">
+      <c r="C278" s="4">
         <v>46531</v>
       </c>
-      <c r="D278" s="5">
+      <c r="D278" s="4">
         <v>46542</v>
       </c>
     </row>
@@ -4485,10 +4482,10 @@
       <c r="B279" t="s">
         <v>32</v>
       </c>
-      <c r="C279" s="5">
+      <c r="C279" s="4">
         <v>46545</v>
       </c>
-      <c r="D279" s="5">
+      <c r="D279" s="4">
         <v>46556</v>
       </c>
     </row>
@@ -4499,10 +4496,10 @@
       <c r="B280" t="s">
         <v>32</v>
       </c>
-      <c r="C280" s="5">
+      <c r="C280" s="4">
         <v>46559</v>
       </c>
-      <c r="D280" s="5">
+      <c r="D280" s="4">
         <v>46570</v>
       </c>
     </row>
@@ -4513,10 +4510,10 @@
       <c r="B281" t="s">
         <v>32</v>
       </c>
-      <c r="C281" s="5">
+      <c r="C281" s="4">
         <v>46573</v>
       </c>
-      <c r="D281" s="5">
+      <c r="D281" s="4">
         <v>46584</v>
       </c>
     </row>
@@ -4527,10 +4524,10 @@
       <c r="B282" t="s">
         <v>32</v>
       </c>
-      <c r="C282" s="5">
+      <c r="C282" s="4">
         <v>46587</v>
       </c>
-      <c r="D282" s="5">
+      <c r="D282" s="4">
         <v>46598</v>
       </c>
     </row>
@@ -4541,10 +4538,10 @@
       <c r="B283" t="s">
         <v>32</v>
       </c>
-      <c r="C283" s="5">
+      <c r="C283" s="4">
         <v>46601</v>
       </c>
-      <c r="D283" s="5">
+      <c r="D283" s="4">
         <v>46612</v>
       </c>
     </row>
@@ -4555,10 +4552,10 @@
       <c r="B284" t="s">
         <v>32</v>
       </c>
-      <c r="C284" s="5">
+      <c r="C284" s="4">
         <v>46615</v>
       </c>
-      <c r="D284" s="5">
+      <c r="D284" s="4">
         <v>46626</v>
       </c>
     </row>
@@ -4569,10 +4566,10 @@
       <c r="B285" t="s">
         <v>32</v>
       </c>
-      <c r="C285" s="5">
+      <c r="C285" s="4">
         <v>46629</v>
       </c>
-      <c r="D285" s="5">
+      <c r="D285" s="4">
         <v>46640</v>
       </c>
     </row>
@@ -4583,10 +4580,10 @@
       <c r="B286" t="s">
         <v>32</v>
       </c>
-      <c r="C286" s="5">
+      <c r="C286" s="4">
         <v>46643</v>
       </c>
-      <c r="D286" s="5">
+      <c r="D286" s="4">
         <v>46654</v>
       </c>
     </row>
@@ -4597,10 +4594,10 @@
       <c r="B287" t="s">
         <v>32</v>
       </c>
-      <c r="C287" s="5">
+      <c r="C287" s="4">
         <v>46657</v>
       </c>
-      <c r="D287" s="5">
+      <c r="D287" s="4">
         <v>46668</v>
       </c>
     </row>
@@ -4611,10 +4608,10 @@
       <c r="B288" t="s">
         <v>32</v>
       </c>
-      <c r="C288" s="5">
+      <c r="C288" s="4">
         <v>46671</v>
       </c>
-      <c r="D288" s="5">
+      <c r="D288" s="4">
         <v>46682</v>
       </c>
     </row>
@@ -4625,10 +4622,10 @@
       <c r="B289" t="s">
         <v>32</v>
       </c>
-      <c r="C289" s="5">
+      <c r="C289" s="4">
         <v>46685</v>
       </c>
-      <c r="D289" s="5">
+      <c r="D289" s="4">
         <v>46696</v>
       </c>
     </row>
@@ -4639,10 +4636,10 @@
       <c r="B290" t="s">
         <v>32</v>
       </c>
-      <c r="C290" s="5">
+      <c r="C290" s="4">
         <v>46699</v>
       </c>
-      <c r="D290" s="5">
+      <c r="D290" s="4">
         <v>46710</v>
       </c>
     </row>
@@ -4653,10 +4650,10 @@
       <c r="B291" t="s">
         <v>32</v>
       </c>
-      <c r="C291" s="5">
+      <c r="C291" s="4">
         <v>46713</v>
       </c>
-      <c r="D291" s="5">
+      <c r="D291" s="4">
         <v>46724</v>
       </c>
     </row>
@@ -4667,10 +4664,10 @@
       <c r="B292" t="s">
         <v>32</v>
       </c>
-      <c r="C292" s="5">
+      <c r="C292" s="4">
         <v>46727</v>
       </c>
-      <c r="D292" s="5">
+      <c r="D292" s="4">
         <v>46738</v>
       </c>
     </row>
@@ -4681,10 +4678,10 @@
       <c r="B293" t="s">
         <v>32</v>
       </c>
-      <c r="C293" s="5">
+      <c r="C293" s="4">
         <v>46748</v>
       </c>
-      <c r="D293" s="5">
+      <c r="D293" s="4">
         <v>46759</v>
       </c>
     </row>
@@ -4695,10 +4692,10 @@
       <c r="B294" t="s">
         <v>36</v>
       </c>
-      <c r="C294" s="2">
+      <c r="C294" s="1">
         <v>46034</v>
       </c>
-      <c r="D294" s="2">
+      <c r="D294" s="1">
         <v>46059</v>
       </c>
     </row>
@@ -4709,10 +4706,10 @@
       <c r="B295" t="s">
         <v>36</v>
       </c>
-      <c r="C295" s="2">
+      <c r="C295" s="1">
         <v>46048</v>
       </c>
-      <c r="D295" s="2">
+      <c r="D295" s="1">
         <v>46073</v>
       </c>
     </row>
@@ -4723,10 +4720,10 @@
       <c r="B296" t="s">
         <v>36</v>
       </c>
-      <c r="C296" s="2">
+      <c r="C296" s="1">
         <v>46062</v>
       </c>
-      <c r="D296" s="2">
+      <c r="D296" s="1">
         <v>46087</v>
       </c>
     </row>
@@ -4737,10 +4734,10 @@
       <c r="B297" t="s">
         <v>36</v>
       </c>
-      <c r="C297" s="2">
+      <c r="C297" s="1">
         <v>46076</v>
       </c>
-      <c r="D297" s="2">
+      <c r="D297" s="1">
         <v>46101</v>
       </c>
     </row>
@@ -4751,10 +4748,10 @@
       <c r="B298" t="s">
         <v>36</v>
       </c>
-      <c r="C298" s="2">
+      <c r="C298" s="1">
         <v>46090</v>
       </c>
-      <c r="D298" s="2">
+      <c r="D298" s="1">
         <v>46115</v>
       </c>
     </row>
@@ -4765,10 +4762,10 @@
       <c r="B299" t="s">
         <v>36</v>
       </c>
-      <c r="C299" s="2">
+      <c r="C299" s="1">
         <v>46104</v>
       </c>
-      <c r="D299" s="2">
+      <c r="D299" s="1">
         <v>46129</v>
       </c>
     </row>
@@ -4779,10 +4776,10 @@
       <c r="B300" t="s">
         <v>36</v>
       </c>
-      <c r="C300" s="2">
+      <c r="C300" s="1">
         <v>46118</v>
       </c>
-      <c r="D300" s="2">
+      <c r="D300" s="1">
         <v>46143</v>
       </c>
     </row>
@@ -4793,10 +4790,10 @@
       <c r="B301" t="s">
         <v>36</v>
       </c>
-      <c r="C301" s="2">
+      <c r="C301" s="1">
         <v>46132</v>
       </c>
-      <c r="D301" s="2">
+      <c r="D301" s="1">
         <v>46157</v>
       </c>
     </row>
@@ -4807,10 +4804,10 @@
       <c r="B302" t="s">
         <v>36</v>
       </c>
-      <c r="C302" s="2">
+      <c r="C302" s="1">
         <v>46146</v>
       </c>
-      <c r="D302" s="2">
+      <c r="D302" s="1">
         <v>46171</v>
       </c>
     </row>
@@ -4821,10 +4818,10 @@
       <c r="B303" t="s">
         <v>36</v>
       </c>
-      <c r="C303" s="2">
+      <c r="C303" s="1">
         <v>46160</v>
       </c>
-      <c r="D303" s="2">
+      <c r="D303" s="1">
         <v>46185</v>
       </c>
     </row>
@@ -4835,10 +4832,10 @@
       <c r="B304" t="s">
         <v>36</v>
       </c>
-      <c r="C304" s="2">
+      <c r="C304" s="1">
         <v>46174</v>
       </c>
-      <c r="D304" s="2">
+      <c r="D304" s="1">
         <v>46199</v>
       </c>
     </row>
@@ -4849,10 +4846,10 @@
       <c r="B305" t="s">
         <v>36</v>
       </c>
-      <c r="C305" s="2">
+      <c r="C305" s="1">
         <v>46188</v>
       </c>
-      <c r="D305" s="2">
+      <c r="D305" s="1">
         <v>46213</v>
       </c>
     </row>
@@ -4863,10 +4860,10 @@
       <c r="B306" t="s">
         <v>36</v>
       </c>
-      <c r="C306" s="2">
+      <c r="C306" s="1">
         <v>46202</v>
       </c>
-      <c r="D306" s="2">
+      <c r="D306" s="1">
         <v>46227</v>
       </c>
     </row>
@@ -4877,10 +4874,10 @@
       <c r="B307" t="s">
         <v>36</v>
       </c>
-      <c r="C307" s="2">
+      <c r="C307" s="1">
         <v>46216</v>
       </c>
-      <c r="D307" s="2">
+      <c r="D307" s="1">
         <v>46241</v>
       </c>
     </row>
@@ -4891,10 +4888,10 @@
       <c r="B308" t="s">
         <v>36</v>
       </c>
-      <c r="C308" s="2">
+      <c r="C308" s="1">
         <v>46230</v>
       </c>
-      <c r="D308" s="2">
+      <c r="D308" s="1">
         <v>46255</v>
       </c>
     </row>
@@ -4905,10 +4902,10 @@
       <c r="B309" t="s">
         <v>36</v>
       </c>
-      <c r="C309" s="2">
+      <c r="C309" s="1">
         <v>46244</v>
       </c>
-      <c r="D309" s="2">
+      <c r="D309" s="1">
         <v>46269</v>
       </c>
     </row>
@@ -4919,10 +4916,10 @@
       <c r="B310" t="s">
         <v>36</v>
       </c>
-      <c r="C310" s="2">
+      <c r="C310" s="1">
         <v>46258</v>
       </c>
-      <c r="D310" s="2">
+      <c r="D310" s="1">
         <v>46275</v>
       </c>
     </row>
@@ -4933,10 +4930,10 @@
       <c r="B311" t="s">
         <v>36</v>
       </c>
-      <c r="C311" s="2">
+      <c r="C311" s="1">
         <v>46272</v>
       </c>
-      <c r="D311" s="2">
+      <c r="D311" s="1">
         <v>46297</v>
       </c>
     </row>
@@ -4947,10 +4944,10 @@
       <c r="B312" t="s">
         <v>36</v>
       </c>
-      <c r="C312" s="2">
+      <c r="C312" s="1">
         <v>46286</v>
       </c>
-      <c r="D312" s="2">
+      <c r="D312" s="1">
         <v>46311</v>
       </c>
     </row>
@@ -4961,10 +4958,10 @@
       <c r="B313" t="s">
         <v>36</v>
       </c>
-      <c r="C313" s="2">
+      <c r="C313" s="1">
         <v>46300</v>
       </c>
-      <c r="D313" s="2">
+      <c r="D313" s="1">
         <v>46326</v>
       </c>
     </row>
@@ -4975,10 +4972,10 @@
       <c r="B314" t="s">
         <v>36</v>
       </c>
-      <c r="C314" s="2">
+      <c r="C314" s="1">
         <v>46314</v>
       </c>
-      <c r="D314" s="2">
+      <c r="D314" s="1">
         <v>46339</v>
       </c>
     </row>
@@ -4989,10 +4986,10 @@
       <c r="B315" t="s">
         <v>36</v>
       </c>
-      <c r="C315" s="2">
+      <c r="C315" s="1">
         <v>46328</v>
       </c>
-      <c r="D315" s="2">
+      <c r="D315" s="1">
         <v>46353</v>
       </c>
     </row>
@@ -5003,10 +5000,10 @@
       <c r="B316" t="s">
         <v>36</v>
       </c>
-      <c r="C316" s="2">
+      <c r="C316" s="1">
         <v>46342</v>
       </c>
-      <c r="D316" s="2">
+      <c r="D316" s="1">
         <v>46367</v>
       </c>
     </row>
@@ -5017,10 +5014,10 @@
       <c r="B317" t="s">
         <v>36</v>
       </c>
-      <c r="C317" s="2">
+      <c r="C317" s="1">
         <v>46356</v>
       </c>
-      <c r="D317" s="2">
+      <c r="D317" s="1">
         <v>46381</v>
       </c>
     </row>
@@ -5031,10 +5028,10 @@
       <c r="B318" t="s">
         <v>36</v>
       </c>
-      <c r="C318" s="2">
+      <c r="C318" s="1">
         <v>46370</v>
       </c>
-      <c r="D318" s="2">
+      <c r="D318" s="1">
         <v>46402</v>
       </c>
     </row>
@@ -5045,10 +5042,10 @@
       <c r="B319" t="s">
         <v>36</v>
       </c>
-      <c r="C319" s="2">
+      <c r="C319" s="1">
         <v>46384</v>
       </c>
-      <c r="D319" s="2">
+      <c r="D319" s="1">
         <v>46409</v>
       </c>
     </row>
@@ -5059,10 +5056,10 @@
       <c r="B320" t="s">
         <v>36</v>
       </c>
-      <c r="C320" s="2">
+      <c r="C320" s="1">
         <v>46034</v>
       </c>
-      <c r="D320" s="2">
+      <c r="D320" s="1">
         <v>46059</v>
       </c>
     </row>
@@ -5073,10 +5070,10 @@
       <c r="B321" t="s">
         <v>36</v>
       </c>
-      <c r="C321" s="2">
+      <c r="C321" s="1">
         <v>46062</v>
       </c>
-      <c r="D321" s="2">
+      <c r="D321" s="1">
         <v>46087</v>
       </c>
     </row>
@@ -5087,10 +5084,10 @@
       <c r="B322" t="s">
         <v>36</v>
       </c>
-      <c r="C322" s="2">
+      <c r="C322" s="1">
         <v>46090</v>
       </c>
-      <c r="D322" s="2">
+      <c r="D322" s="1">
         <v>46115</v>
       </c>
     </row>
@@ -5101,10 +5098,10 @@
       <c r="B323" t="s">
         <v>36</v>
       </c>
-      <c r="C323" s="2">
+      <c r="C323" s="1">
         <v>46118</v>
       </c>
-      <c r="D323" s="2">
+      <c r="D323" s="1">
         <v>46143</v>
       </c>
     </row>
@@ -5115,10 +5112,10 @@
       <c r="B324" t="s">
         <v>36</v>
       </c>
-      <c r="C324" s="2">
+      <c r="C324" s="1">
         <v>46146</v>
       </c>
-      <c r="D324" s="2">
+      <c r="D324" s="1">
         <v>46171</v>
       </c>
     </row>
@@ -5129,10 +5126,10 @@
       <c r="B325" t="s">
         <v>36</v>
       </c>
-      <c r="C325" s="2">
+      <c r="C325" s="1">
         <v>46174</v>
       </c>
-      <c r="D325" s="2">
+      <c r="D325" s="1">
         <v>46199</v>
       </c>
     </row>
@@ -5143,10 +5140,10 @@
       <c r="B326" t="s">
         <v>36</v>
       </c>
-      <c r="C326" s="2">
+      <c r="C326" s="1">
         <v>46202</v>
       </c>
-      <c r="D326" s="2">
+      <c r="D326" s="1">
         <v>46227</v>
       </c>
     </row>
@@ -5157,10 +5154,10 @@
       <c r="B327" t="s">
         <v>36</v>
       </c>
-      <c r="C327" s="2">
+      <c r="C327" s="1">
         <v>46230</v>
       </c>
-      <c r="D327" s="2">
+      <c r="D327" s="1">
         <v>46255</v>
       </c>
     </row>
@@ -5171,10 +5168,10 @@
       <c r="B328" t="s">
         <v>36</v>
       </c>
-      <c r="C328" s="2">
+      <c r="C328" s="1">
         <v>46258</v>
       </c>
-      <c r="D328" s="2">
+      <c r="D328" s="1">
         <v>46275</v>
       </c>
     </row>
@@ -5185,10 +5182,10 @@
       <c r="B329" t="s">
         <v>36</v>
       </c>
-      <c r="C329" s="2">
+      <c r="C329" s="1">
         <v>46286</v>
       </c>
-      <c r="D329" s="2">
+      <c r="D329" s="1">
         <v>46311</v>
       </c>
     </row>
@@ -5199,10 +5196,10 @@
       <c r="B330" t="s">
         <v>36</v>
       </c>
-      <c r="C330" s="2">
+      <c r="C330" s="1">
         <v>46314</v>
       </c>
-      <c r="D330" s="2">
+      <c r="D330" s="1">
         <v>46339</v>
       </c>
     </row>
@@ -5213,10 +5210,10 @@
       <c r="B331" t="s">
         <v>36</v>
       </c>
-      <c r="C331" s="2">
+      <c r="C331" s="1">
         <v>46342</v>
       </c>
-      <c r="D331" s="2">
+      <c r="D331" s="1">
         <v>46367</v>
       </c>
     </row>
@@ -5227,10 +5224,10 @@
       <c r="B332" t="s">
         <v>36</v>
       </c>
-      <c r="C332" s="2">
+      <c r="C332" s="1">
         <v>46370</v>
       </c>
-      <c r="D332" s="2">
+      <c r="D332" s="1">
         <v>46402</v>
       </c>
     </row>
@@ -5241,10 +5238,10 @@
       <c r="B333" t="s">
         <v>36</v>
       </c>
-      <c r="C333" s="2">
+      <c r="C333" s="1">
         <v>46384</v>
       </c>
-      <c r="D333" s="2">
+      <c r="D333" s="1">
         <v>46409</v>
       </c>
     </row>
@@ -5255,10 +5252,10 @@
       <c r="B334" t="s">
         <v>36</v>
       </c>
-      <c r="C334" s="5">
+      <c r="C334" s="4">
         <v>46405</v>
       </c>
-      <c r="D334" s="5">
+      <c r="D334" s="4">
         <v>46430</v>
       </c>
     </row>
@@ -5269,10 +5266,10 @@
       <c r="B335" t="s">
         <v>36</v>
       </c>
-      <c r="C335" s="5">
+      <c r="C335" s="4">
         <v>46419</v>
       </c>
-      <c r="D335" s="5">
+      <c r="D335" s="4">
         <v>46444</v>
       </c>
     </row>
@@ -5283,10 +5280,10 @@
       <c r="B336" t="s">
         <v>36</v>
       </c>
-      <c r="C336" s="5">
+      <c r="C336" s="4">
         <v>46433</v>
       </c>
-      <c r="D336" s="5">
+      <c r="D336" s="4">
         <v>46458</v>
       </c>
     </row>
@@ -5297,10 +5294,10 @@
       <c r="B337" t="s">
         <v>36</v>
       </c>
-      <c r="C337" s="5">
+      <c r="C337" s="4">
         <v>46447</v>
       </c>
-      <c r="D337" s="5">
+      <c r="D337" s="4">
         <v>46472</v>
       </c>
     </row>
@@ -5311,10 +5308,10 @@
       <c r="B338" t="s">
         <v>36</v>
       </c>
-      <c r="C338" s="5">
+      <c r="C338" s="4">
         <v>46461</v>
       </c>
-      <c r="D338" s="5">
+      <c r="D338" s="4">
         <v>46486</v>
       </c>
     </row>
@@ -5325,10 +5322,10 @@
       <c r="B339" t="s">
         <v>36</v>
       </c>
-      <c r="C339" s="5">
+      <c r="C339" s="4">
         <v>46475</v>
       </c>
-      <c r="D339" s="5">
+      <c r="D339" s="4">
         <v>46500</v>
       </c>
     </row>
@@ -5339,10 +5336,10 @@
       <c r="B340" t="s">
         <v>36</v>
       </c>
-      <c r="C340" s="5">
+      <c r="C340" s="4">
         <v>46489</v>
       </c>
-      <c r="D340" s="5">
+      <c r="D340" s="4">
         <v>46514</v>
       </c>
     </row>
@@ -5353,10 +5350,10 @@
       <c r="B341" t="s">
         <v>36</v>
       </c>
-      <c r="C341" s="5">
+      <c r="C341" s="4">
         <v>46503</v>
       </c>
-      <c r="D341" s="5">
+      <c r="D341" s="4">
         <v>46528</v>
       </c>
     </row>
@@ -5367,10 +5364,10 @@
       <c r="B342" t="s">
         <v>36</v>
       </c>
-      <c r="C342" s="5">
+      <c r="C342" s="4">
         <v>46517</v>
       </c>
-      <c r="D342" s="5">
+      <c r="D342" s="4">
         <v>46542</v>
       </c>
     </row>
@@ -5381,10 +5378,10 @@
       <c r="B343" t="s">
         <v>36</v>
       </c>
-      <c r="C343" s="5">
+      <c r="C343" s="4">
         <v>46531</v>
       </c>
-      <c r="D343" s="5">
+      <c r="D343" s="4">
         <v>46556</v>
       </c>
     </row>
@@ -5395,10 +5392,10 @@
       <c r="B344" t="s">
         <v>36</v>
       </c>
-      <c r="C344" s="5">
+      <c r="C344" s="4">
         <v>46545</v>
       </c>
-      <c r="D344" s="5">
+      <c r="D344" s="4">
         <v>46570</v>
       </c>
     </row>
@@ -5409,10 +5406,10 @@
       <c r="B345" t="s">
         <v>36</v>
       </c>
-      <c r="C345" s="5">
+      <c r="C345" s="4">
         <v>46559</v>
       </c>
-      <c r="D345" s="5">
+      <c r="D345" s="4">
         <v>46584</v>
       </c>
     </row>
@@ -5423,10 +5420,10 @@
       <c r="B346" t="s">
         <v>36</v>
       </c>
-      <c r="C346" s="5">
+      <c r="C346" s="4">
         <v>46573</v>
       </c>
-      <c r="D346" s="5">
+      <c r="D346" s="4">
         <v>46598</v>
       </c>
     </row>
@@ -5437,10 +5434,10 @@
       <c r="B347" t="s">
         <v>36</v>
       </c>
-      <c r="C347" s="5">
+      <c r="C347" s="4">
         <v>46587</v>
       </c>
-      <c r="D347" s="5">
+      <c r="D347" s="4">
         <v>46612</v>
       </c>
     </row>
@@ -5451,10 +5448,10 @@
       <c r="B348" t="s">
         <v>36</v>
       </c>
-      <c r="C348" s="5">
+      <c r="C348" s="4">
         <v>46601</v>
       </c>
-      <c r="D348" s="5">
+      <c r="D348" s="4">
         <v>46626</v>
       </c>
     </row>
@@ -5465,10 +5462,10 @@
       <c r="B349" t="s">
         <v>36</v>
       </c>
-      <c r="C349" s="5">
+      <c r="C349" s="4">
         <v>46615</v>
       </c>
-      <c r="D349" s="2">
+      <c r="D349" s="1">
         <v>46640</v>
       </c>
     </row>
@@ -5479,10 +5476,10 @@
       <c r="B350" t="s">
         <v>36</v>
       </c>
-      <c r="C350" s="5">
+      <c r="C350" s="4">
         <v>46629</v>
       </c>
-      <c r="D350" s="2">
+      <c r="D350" s="1">
         <v>46654</v>
       </c>
     </row>
@@ -5493,10 +5490,10 @@
       <c r="B351" t="s">
         <v>36</v>
       </c>
-      <c r="C351" s="5">
+      <c r="C351" s="4">
         <v>46643</v>
       </c>
-      <c r="D351" s="2">
+      <c r="D351" s="1">
         <v>46668</v>
       </c>
     </row>
@@ -5507,10 +5504,10 @@
       <c r="B352" t="s">
         <v>36</v>
       </c>
-      <c r="C352" s="5">
+      <c r="C352" s="4">
         <v>46657</v>
       </c>
-      <c r="D352" s="5">
+      <c r="D352" s="4">
         <v>46682</v>
       </c>
     </row>
@@ -5521,10 +5518,10 @@
       <c r="B353" t="s">
         <v>36</v>
       </c>
-      <c r="C353" s="5">
+      <c r="C353" s="4">
         <v>46671</v>
       </c>
-      <c r="D353" s="5">
+      <c r="D353" s="4">
         <v>46696</v>
       </c>
     </row>
@@ -5535,10 +5532,10 @@
       <c r="B354" t="s">
         <v>36</v>
       </c>
-      <c r="C354" s="5">
+      <c r="C354" s="4">
         <v>46685</v>
       </c>
-      <c r="D354" s="5">
+      <c r="D354" s="4">
         <v>46710</v>
       </c>
     </row>
@@ -5549,10 +5546,10 @@
       <c r="B355" t="s">
         <v>36</v>
       </c>
-      <c r="C355" s="5">
+      <c r="C355" s="4">
         <v>46699</v>
       </c>
-      <c r="D355" s="5">
+      <c r="D355" s="4">
         <v>46724</v>
       </c>
     </row>
@@ -5563,10 +5560,10 @@
       <c r="B356" t="s">
         <v>36</v>
       </c>
-      <c r="C356" s="5">
+      <c r="C356" s="4">
         <v>46713</v>
       </c>
-      <c r="D356" s="5">
+      <c r="D356" s="4">
         <v>46738</v>
       </c>
     </row>
@@ -5577,10 +5574,10 @@
       <c r="B357" t="s">
         <v>36</v>
       </c>
-      <c r="C357" s="5">
+      <c r="C357" s="4">
         <v>46727</v>
       </c>
-      <c r="D357" s="5">
+      <c r="D357" s="4">
         <v>46759</v>
       </c>
     </row>
@@ -5591,10 +5588,10 @@
       <c r="B358" t="s">
         <v>36</v>
       </c>
-      <c r="C358" s="5">
+      <c r="C358" s="4">
         <v>46748</v>
       </c>
-      <c r="D358" s="5">
+      <c r="D358" s="4">
         <v>46773</v>
       </c>
     </row>
@@ -5605,10 +5602,10 @@
       <c r="B359" t="s">
         <v>38</v>
       </c>
-      <c r="C359" s="2">
+      <c r="C359" s="1">
         <v>46034</v>
       </c>
-      <c r="D359" s="2">
+      <c r="D359" s="1">
         <v>46059</v>
       </c>
     </row>
@@ -5619,10 +5616,10 @@
       <c r="B360" t="s">
         <v>38</v>
       </c>
-      <c r="C360" s="2">
+      <c r="C360" s="1">
         <v>46048</v>
       </c>
-      <c r="D360" s="2">
+      <c r="D360" s="1">
         <v>46073</v>
       </c>
     </row>
@@ -5633,10 +5630,10 @@
       <c r="B361" t="s">
         <v>38</v>
       </c>
-      <c r="C361" s="2">
+      <c r="C361" s="1">
         <v>46062</v>
       </c>
-      <c r="D361" s="2">
+      <c r="D361" s="1">
         <v>46087</v>
       </c>
     </row>
@@ -5647,10 +5644,10 @@
       <c r="B362" t="s">
         <v>38</v>
       </c>
-      <c r="C362" s="2">
+      <c r="C362" s="1">
         <v>46076</v>
       </c>
-      <c r="D362" s="2">
+      <c r="D362" s="1">
         <v>46101</v>
       </c>
     </row>
@@ -5661,10 +5658,10 @@
       <c r="B363" t="s">
         <v>38</v>
       </c>
-      <c r="C363" s="2">
+      <c r="C363" s="1">
         <v>46090</v>
       </c>
-      <c r="D363" s="2">
+      <c r="D363" s="1">
         <v>46115</v>
       </c>
     </row>
@@ -5675,10 +5672,10 @@
       <c r="B364" t="s">
         <v>38</v>
       </c>
-      <c r="C364" s="2">
+      <c r="C364" s="1">
         <v>46104</v>
       </c>
-      <c r="D364" s="2">
+      <c r="D364" s="1">
         <v>46129</v>
       </c>
     </row>
@@ -5689,10 +5686,10 @@
       <c r="B365" t="s">
         <v>38</v>
       </c>
-      <c r="C365" s="2">
+      <c r="C365" s="1">
         <v>46118</v>
       </c>
-      <c r="D365" s="2">
+      <c r="D365" s="1">
         <v>46143</v>
       </c>
     </row>
@@ -5703,10 +5700,10 @@
       <c r="B366" t="s">
         <v>38</v>
       </c>
-      <c r="C366" s="2">
+      <c r="C366" s="1">
         <v>46132</v>
       </c>
-      <c r="D366" s="2">
+      <c r="D366" s="1">
         <v>46157</v>
       </c>
     </row>
@@ -5717,10 +5714,10 @@
       <c r="B367" t="s">
         <v>38</v>
       </c>
-      <c r="C367" s="2">
+      <c r="C367" s="1">
         <v>46146</v>
       </c>
-      <c r="D367" s="2">
+      <c r="D367" s="1">
         <v>46171</v>
       </c>
     </row>
@@ -5731,10 +5728,10 @@
       <c r="B368" t="s">
         <v>38</v>
       </c>
-      <c r="C368" s="2">
+      <c r="C368" s="1">
         <v>46160</v>
       </c>
-      <c r="D368" s="2">
+      <c r="D368" s="1">
         <v>46185</v>
       </c>
     </row>
@@ -5745,10 +5742,10 @@
       <c r="B369" t="s">
         <v>38</v>
       </c>
-      <c r="C369" s="2">
+      <c r="C369" s="1">
         <v>46174</v>
       </c>
-      <c r="D369" s="2">
+      <c r="D369" s="1">
         <v>46199</v>
       </c>
     </row>
@@ -5759,10 +5756,10 @@
       <c r="B370" t="s">
         <v>38</v>
       </c>
-      <c r="C370" s="2">
+      <c r="C370" s="1">
         <v>46188</v>
       </c>
-      <c r="D370" s="2">
+      <c r="D370" s="1">
         <v>46213</v>
       </c>
     </row>
@@ -5773,10 +5770,10 @@
       <c r="B371" t="s">
         <v>38</v>
       </c>
-      <c r="C371" s="2">
+      <c r="C371" s="1">
         <v>46202</v>
       </c>
-      <c r="D371" s="2">
+      <c r="D371" s="1">
         <v>46227</v>
       </c>
     </row>
@@ -5787,10 +5784,10 @@
       <c r="B372" t="s">
         <v>38</v>
       </c>
-      <c r="C372" s="2">
+      <c r="C372" s="1">
         <v>46216</v>
       </c>
-      <c r="D372" s="2">
+      <c r="D372" s="1">
         <v>46241</v>
       </c>
     </row>
@@ -5801,10 +5798,10 @@
       <c r="B373" t="s">
         <v>38</v>
       </c>
-      <c r="C373" s="2">
+      <c r="C373" s="1">
         <v>46230</v>
       </c>
-      <c r="D373" s="2">
+      <c r="D373" s="1">
         <v>46255</v>
       </c>
     </row>
@@ -5815,10 +5812,10 @@
       <c r="B374" t="s">
         <v>38</v>
       </c>
-      <c r="C374" s="2">
+      <c r="C374" s="1">
         <v>46244</v>
       </c>
-      <c r="D374" s="2">
+      <c r="D374" s="1">
         <v>46269</v>
       </c>
     </row>
@@ -5829,10 +5826,10 @@
       <c r="B375" t="s">
         <v>38</v>
       </c>
-      <c r="C375" s="2">
+      <c r="C375" s="1">
         <v>46258</v>
       </c>
-      <c r="D375" s="2">
+      <c r="D375" s="1">
         <v>46275</v>
       </c>
     </row>
@@ -5843,10 +5840,10 @@
       <c r="B376" t="s">
         <v>38</v>
       </c>
-      <c r="C376" s="2">
+      <c r="C376" s="1">
         <v>46272</v>
       </c>
-      <c r="D376" s="2">
+      <c r="D376" s="1">
         <v>46297</v>
       </c>
     </row>
@@ -5857,10 +5854,10 @@
       <c r="B377" t="s">
         <v>38</v>
       </c>
-      <c r="C377" s="2">
+      <c r="C377" s="1">
         <v>46286</v>
       </c>
-      <c r="D377" s="2">
+      <c r="D377" s="1">
         <v>46311</v>
       </c>
     </row>
@@ -5871,10 +5868,10 @@
       <c r="B378" t="s">
         <v>38</v>
       </c>
-      <c r="C378" s="2">
+      <c r="C378" s="1">
         <v>46300</v>
       </c>
-      <c r="D378" s="2">
+      <c r="D378" s="1">
         <v>46326</v>
       </c>
     </row>
@@ -5885,10 +5882,10 @@
       <c r="B379" t="s">
         <v>38</v>
       </c>
-      <c r="C379" s="2">
+      <c r="C379" s="1">
         <v>46314</v>
       </c>
-      <c r="D379" s="2">
+      <c r="D379" s="1">
         <v>46339</v>
       </c>
     </row>
@@ -5899,10 +5896,10 @@
       <c r="B380" t="s">
         <v>38</v>
       </c>
-      <c r="C380" s="2">
+      <c r="C380" s="1">
         <v>46328</v>
       </c>
-      <c r="D380" s="2">
+      <c r="D380" s="1">
         <v>46353</v>
       </c>
     </row>
@@ -5913,10 +5910,10 @@
       <c r="B381" t="s">
         <v>38</v>
       </c>
-      <c r="C381" s="2">
+      <c r="C381" s="1">
         <v>46342</v>
       </c>
-      <c r="D381" s="2">
+      <c r="D381" s="1">
         <v>46367</v>
       </c>
     </row>
@@ -5927,10 +5924,10 @@
       <c r="B382" t="s">
         <v>38</v>
       </c>
-      <c r="C382" s="2">
+      <c r="C382" s="1">
         <v>46356</v>
       </c>
-      <c r="D382" s="2">
+      <c r="D382" s="1">
         <v>46381</v>
       </c>
     </row>
@@ -5941,10 +5938,10 @@
       <c r="B383" t="s">
         <v>38</v>
       </c>
-      <c r="C383" s="2">
+      <c r="C383" s="1">
         <v>46370</v>
       </c>
-      <c r="D383" s="2">
+      <c r="D383" s="1">
         <v>46402</v>
       </c>
     </row>
@@ -5955,10 +5952,10 @@
       <c r="B384" t="s">
         <v>38</v>
       </c>
-      <c r="C384" s="2">
+      <c r="C384" s="1">
         <v>46384</v>
       </c>
-      <c r="D384" s="2">
+      <c r="D384" s="1">
         <v>46409</v>
       </c>
     </row>
@@ -5969,10 +5966,10 @@
       <c r="B385" t="s">
         <v>38</v>
       </c>
-      <c r="C385" s="2">
+      <c r="C385" s="1">
         <v>46034</v>
       </c>
-      <c r="D385" s="2">
+      <c r="D385" s="1">
         <v>46059</v>
       </c>
     </row>
@@ -5983,10 +5980,10 @@
       <c r="B386" t="s">
         <v>38</v>
       </c>
-      <c r="C386" s="2">
+      <c r="C386" s="1">
         <v>46062</v>
       </c>
-      <c r="D386" s="2">
+      <c r="D386" s="1">
         <v>46087</v>
       </c>
     </row>
@@ -5997,10 +5994,10 @@
       <c r="B387" t="s">
         <v>38</v>
       </c>
-      <c r="C387" s="2">
+      <c r="C387" s="1">
         <v>46090</v>
       </c>
-      <c r="D387" s="2">
+      <c r="D387" s="1">
         <v>46115</v>
       </c>
     </row>
@@ -6011,10 +6008,10 @@
       <c r="B388" t="s">
         <v>38</v>
       </c>
-      <c r="C388" s="2">
+      <c r="C388" s="1">
         <v>46118</v>
       </c>
-      <c r="D388" s="2">
+      <c r="D388" s="1">
         <v>46143</v>
       </c>
     </row>
@@ -6025,10 +6022,10 @@
       <c r="B389" t="s">
         <v>38</v>
       </c>
-      <c r="C389" s="2">
+      <c r="C389" s="1">
         <v>46146</v>
       </c>
-      <c r="D389" s="2">
+      <c r="D389" s="1">
         <v>46171</v>
       </c>
     </row>
@@ -6039,10 +6036,10 @@
       <c r="B390" t="s">
         <v>38</v>
       </c>
-      <c r="C390" s="2">
+      <c r="C390" s="1">
         <v>46174</v>
       </c>
-      <c r="D390" s="2">
+      <c r="D390" s="1">
         <v>46199</v>
       </c>
     </row>
@@ -6053,10 +6050,10 @@
       <c r="B391" t="s">
         <v>38</v>
       </c>
-      <c r="C391" s="2">
+      <c r="C391" s="1">
         <v>46202</v>
       </c>
-      <c r="D391" s="2">
+      <c r="D391" s="1">
         <v>46227</v>
       </c>
     </row>
@@ -6067,10 +6064,10 @@
       <c r="B392" t="s">
         <v>38</v>
       </c>
-      <c r="C392" s="2">
+      <c r="C392" s="1">
         <v>46230</v>
       </c>
-      <c r="D392" s="2">
+      <c r="D392" s="1">
         <v>46255</v>
       </c>
     </row>
@@ -6081,10 +6078,10 @@
       <c r="B393" t="s">
         <v>38</v>
       </c>
-      <c r="C393" s="2">
+      <c r="C393" s="1">
         <v>46258</v>
       </c>
-      <c r="D393" s="2">
+      <c r="D393" s="1">
         <v>46275</v>
       </c>
     </row>
@@ -6095,10 +6092,10 @@
       <c r="B394" t="s">
         <v>38</v>
       </c>
-      <c r="C394" s="2">
+      <c r="C394" s="1">
         <v>46286</v>
       </c>
-      <c r="D394" s="2">
+      <c r="D394" s="1">
         <v>46311</v>
       </c>
     </row>
@@ -6109,10 +6106,10 @@
       <c r="B395" t="s">
         <v>38</v>
       </c>
-      <c r="C395" s="2">
+      <c r="C395" s="1">
         <v>46314</v>
       </c>
-      <c r="D395" s="2">
+      <c r="D395" s="1">
         <v>46339</v>
       </c>
     </row>
@@ -6123,10 +6120,10 @@
       <c r="B396" t="s">
         <v>38</v>
       </c>
-      <c r="C396" s="2">
+      <c r="C396" s="1">
         <v>46342</v>
       </c>
-      <c r="D396" s="2">
+      <c r="D396" s="1">
         <v>46367</v>
       </c>
     </row>
@@ -6137,10 +6134,10 @@
       <c r="B397" t="s">
         <v>38</v>
       </c>
-      <c r="C397" s="2">
+      <c r="C397" s="1">
         <v>46370</v>
       </c>
-      <c r="D397" s="2">
+      <c r="D397" s="1">
         <v>46402</v>
       </c>
     </row>
@@ -6151,10 +6148,10 @@
       <c r="B398" t="s">
         <v>38</v>
       </c>
-      <c r="C398" s="2">
+      <c r="C398" s="1">
         <v>46384</v>
       </c>
-      <c r="D398" s="2">
+      <c r="D398" s="1">
         <v>46409</v>
       </c>
     </row>
@@ -6165,10 +6162,10 @@
       <c r="B399" t="s">
         <v>38</v>
       </c>
-      <c r="C399" s="2">
+      <c r="C399" s="1">
         <v>46034</v>
       </c>
-      <c r="D399" s="2">
+      <c r="D399" s="1">
         <v>46059</v>
       </c>
     </row>
@@ -6179,10 +6176,10 @@
       <c r="B400" t="s">
         <v>38</v>
       </c>
-      <c r="C400" s="2">
+      <c r="C400" s="1">
         <v>46062</v>
       </c>
-      <c r="D400" s="2">
+      <c r="D400" s="1">
         <v>46087</v>
       </c>
     </row>
@@ -6193,10 +6190,10 @@
       <c r="B401" t="s">
         <v>38</v>
       </c>
-      <c r="C401" s="2">
+      <c r="C401" s="1">
         <v>46090</v>
       </c>
-      <c r="D401" s="2">
+      <c r="D401" s="1">
         <v>46115</v>
       </c>
     </row>
@@ -6207,10 +6204,10 @@
       <c r="B402" t="s">
         <v>38</v>
       </c>
-      <c r="C402" s="2">
+      <c r="C402" s="1">
         <v>46118</v>
       </c>
-      <c r="D402" s="2">
+      <c r="D402" s="1">
         <v>46143</v>
       </c>
     </row>
@@ -6221,10 +6218,10 @@
       <c r="B403" t="s">
         <v>38</v>
       </c>
-      <c r="C403" s="2">
+      <c r="C403" s="1">
         <v>46146</v>
       </c>
-      <c r="D403" s="2">
+      <c r="D403" s="1">
         <v>46171</v>
       </c>
     </row>
@@ -6235,10 +6232,10 @@
       <c r="B404" t="s">
         <v>38</v>
       </c>
-      <c r="C404" s="2">
+      <c r="C404" s="1">
         <v>46174</v>
       </c>
-      <c r="D404" s="2">
+      <c r="D404" s="1">
         <v>46199</v>
       </c>
     </row>
@@ -6249,10 +6246,10 @@
       <c r="B405" t="s">
         <v>38</v>
       </c>
-      <c r="C405" s="2">
+      <c r="C405" s="1">
         <v>46202</v>
       </c>
-      <c r="D405" s="2">
+      <c r="D405" s="1">
         <v>46227</v>
       </c>
     </row>
@@ -6263,10 +6260,10 @@
       <c r="B406" t="s">
         <v>38</v>
       </c>
-      <c r="C406" s="2">
+      <c r="C406" s="1">
         <v>46230</v>
       </c>
-      <c r="D406" s="2">
+      <c r="D406" s="1">
         <v>46255</v>
       </c>
     </row>
@@ -6277,10 +6274,10 @@
       <c r="B407" t="s">
         <v>38</v>
       </c>
-      <c r="C407" s="2">
+      <c r="C407" s="1">
         <v>46258</v>
       </c>
-      <c r="D407" s="2">
+      <c r="D407" s="1">
         <v>46275</v>
       </c>
     </row>
@@ -6291,10 +6288,10 @@
       <c r="B408" t="s">
         <v>38</v>
       </c>
-      <c r="C408" s="2">
+      <c r="C408" s="1">
         <v>46286</v>
       </c>
-      <c r="D408" s="2">
+      <c r="D408" s="1">
         <v>46311</v>
       </c>
     </row>
@@ -6305,10 +6302,10 @@
       <c r="B409" t="s">
         <v>38</v>
       </c>
-      <c r="C409" s="2">
+      <c r="C409" s="1">
         <v>46314</v>
       </c>
-      <c r="D409" s="2">
+      <c r="D409" s="1">
         <v>46339</v>
       </c>
     </row>
@@ -6319,10 +6316,10 @@
       <c r="B410" t="s">
         <v>38</v>
       </c>
-      <c r="C410" s="2">
+      <c r="C410" s="1">
         <v>46342</v>
       </c>
-      <c r="D410" s="2">
+      <c r="D410" s="1">
         <v>46367</v>
       </c>
     </row>
@@ -6333,10 +6330,10 @@
       <c r="B411" t="s">
         <v>38</v>
       </c>
-      <c r="C411" s="2">
+      <c r="C411" s="1">
         <v>46370</v>
       </c>
-      <c r="D411" s="2">
+      <c r="D411" s="1">
         <v>46402</v>
       </c>
     </row>
@@ -6347,10 +6344,10 @@
       <c r="B412" t="s">
         <v>38</v>
       </c>
-      <c r="C412" s="2">
+      <c r="C412" s="1">
         <v>46384</v>
       </c>
-      <c r="D412" s="2">
+      <c r="D412" s="1">
         <v>46409</v>
       </c>
     </row>
@@ -6361,10 +6358,10 @@
       <c r="B413" t="s">
         <v>38</v>
       </c>
-      <c r="C413" s="5">
+      <c r="C413" s="4">
         <v>46405</v>
       </c>
-      <c r="D413" s="5">
+      <c r="D413" s="4">
         <v>46430</v>
       </c>
     </row>
@@ -6375,10 +6372,10 @@
       <c r="B414" t="s">
         <v>38</v>
       </c>
-      <c r="C414" s="5">
+      <c r="C414" s="4">
         <v>46419</v>
       </c>
-      <c r="D414" s="5">
+      <c r="D414" s="4">
         <v>46444</v>
       </c>
     </row>
@@ -6389,10 +6386,10 @@
       <c r="B415" t="s">
         <v>38</v>
       </c>
-      <c r="C415" s="5">
+      <c r="C415" s="4">
         <v>46433</v>
       </c>
-      <c r="D415" s="5">
+      <c r="D415" s="4">
         <v>46458</v>
       </c>
     </row>
@@ -6403,10 +6400,10 @@
       <c r="B416" t="s">
         <v>38</v>
       </c>
-      <c r="C416" s="5">
+      <c r="C416" s="4">
         <v>46447</v>
       </c>
-      <c r="D416" s="5">
+      <c r="D416" s="4">
         <v>46472</v>
       </c>
     </row>
@@ -6417,10 +6414,10 @@
       <c r="B417" t="s">
         <v>38</v>
       </c>
-      <c r="C417" s="5">
+      <c r="C417" s="4">
         <v>46461</v>
       </c>
-      <c r="D417" s="5">
+      <c r="D417" s="4">
         <v>46486</v>
       </c>
     </row>
@@ -6431,10 +6428,10 @@
       <c r="B418" t="s">
         <v>38</v>
       </c>
-      <c r="C418" s="5">
+      <c r="C418" s="4">
         <v>46475</v>
       </c>
-      <c r="D418" s="5">
+      <c r="D418" s="4">
         <v>46500</v>
       </c>
     </row>
@@ -6445,10 +6442,10 @@
       <c r="B419" t="s">
         <v>38</v>
       </c>
-      <c r="C419" s="5">
+      <c r="C419" s="4">
         <v>46489</v>
       </c>
-      <c r="D419" s="5">
+      <c r="D419" s="4">
         <v>46514</v>
       </c>
     </row>
@@ -6459,10 +6456,10 @@
       <c r="B420" t="s">
         <v>38</v>
       </c>
-      <c r="C420" s="5">
+      <c r="C420" s="4">
         <v>46503</v>
       </c>
-      <c r="D420" s="5">
+      <c r="D420" s="4">
         <v>46528</v>
       </c>
     </row>
@@ -6473,10 +6470,10 @@
       <c r="B421" t="s">
         <v>38</v>
       </c>
-      <c r="C421" s="5">
+      <c r="C421" s="4">
         <v>46517</v>
       </c>
-      <c r="D421" s="5">
+      <c r="D421" s="4">
         <v>46542</v>
       </c>
     </row>
@@ -6487,10 +6484,10 @@
       <c r="B422" t="s">
         <v>38</v>
       </c>
-      <c r="C422" s="5">
+      <c r="C422" s="4">
         <v>46531</v>
       </c>
-      <c r="D422" s="5">
+      <c r="D422" s="4">
         <v>46556</v>
       </c>
     </row>
@@ -6501,10 +6498,10 @@
       <c r="B423" t="s">
         <v>38</v>
       </c>
-      <c r="C423" s="5">
+      <c r="C423" s="4">
         <v>46545</v>
       </c>
-      <c r="D423" s="5">
+      <c r="D423" s="4">
         <v>46570</v>
       </c>
     </row>
@@ -6515,10 +6512,10 @@
       <c r="B424" t="s">
         <v>38</v>
       </c>
-      <c r="C424" s="5">
+      <c r="C424" s="4">
         <v>46559</v>
       </c>
-      <c r="D424" s="5">
+      <c r="D424" s="4">
         <v>46584</v>
       </c>
     </row>
@@ -6529,10 +6526,10 @@
       <c r="B425" t="s">
         <v>38</v>
       </c>
-      <c r="C425" s="5">
+      <c r="C425" s="4">
         <v>46573</v>
       </c>
-      <c r="D425" s="5">
+      <c r="D425" s="4">
         <v>46598</v>
       </c>
     </row>
@@ -6543,10 +6540,10 @@
       <c r="B426" t="s">
         <v>38</v>
       </c>
-      <c r="C426" s="5">
+      <c r="C426" s="4">
         <v>46587</v>
       </c>
-      <c r="D426" s="5">
+      <c r="D426" s="4">
         <v>46612</v>
       </c>
     </row>
@@ -6557,10 +6554,10 @@
       <c r="B427" t="s">
         <v>38</v>
       </c>
-      <c r="C427" s="5">
+      <c r="C427" s="4">
         <v>46601</v>
       </c>
-      <c r="D427" s="5">
+      <c r="D427" s="4">
         <v>46626</v>
       </c>
     </row>
@@ -6571,10 +6568,10 @@
       <c r="B428" t="s">
         <v>38</v>
       </c>
-      <c r="C428" s="5">
+      <c r="C428" s="4">
         <v>46615</v>
       </c>
-      <c r="D428" s="2">
+      <c r="D428" s="1">
         <v>46640</v>
       </c>
     </row>
@@ -6585,10 +6582,10 @@
       <c r="B429" t="s">
         <v>38</v>
       </c>
-      <c r="C429" s="5">
+      <c r="C429" s="4">
         <v>46629</v>
       </c>
-      <c r="D429" s="2">
+      <c r="D429" s="1">
         <v>46654</v>
       </c>
     </row>
@@ -6599,10 +6596,10 @@
       <c r="B430" t="s">
         <v>38</v>
       </c>
-      <c r="C430" s="5">
+      <c r="C430" s="4">
         <v>46643</v>
       </c>
-      <c r="D430" s="2">
+      <c r="D430" s="1">
         <v>46668</v>
       </c>
     </row>
@@ -6613,10 +6610,10 @@
       <c r="B431" t="s">
         <v>38</v>
       </c>
-      <c r="C431" s="5">
+      <c r="C431" s="4">
         <v>46657</v>
       </c>
-      <c r="D431" s="5">
+      <c r="D431" s="4">
         <v>46682</v>
       </c>
     </row>
@@ -6627,10 +6624,10 @@
       <c r="B432" t="s">
         <v>38</v>
       </c>
-      <c r="C432" s="5">
+      <c r="C432" s="4">
         <v>46671</v>
       </c>
-      <c r="D432" s="5">
+      <c r="D432" s="4">
         <v>46696</v>
       </c>
     </row>
@@ -6641,10 +6638,10 @@
       <c r="B433" t="s">
         <v>38</v>
       </c>
-      <c r="C433" s="5">
+      <c r="C433" s="4">
         <v>46685</v>
       </c>
-      <c r="D433" s="5">
+      <c r="D433" s="4">
         <v>46710</v>
       </c>
     </row>
@@ -6655,10 +6652,10 @@
       <c r="B434" t="s">
         <v>38</v>
       </c>
-      <c r="C434" s="5">
+      <c r="C434" s="4">
         <v>46699</v>
       </c>
-      <c r="D434" s="5">
+      <c r="D434" s="4">
         <v>46724</v>
       </c>
     </row>
@@ -6669,10 +6666,10 @@
       <c r="B435" t="s">
         <v>38</v>
       </c>
-      <c r="C435" s="5">
+      <c r="C435" s="4">
         <v>46713</v>
       </c>
-      <c r="D435" s="5">
+      <c r="D435" s="4">
         <v>46738</v>
       </c>
     </row>
@@ -6683,10 +6680,10 @@
       <c r="B436" t="s">
         <v>38</v>
       </c>
-      <c r="C436" s="5">
+      <c r="C436" s="4">
         <v>46727</v>
       </c>
-      <c r="D436" s="5">
+      <c r="D436" s="4">
         <v>46759</v>
       </c>
     </row>
@@ -6697,10 +6694,10 @@
       <c r="B437" t="s">
         <v>38</v>
       </c>
-      <c r="C437" s="5">
+      <c r="C437" s="4">
         <v>46748</v>
       </c>
-      <c r="D437" s="5">
+      <c r="D437" s="4">
         <v>46773</v>
       </c>
     </row>
@@ -6711,10 +6708,10 @@
       <c r="B438" t="s">
         <v>40</v>
       </c>
-      <c r="C438" s="2">
+      <c r="C438" s="1">
         <v>46034</v>
       </c>
-      <c r="D438" s="2">
+      <c r="D438" s="1">
         <v>46059</v>
       </c>
     </row>
@@ -6725,10 +6722,10 @@
       <c r="B439" t="s">
         <v>40</v>
       </c>
-      <c r="C439" s="2">
+      <c r="C439" s="1">
         <v>46146</v>
       </c>
-      <c r="D439" s="2">
+      <c r="D439" s="1">
         <v>46171</v>
       </c>
     </row>
@@ -6739,10 +6736,10 @@
       <c r="B440" t="s">
         <v>40</v>
       </c>
-      <c r="C440" s="2" t="s">
+      <c r="C440" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D440" s="2">
+      <c r="D440" s="1">
         <v>46283</v>
       </c>
     </row>
@@ -6753,10 +6750,10 @@
       <c r="B441" t="s">
         <v>40</v>
       </c>
-      <c r="C441" s="2">
+      <c r="C441" s="1">
         <v>46370</v>
       </c>
-      <c r="D441" s="2">
+      <c r="D441" s="1">
         <v>46402</v>
       </c>
     </row>
@@ -6767,10 +6764,10 @@
       <c r="B442" t="s">
         <v>40</v>
       </c>
-      <c r="C442" s="5">
+      <c r="C442" s="4">
         <v>46489</v>
       </c>
-      <c r="D442" s="5">
+      <c r="D442" s="4">
         <v>46514</v>
       </c>
     </row>
@@ -6781,10 +6778,10 @@
       <c r="B443" t="s">
         <v>40</v>
       </c>
-      <c r="C443" s="5">
+      <c r="C443" s="4">
         <v>46601</v>
       </c>
-      <c r="D443" s="5">
+      <c r="D443" s="4">
         <v>46626</v>
       </c>
     </row>
@@ -6795,10 +6792,10 @@
       <c r="B444" t="s">
         <v>40</v>
       </c>
-      <c r="C444" s="5">
+      <c r="C444" s="4">
         <v>46713</v>
       </c>
-      <c r="D444" s="5">
+      <c r="D444" s="4">
         <v>46738</v>
       </c>
     </row>
@@ -6806,13 +6803,13 @@
       <c r="A445" t="s">
         <v>42</v>
       </c>
-      <c r="B445" s="3" t="s">
+      <c r="B445" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C445" s="2">
+      <c r="C445" s="1">
         <v>46090</v>
       </c>
-      <c r="D445" s="2">
+      <c r="D445" s="1">
         <v>46115</v>
       </c>
     </row>
@@ -6820,10 +6817,10 @@
       <c r="A446" t="s">
         <v>42</v>
       </c>
-      <c r="B446" s="3" t="s">
+      <c r="B446" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C446" s="2">
+      <c r="C446" s="1">
         <v>46202</v>
       </c>
       <c r="D446" s="1" t="s">
@@ -6834,13 +6831,13 @@
       <c r="A447" t="s">
         <v>42</v>
       </c>
-      <c r="B447" s="3" t="s">
+      <c r="B447" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C447" s="2">
+      <c r="C447" s="1">
         <v>46314</v>
       </c>
-      <c r="D447" s="2">
+      <c r="D447" s="1">
         <v>46339</v>
       </c>
     </row>
@@ -6848,13 +6845,13 @@
       <c r="A448" t="s">
         <v>42</v>
       </c>
-      <c r="B448" s="3" t="s">
+      <c r="B448" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C448" s="5">
+      <c r="C448" s="4">
         <v>46433</v>
       </c>
-      <c r="D448" s="5">
+      <c r="D448" s="4">
         <v>46458</v>
       </c>
     </row>
@@ -6862,13 +6859,13 @@
       <c r="A449" t="s">
         <v>42</v>
       </c>
-      <c r="B449" s="3" t="s">
+      <c r="B449" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C449" s="5">
+      <c r="C449" s="4">
         <v>46545</v>
       </c>
-      <c r="D449" s="5">
+      <c r="D449" s="4">
         <v>46570</v>
       </c>
     </row>
@@ -6876,13 +6873,13 @@
       <c r="A450" t="s">
         <v>42</v>
       </c>
-      <c r="B450" s="3" t="s">
+      <c r="B450" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C450" s="5">
+      <c r="C450" s="4">
         <v>46657</v>
       </c>
-      <c r="D450" s="5">
+      <c r="D450" s="4">
         <v>46682</v>
       </c>
     </row>
@@ -6890,13 +6887,13 @@
       <c r="A451" t="s">
         <v>45</v>
       </c>
-      <c r="B451" s="3" t="s">
+      <c r="B451" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C451" s="2">
+      <c r="C451" s="1">
         <v>46118</v>
       </c>
-      <c r="D451" s="2">
+      <c r="D451" s="1">
         <v>46143</v>
       </c>
     </row>
@@ -6904,13 +6901,13 @@
       <c r="A452" t="s">
         <v>45</v>
       </c>
-      <c r="B452" s="3" t="s">
+      <c r="B452" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C452" s="2">
+      <c r="C452" s="1">
         <v>46230</v>
       </c>
-      <c r="D452" s="2">
+      <c r="D452" s="1">
         <v>46255</v>
       </c>
     </row>
@@ -6918,13 +6915,13 @@
       <c r="A453" t="s">
         <v>45</v>
       </c>
-      <c r="B453" s="3" t="s">
+      <c r="B453" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C453" s="2">
+      <c r="C453" s="1">
         <v>46342</v>
       </c>
-      <c r="D453" s="2">
+      <c r="D453" s="1">
         <v>46367</v>
       </c>
     </row>
@@ -6932,13 +6929,13 @@
       <c r="A454" t="s">
         <v>45</v>
       </c>
-      <c r="B454" s="3" t="s">
+      <c r="B454" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C454" s="5">
+      <c r="C454" s="4">
         <v>46461</v>
       </c>
-      <c r="D454" s="5">
+      <c r="D454" s="4">
         <v>46486</v>
       </c>
     </row>
@@ -6946,13 +6943,13 @@
       <c r="A455" t="s">
         <v>45</v>
       </c>
-      <c r="B455" s="3" t="s">
+      <c r="B455" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C455" s="5">
+      <c r="C455" s="4">
         <v>46573</v>
       </c>
-      <c r="D455" s="5">
+      <c r="D455" s="4">
         <v>46598</v>
       </c>
     </row>
@@ -6960,13 +6957,13 @@
       <c r="A456" t="s">
         <v>45</v>
       </c>
-      <c r="B456" s="3" t="s">
+      <c r="B456" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C456" s="5">
+      <c r="C456" s="4">
         <v>46685</v>
       </c>
-      <c r="D456" s="5">
+      <c r="D456" s="4">
         <v>46710</v>
       </c>
     </row>
@@ -6977,10 +6974,10 @@
       <c r="B457" t="s">
         <v>48</v>
       </c>
-      <c r="C457" s="2">
+      <c r="C457" s="1">
         <v>46062</v>
       </c>
-      <c r="D457" s="2">
+      <c r="D457" s="1">
         <v>46087</v>
       </c>
     </row>
@@ -6991,10 +6988,10 @@
       <c r="B458" t="s">
         <v>48</v>
       </c>
-      <c r="C458" s="2">
+      <c r="C458" s="1">
         <v>46174</v>
       </c>
-      <c r="D458" s="2">
+      <c r="D458" s="1">
         <v>46199</v>
       </c>
     </row>
@@ -7005,10 +7002,10 @@
       <c r="B459" t="s">
         <v>48</v>
       </c>
-      <c r="C459" s="2">
+      <c r="C459" s="1">
         <v>46286</v>
       </c>
-      <c r="D459" s="2">
+      <c r="D459" s="1">
         <v>46311</v>
       </c>
     </row>
@@ -7019,10 +7016,10 @@
       <c r="B460" t="s">
         <v>48</v>
       </c>
-      <c r="C460" s="5">
+      <c r="C460" s="4">
         <v>46405</v>
       </c>
-      <c r="D460" s="5">
+      <c r="D460" s="4">
         <v>46430</v>
       </c>
     </row>
@@ -7033,10 +7030,10 @@
       <c r="B461" t="s">
         <v>48</v>
       </c>
-      <c r="C461" s="5">
+      <c r="C461" s="4">
         <v>46517</v>
       </c>
-      <c r="D461" s="5">
+      <c r="D461" s="4">
         <v>46542</v>
       </c>
     </row>
@@ -7047,10 +7044,10 @@
       <c r="B462" t="s">
         <v>48</v>
       </c>
-      <c r="C462" s="5">
+      <c r="C462" s="4">
         <v>46629</v>
       </c>
-      <c r="D462" s="5">
+      <c r="D462" s="4">
         <v>46654</v>
       </c>
     </row>
@@ -7061,10 +7058,10 @@
       <c r="B463" t="s">
         <v>48</v>
       </c>
-      <c r="C463" s="5">
+      <c r="C463" s="4">
         <v>46748</v>
       </c>
-      <c r="D463" s="5">
+      <c r="D463" s="4">
         <v>46773</v>
       </c>
     </row>
@@ -7075,10 +7072,10 @@
       <c r="B464" t="s">
         <v>50</v>
       </c>
-      <c r="C464" s="2">
+      <c r="C464" s="1">
         <v>46034</v>
       </c>
-      <c r="D464" s="2">
+      <c r="D464" s="1">
         <v>46059</v>
       </c>
     </row>
@@ -7089,10 +7086,10 @@
       <c r="B465" t="s">
         <v>50</v>
       </c>
-      <c r="C465" s="2">
+      <c r="C465" s="1">
         <v>46034</v>
       </c>
-      <c r="D465" s="2">
+      <c r="D465" s="1">
         <v>46059</v>
       </c>
     </row>
@@ -7103,10 +7100,10 @@
       <c r="B466" t="s">
         <v>50</v>
       </c>
-      <c r="C466" s="2">
+      <c r="C466" s="1">
         <v>46118</v>
       </c>
-      <c r="D466" s="2">
+      <c r="D466" s="1">
         <v>46143</v>
       </c>
     </row>
@@ -7117,7 +7114,7 @@
       <c r="B467" t="s">
         <v>50</v>
       </c>
-      <c r="C467" s="2">
+      <c r="C467" s="1">
         <v>46202</v>
       </c>
       <c r="D467" s="1" t="s">
@@ -7131,10 +7128,10 @@
       <c r="B468" t="s">
         <v>50</v>
       </c>
-      <c r="C468" s="2">
+      <c r="C468" s="1">
         <v>46286</v>
       </c>
-      <c r="D468" s="2">
+      <c r="D468" s="1">
         <v>46311</v>
       </c>
     </row>
@@ -7145,10 +7142,10 @@
       <c r="B469" t="s">
         <v>50</v>
       </c>
-      <c r="C469" s="2">
+      <c r="C469" s="1">
         <v>46370</v>
       </c>
-      <c r="D469" s="2">
+      <c r="D469" s="1">
         <v>46402</v>
       </c>
     </row>
@@ -7159,10 +7156,10 @@
       <c r="B470" t="s">
         <v>50</v>
       </c>
-      <c r="C470" s="5">
+      <c r="C470" s="4">
         <v>46489</v>
       </c>
-      <c r="D470" s="5">
+      <c r="D470" s="4">
         <v>46514</v>
       </c>
     </row>
@@ -7173,10 +7170,10 @@
       <c r="B471" t="s">
         <v>50</v>
       </c>
-      <c r="C471" s="5">
+      <c r="C471" s="4">
         <v>46573</v>
       </c>
-      <c r="D471" s="5">
+      <c r="D471" s="4">
         <v>46598</v>
       </c>
     </row>
@@ -7187,10 +7184,10 @@
       <c r="B472" t="s">
         <v>50</v>
       </c>
-      <c r="C472" s="5">
+      <c r="C472" s="4">
         <v>46657</v>
       </c>
-      <c r="D472" s="5">
+      <c r="D472" s="4">
         <v>46682</v>
       </c>
     </row>
@@ -7201,10 +7198,10 @@
       <c r="B473" t="s">
         <v>50</v>
       </c>
-      <c r="C473" s="5">
+      <c r="C473" s="4">
         <v>46748</v>
       </c>
-      <c r="D473" s="5">
+      <c r="D473" s="4">
         <v>46773</v>
       </c>
     </row>
@@ -7215,10 +7212,10 @@
       <c r="B474" t="s">
         <v>52</v>
       </c>
-      <c r="C474" s="2">
+      <c r="C474" s="1">
         <v>46090</v>
       </c>
-      <c r="D474" s="2">
+      <c r="D474" s="1">
         <v>46115</v>
       </c>
     </row>
@@ -7229,10 +7226,10 @@
       <c r="B475" t="s">
         <v>52</v>
       </c>
-      <c r="C475" s="2">
+      <c r="C475" s="1">
         <v>46146</v>
       </c>
-      <c r="D475" s="2">
+      <c r="D475" s="1">
         <v>46171</v>
       </c>
     </row>
@@ -7243,7 +7240,7 @@
       <c r="B476" t="s">
         <v>52</v>
       </c>
-      <c r="C476" s="2">
+      <c r="C476" s="1">
         <v>46202</v>
       </c>
       <c r="D476" s="1" t="s">
@@ -7257,10 +7254,10 @@
       <c r="B477" t="s">
         <v>52</v>
       </c>
-      <c r="C477" s="2">
+      <c r="C477" s="1">
         <v>46258</v>
       </c>
-      <c r="D477" s="2">
+      <c r="D477" s="1">
         <v>46283</v>
       </c>
     </row>
@@ -7271,10 +7268,10 @@
       <c r="B478" t="s">
         <v>52</v>
       </c>
-      <c r="C478" s="2">
+      <c r="C478" s="1">
         <v>46314</v>
       </c>
-      <c r="D478" s="2">
+      <c r="D478" s="1">
         <v>46339</v>
       </c>
     </row>
@@ -7285,10 +7282,10 @@
       <c r="B479" t="s">
         <v>52</v>
       </c>
-      <c r="C479" s="2">
+      <c r="C479" s="1">
         <v>46370</v>
       </c>
-      <c r="D479" s="2">
+      <c r="D479" s="1">
         <v>46402</v>
       </c>
     </row>
@@ -7299,10 +7296,10 @@
       <c r="B480" t="s">
         <v>52</v>
       </c>
-      <c r="C480" s="5">
+      <c r="C480" s="4">
         <v>46433</v>
       </c>
-      <c r="D480" s="5">
+      <c r="D480" s="4">
         <v>46458</v>
       </c>
     </row>
@@ -7313,10 +7310,10 @@
       <c r="B481" t="s">
         <v>52</v>
       </c>
-      <c r="C481" s="5">
+      <c r="C481" s="4">
         <v>46489</v>
       </c>
-      <c r="D481" s="5">
+      <c r="D481" s="4">
         <v>46514</v>
       </c>
     </row>
@@ -7327,10 +7324,10 @@
       <c r="B482" t="s">
         <v>52</v>
       </c>
-      <c r="C482" s="5">
+      <c r="C482" s="4">
         <v>46545</v>
       </c>
-      <c r="D482" s="5">
+      <c r="D482" s="4">
         <v>46570</v>
       </c>
     </row>
@@ -7341,10 +7338,10 @@
       <c r="B483" t="s">
         <v>52</v>
       </c>
-      <c r="C483" s="5">
+      <c r="C483" s="4">
         <v>46601</v>
       </c>
-      <c r="D483" s="5">
+      <c r="D483" s="4">
         <v>46626</v>
       </c>
     </row>
@@ -7355,10 +7352,10 @@
       <c r="B484" t="s">
         <v>52</v>
       </c>
-      <c r="C484" s="5">
+      <c r="C484" s="4">
         <v>46657</v>
       </c>
-      <c r="D484" s="5">
+      <c r="D484" s="4">
         <v>46682</v>
       </c>
     </row>
@@ -7369,10 +7366,10 @@
       <c r="B485" t="s">
         <v>52</v>
       </c>
-      <c r="C485" s="5">
+      <c r="C485" s="4">
         <v>46713</v>
       </c>
-      <c r="D485" s="5">
+      <c r="D485" s="4">
         <v>46738</v>
       </c>
     </row>
@@ -7383,10 +7380,10 @@
       <c r="B486" t="s">
         <v>54</v>
       </c>
-      <c r="C486" s="2">
+      <c r="C486" s="1">
         <v>46118</v>
       </c>
-      <c r="D486" s="2">
+      <c r="D486" s="1">
         <v>46143</v>
       </c>
     </row>
@@ -7397,10 +7394,10 @@
       <c r="B487" t="s">
         <v>54</v>
       </c>
-      <c r="C487" s="2">
+      <c r="C487" s="1">
         <v>46174</v>
       </c>
-      <c r="D487" s="2">
+      <c r="D487" s="1">
         <v>46199</v>
       </c>
     </row>
@@ -7411,10 +7408,10 @@
       <c r="B488" t="s">
         <v>54</v>
       </c>
-      <c r="C488" s="2">
+      <c r="C488" s="1">
         <v>46230</v>
       </c>
-      <c r="D488" s="2">
+      <c r="D488" s="1">
         <v>46255</v>
       </c>
     </row>
@@ -7425,10 +7422,10 @@
       <c r="B489" t="s">
         <v>54</v>
       </c>
-      <c r="C489" s="2">
+      <c r="C489" s="1">
         <v>46286</v>
       </c>
-      <c r="D489" s="2">
+      <c r="D489" s="1">
         <v>46311</v>
       </c>
     </row>
@@ -7439,10 +7436,10 @@
       <c r="B490" t="s">
         <v>54</v>
       </c>
-      <c r="C490" s="2">
+      <c r="C490" s="1">
         <v>46342</v>
       </c>
-      <c r="D490" s="2">
+      <c r="D490" s="1">
         <v>46367</v>
       </c>
     </row>
@@ -7453,10 +7450,10 @@
       <c r="B491" t="s">
         <v>54</v>
       </c>
-      <c r="C491" s="5">
+      <c r="C491" s="4">
         <v>46405</v>
       </c>
-      <c r="D491" s="5">
+      <c r="D491" s="4">
         <v>46430</v>
       </c>
     </row>
@@ -7467,10 +7464,10 @@
       <c r="B492" t="s">
         <v>54</v>
       </c>
-      <c r="C492" s="5">
+      <c r="C492" s="4">
         <v>46461</v>
       </c>
-      <c r="D492" s="5">
+      <c r="D492" s="4">
         <v>46486</v>
       </c>
     </row>
@@ -7481,10 +7478,10 @@
       <c r="B493" t="s">
         <v>54</v>
       </c>
-      <c r="C493" s="5">
+      <c r="C493" s="4">
         <v>46517</v>
       </c>
-      <c r="D493" s="5">
+      <c r="D493" s="4">
         <v>46542</v>
       </c>
     </row>
@@ -7495,10 +7492,10 @@
       <c r="B494" t="s">
         <v>54</v>
       </c>
-      <c r="C494" s="5">
+      <c r="C494" s="4">
         <v>46573</v>
       </c>
-      <c r="D494" s="5">
+      <c r="D494" s="4">
         <v>46598</v>
       </c>
     </row>
@@ -7509,10 +7506,10 @@
       <c r="B495" t="s">
         <v>54</v>
       </c>
-      <c r="C495" s="5">
+      <c r="C495" s="4">
         <v>46629</v>
       </c>
-      <c r="D495" s="5">
+      <c r="D495" s="4">
         <v>46654</v>
       </c>
     </row>
@@ -7523,10 +7520,10 @@
       <c r="B496" t="s">
         <v>54</v>
       </c>
-      <c r="C496" s="5">
+      <c r="C496" s="4">
         <v>46685</v>
       </c>
-      <c r="D496" s="5">
+      <c r="D496" s="4">
         <v>46710</v>
       </c>
     </row>
@@ -7537,10 +7534,10 @@
       <c r="B497" t="s">
         <v>54</v>
       </c>
-      <c r="C497" s="5">
+      <c r="C497" s="4">
         <v>46748</v>
       </c>
-      <c r="D497" s="5">
+      <c r="D497" s="4">
         <v>46773</v>
       </c>
     </row>
@@ -7551,10 +7548,10 @@
       <c r="B498" t="s">
         <v>56</v>
       </c>
-      <c r="C498" s="2">
+      <c r="C498" s="1">
         <v>46090</v>
       </c>
-      <c r="D498" s="2">
+      <c r="D498" s="1">
         <v>46115</v>
       </c>
     </row>
@@ -7565,10 +7562,10 @@
       <c r="B499" t="s">
         <v>56</v>
       </c>
-      <c r="C499" s="2">
+      <c r="C499" s="1">
         <v>46174</v>
       </c>
-      <c r="D499" s="2">
+      <c r="D499" s="1">
         <v>46199</v>
       </c>
     </row>
@@ -7579,10 +7576,10 @@
       <c r="B500" t="s">
         <v>56</v>
       </c>
-      <c r="C500" s="2">
+      <c r="C500" s="1">
         <v>46258</v>
       </c>
-      <c r="D500" s="2">
+      <c r="D500" s="1">
         <v>46283</v>
       </c>
     </row>
@@ -7593,10 +7590,10 @@
       <c r="B501" t="s">
         <v>56</v>
       </c>
-      <c r="C501" s="2">
+      <c r="C501" s="1">
         <v>46342</v>
       </c>
-      <c r="D501" s="2">
+      <c r="D501" s="1">
         <v>46367</v>
       </c>
     </row>
@@ -7607,10 +7604,10 @@
       <c r="B502" t="s">
         <v>56</v>
       </c>
-      <c r="C502" s="5">
+      <c r="C502" s="4">
         <v>46433</v>
       </c>
-      <c r="D502" s="5">
+      <c r="D502" s="4">
         <v>46458</v>
       </c>
     </row>
@@ -7621,10 +7618,10 @@
       <c r="B503" t="s">
         <v>56</v>
       </c>
-      <c r="C503" s="5">
+      <c r="C503" s="4">
         <v>46517</v>
       </c>
-      <c r="D503" s="5">
+      <c r="D503" s="4">
         <v>46542</v>
       </c>
     </row>
@@ -7635,10 +7632,10 @@
       <c r="B504" t="s">
         <v>56</v>
       </c>
-      <c r="C504" s="2">
+      <c r="C504" s="1">
         <v>46601</v>
       </c>
-      <c r="D504" s="5">
+      <c r="D504" s="4">
         <v>46626</v>
       </c>
     </row>
@@ -7649,10 +7646,10 @@
       <c r="B505" t="s">
         <v>56</v>
       </c>
-      <c r="C505" s="5">
+      <c r="C505" s="4">
         <v>46685</v>
       </c>
-      <c r="D505" s="5">
+      <c r="D505" s="4">
         <v>46710</v>
       </c>
     </row>
@@ -7663,10 +7660,10 @@
       <c r="B506" t="s">
         <v>58</v>
       </c>
-      <c r="C506" s="2">
+      <c r="C506" s="1">
         <v>46034</v>
       </c>
-      <c r="D506" s="2">
+      <c r="D506" s="1">
         <v>46059</v>
       </c>
     </row>
@@ -7677,10 +7674,10 @@
       <c r="B507" t="s">
         <v>58</v>
       </c>
-      <c r="C507" s="2">
+      <c r="C507" s="1">
         <v>46118</v>
       </c>
-      <c r="D507" s="2">
+      <c r="D507" s="1">
         <v>46143</v>
       </c>
     </row>
@@ -7691,10 +7688,10 @@
       <c r="B508" t="s">
         <v>58</v>
       </c>
-      <c r="C508" s="2">
+      <c r="C508" s="1">
         <v>46286</v>
       </c>
-      <c r="D508" s="2">
+      <c r="D508" s="1">
         <v>46311</v>
       </c>
     </row>
@@ -7705,10 +7702,10 @@
       <c r="B509" t="s">
         <v>58</v>
       </c>
-      <c r="C509" s="2">
+      <c r="C509" s="1">
         <v>46370</v>
       </c>
-      <c r="D509" s="2">
+      <c r="D509" s="1">
         <v>46402</v>
       </c>
     </row>
@@ -7719,10 +7716,10 @@
       <c r="B510" t="s">
         <v>58</v>
       </c>
-      <c r="C510" s="5">
+      <c r="C510" s="4">
         <v>46461</v>
       </c>
-      <c r="D510" s="5">
+      <c r="D510" s="4">
         <v>46486</v>
       </c>
     </row>
@@ -7733,10 +7730,10 @@
       <c r="B511" t="s">
         <v>58</v>
       </c>
-      <c r="C511" s="5">
+      <c r="C511" s="4">
         <v>46545</v>
       </c>
-      <c r="D511" s="5">
+      <c r="D511" s="4">
         <v>46570</v>
       </c>
     </row>
@@ -7747,10 +7744,10 @@
       <c r="B512" t="s">
         <v>58</v>
       </c>
-      <c r="C512" s="5">
+      <c r="C512" s="4">
         <v>46629</v>
       </c>
-      <c r="D512" s="5">
+      <c r="D512" s="4">
         <v>46654</v>
       </c>
     </row>
@@ -7761,10 +7758,10 @@
       <c r="B513" t="s">
         <v>58</v>
       </c>
-      <c r="C513" s="5">
+      <c r="C513" s="4">
         <v>46713</v>
       </c>
-      <c r="D513" s="5">
+      <c r="D513" s="4">
         <v>46738</v>
       </c>
     </row>
@@ -7775,10 +7772,10 @@
       <c r="B514" t="s">
         <v>60</v>
       </c>
-      <c r="C514" s="2">
+      <c r="C514" s="1">
         <v>46062</v>
       </c>
-      <c r="D514" s="2">
+      <c r="D514" s="1">
         <v>46087</v>
       </c>
     </row>
@@ -7789,10 +7786,10 @@
       <c r="B515" t="s">
         <v>60</v>
       </c>
-      <c r="C515" s="2">
+      <c r="C515" s="1">
         <v>46146</v>
       </c>
-      <c r="D515" s="2">
+      <c r="D515" s="1">
         <v>46171</v>
       </c>
     </row>
@@ -7803,10 +7800,10 @@
       <c r="B516" t="s">
         <v>60</v>
       </c>
-      <c r="C516" s="2">
+      <c r="C516" s="1">
         <v>46230</v>
       </c>
-      <c r="D516" s="2">
+      <c r="D516" s="1">
         <v>46255</v>
       </c>
     </row>
@@ -7817,10 +7814,10 @@
       <c r="B517" t="s">
         <v>60</v>
       </c>
-      <c r="C517" s="2">
+      <c r="C517" s="1">
         <v>46314</v>
       </c>
-      <c r="D517" s="2">
+      <c r="D517" s="1">
         <v>46339</v>
       </c>
     </row>
@@ -7831,10 +7828,10 @@
       <c r="B518" t="s">
         <v>60</v>
       </c>
-      <c r="C518" s="5">
+      <c r="C518" s="4">
         <v>46405</v>
       </c>
-      <c r="D518" s="5">
+      <c r="D518" s="4">
         <v>46430</v>
       </c>
     </row>
@@ -7845,10 +7842,10 @@
       <c r="B519" t="s">
         <v>60</v>
       </c>
-      <c r="C519" s="5">
+      <c r="C519" s="4">
         <v>46489</v>
       </c>
-      <c r="D519" s="5">
+      <c r="D519" s="4">
         <v>46514</v>
       </c>
     </row>
@@ -7859,10 +7856,10 @@
       <c r="B520" t="s">
         <v>60</v>
       </c>
-      <c r="C520" s="5">
+      <c r="C520" s="4">
         <v>46573</v>
       </c>
-      <c r="D520" s="5">
+      <c r="D520" s="4">
         <v>46598</v>
       </c>
     </row>
@@ -7873,10 +7870,10 @@
       <c r="B521" t="s">
         <v>60</v>
       </c>
-      <c r="C521" s="5">
+      <c r="C521" s="4">
         <v>46657</v>
       </c>
-      <c r="D521" s="5">
+      <c r="D521" s="4">
         <v>46682</v>
       </c>
     </row>
@@ -7887,10 +7884,10 @@
       <c r="B522" t="s">
         <v>60</v>
       </c>
-      <c r="C522" s="5">
+      <c r="C522" s="4">
         <v>46748</v>
       </c>
-      <c r="D522" s="5">
+      <c r="D522" s="4">
         <v>46773</v>
       </c>
     </row>

--- a/kursdaten.xlsx
+++ b/kursdaten.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MarcusKleuser\Documents\Planer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="453" documentId="13_ncr:1_{E28ED437-FB49-4FB7-9FAD-F2DC67C662FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{88E4C14F-F68C-473F-ABD3-53E2695B5829}"/>
+  <xr:revisionPtr revIDLastSave="466" documentId="13_ncr:1_{E28ED437-FB49-4FB7-9FAD-F2DC67C662FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA68F156-E6C6-48ED-A1BF-C7417355A826}"/>
   <bookViews>
     <workbookView xWindow="1894" yWindow="2709" windowWidth="24686" windowHeight="13054" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="54">
   <si>
     <t>Kuerzel</t>
   </si>
@@ -60,12 +60,6 @@
   </si>
   <si>
     <t>Int. Projektmanagement Associate</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 09.02.2026</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 29.06.2026 </t>
   </si>
   <si>
     <t>PSM1</t>
@@ -116,15 +110,6 @@
     <t>Professional Scrum mit Kanban</t>
   </si>
   <si>
-    <t xml:space="preserve"> 20.04.2026</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 01.05.2026</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 26.06.2026</t>
-  </si>
-  <si>
     <t>IT-TOOLS</t>
   </si>
   <si>
@@ -135,12 +120,6 @@
   </si>
   <si>
     <t>Praxisanwendung im Projektmanagement (2Wo)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 20.02.2026</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 01.06.2026</t>
   </si>
   <si>
     <t>AKI</t>
@@ -171,9 +150,6 @@
 im Personalwesen</t>
   </si>
   <si>
-    <t xml:space="preserve"> 24.07.2026</t>
-  </si>
-  <si>
     <t>PeEin</t>
   </si>
   <si>
@@ -190,6 +166,9 @@
   </si>
   <si>
     <t>Kommunikation und Konfliktmanagement im Personalwesen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 24.07.2026</t>
   </si>
   <si>
     <t>SQM</t>
@@ -561,8 +540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G799"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A193" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D198" sqref="D198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="14.65"/>
@@ -603,8 +582,8 @@
       <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
+      <c r="C2" s="1">
+        <v>46062</v>
       </c>
       <c r="D2" s="1">
         <v>46129</v>
@@ -659,8 +638,8 @@
       <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>9</v>
+      <c r="C6" s="1">
+        <v>46202</v>
       </c>
       <c r="D6" s="1">
         <v>46269</v>
@@ -879,10 +858,10 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C22" s="1">
         <v>46048</v>
@@ -893,10 +872,10 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C23" s="1">
         <v>46062</v>
@@ -907,10 +886,10 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B24" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C24" s="1">
         <v>46076</v>
@@ -921,10 +900,10 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C25" s="1">
         <v>46090</v>
@@ -935,10 +914,10 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B26" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C26" s="1">
         <v>46104</v>
@@ -949,10 +928,10 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B27" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C27" s="1">
         <v>46118</v>
@@ -963,10 +942,10 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B28" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C28" s="1">
         <v>46132</v>
@@ -977,10 +956,10 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C29" s="1">
         <v>46146</v>
@@ -991,10 +970,10 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B30" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C30" s="1">
         <v>46160</v>
@@ -1005,10 +984,10 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B31" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C31" s="1">
         <v>46174</v>
@@ -1019,10 +998,10 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B32" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C32" s="1">
         <v>46188</v>
@@ -1033,10 +1012,10 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B33" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C33" s="1">
         <v>46202</v>
@@ -1047,10 +1026,10 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B34" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C34" s="1">
         <v>46216</v>
@@ -1061,10 +1040,10 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B35" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C35" s="1">
         <v>46230</v>
@@ -1075,10 +1054,10 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B36" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C36" s="1">
         <v>46244</v>
@@ -1089,10 +1068,10 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B37" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C37" s="1">
         <v>46258</v>
@@ -1103,10 +1082,10 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B38" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C38" s="1">
         <v>46272</v>
@@ -1117,10 +1096,10 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B39" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C39" s="1">
         <v>46286</v>
@@ -1131,10 +1110,10 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B40" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C40" s="1">
         <v>46300</v>
@@ -1145,10 +1124,10 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B41" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C41" s="1">
         <v>46314</v>
@@ -1159,10 +1138,10 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B42" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C42" s="1">
         <v>46328</v>
@@ -1173,10 +1152,10 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B43" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C43" s="1">
         <v>46342</v>
@@ -1187,10 +1166,10 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B44" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C44" s="1">
         <v>46356</v>
@@ -1201,10 +1180,10 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B45" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C45" s="1">
         <v>46370</v>
@@ -1215,10 +1194,10 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B46" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C46" s="1">
         <v>46384</v>
@@ -1229,10 +1208,10 @@
     </row>
     <row r="47" spans="1:4" ht="15">
       <c r="A47" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B47" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C47" s="4">
         <v>46405</v>
@@ -1243,10 +1222,10 @@
     </row>
     <row r="48" spans="1:4" ht="15">
       <c r="A48" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B48" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C48" s="4">
         <v>46419</v>
@@ -1257,10 +1236,10 @@
     </row>
     <row r="49" spans="1:4" ht="15">
       <c r="A49" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B49" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C49" s="4">
         <v>46433</v>
@@ -1271,10 +1250,10 @@
     </row>
     <row r="50" spans="1:4" ht="15">
       <c r="A50" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B50" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C50" s="4">
         <v>46447</v>
@@ -1285,10 +1264,10 @@
     </row>
     <row r="51" spans="1:4" ht="15">
       <c r="A51" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B51" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C51" s="4">
         <v>46461</v>
@@ -1299,10 +1278,10 @@
     </row>
     <row r="52" spans="1:4" ht="15">
       <c r="A52" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B52" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C52" s="4">
         <v>46475</v>
@@ -1313,10 +1292,10 @@
     </row>
     <row r="53" spans="1:4" ht="15">
       <c r="A53" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B53" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C53" s="4">
         <v>46489</v>
@@ -1327,10 +1306,10 @@
     </row>
     <row r="54" spans="1:4" ht="15">
       <c r="A54" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B54" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C54" s="4">
         <v>46503</v>
@@ -1341,10 +1320,10 @@
     </row>
     <row r="55" spans="1:4" ht="15">
       <c r="A55" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B55" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C55" s="4">
         <v>46517</v>
@@ -1355,10 +1334,10 @@
     </row>
     <row r="56" spans="1:4" ht="15">
       <c r="A56" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B56" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C56" s="4">
         <v>46531</v>
@@ -1369,10 +1348,10 @@
     </row>
     <row r="57" spans="1:4" ht="15">
       <c r="A57" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B57" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C57" s="4">
         <v>46545</v>
@@ -1383,10 +1362,10 @@
     </row>
     <row r="58" spans="1:4" ht="15">
       <c r="A58" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B58" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C58" s="4">
         <v>46559</v>
@@ -1397,10 +1376,10 @@
     </row>
     <row r="59" spans="1:4" ht="15">
       <c r="A59" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B59" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C59" s="4">
         <v>46573</v>
@@ -1411,10 +1390,10 @@
     </row>
     <row r="60" spans="1:4" ht="15">
       <c r="A60" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B60" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C60" s="4">
         <v>46587</v>
@@ -1425,10 +1404,10 @@
     </row>
     <row r="61" spans="1:4" ht="15">
       <c r="A61" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B61" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C61" s="4">
         <v>46601</v>
@@ -1439,10 +1418,10 @@
     </row>
     <row r="62" spans="1:4" ht="15">
       <c r="A62" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B62" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C62" s="4">
         <v>46615</v>
@@ -1453,10 +1432,10 @@
     </row>
     <row r="63" spans="1:4" ht="15">
       <c r="A63" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B63" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C63" s="4">
         <v>46629</v>
@@ -1467,10 +1446,10 @@
     </row>
     <row r="64" spans="1:4" ht="15">
       <c r="A64" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B64" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C64" s="4">
         <v>46643</v>
@@ -1481,10 +1460,10 @@
     </row>
     <row r="65" spans="1:4" ht="15">
       <c r="A65" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B65" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C65" s="4">
         <v>46657</v>
@@ -1495,10 +1474,10 @@
     </row>
     <row r="66" spans="1:4" ht="15">
       <c r="A66" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B66" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C66" s="4">
         <v>46671</v>
@@ -1509,10 +1488,10 @@
     </row>
     <row r="67" spans="1:4" ht="15">
       <c r="A67" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B67" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C67" s="4">
         <v>46685</v>
@@ -1523,10 +1502,10 @@
     </row>
     <row r="68" spans="1:4" ht="15">
       <c r="A68" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B68" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C68" s="4">
         <v>46699</v>
@@ -1537,10 +1516,10 @@
     </row>
     <row r="69" spans="1:4" ht="15">
       <c r="A69" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B69" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C69" s="4">
         <v>46713</v>
@@ -1551,10 +1530,10 @@
     </row>
     <row r="70" spans="1:4" ht="15">
       <c r="A70" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B70" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C70" s="4">
         <v>46727</v>
@@ -1565,10 +1544,10 @@
     </row>
     <row r="71" spans="1:4" ht="15">
       <c r="A71" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B71" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C71" s="4">
         <v>46748</v>
@@ -1579,10 +1558,10 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B72" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C72" s="1">
         <v>46034</v>
@@ -1593,10 +1572,10 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B73" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C73" s="1">
         <v>46062</v>
@@ -1607,10 +1586,10 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B74" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C74" s="1">
         <v>46090</v>
@@ -1621,10 +1600,10 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B75" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C75" s="1">
         <v>46118</v>
@@ -1635,10 +1614,10 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C76" s="1">
         <v>46146</v>
@@ -1649,10 +1628,10 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B77" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C77" s="1">
         <v>46174</v>
@@ -1663,10 +1642,10 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B78" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C78" s="1">
         <v>46202</v>
@@ -1677,10 +1656,10 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B79" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C79" s="1">
         <v>46230</v>
@@ -1691,10 +1670,10 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B80" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C80" s="1">
         <v>46258</v>
@@ -1705,10 +1684,10 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B81" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C81" s="1">
         <v>46286</v>
@@ -1719,10 +1698,10 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B82" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C82" s="1">
         <v>46314</v>
@@ -1733,10 +1712,10 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B83" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C83" s="1">
         <v>46342</v>
@@ -1747,10 +1726,10 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B84" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C84" s="1">
         <v>46370</v>
@@ -1761,10 +1740,10 @@
     </row>
     <row r="85" spans="1:4" ht="15">
       <c r="A85" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B85" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C85" s="4">
         <v>46405</v>
@@ -1775,10 +1754,10 @@
     </row>
     <row r="86" spans="1:4" ht="15">
       <c r="A86" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B86" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C86" s="4">
         <v>46433</v>
@@ -1789,10 +1768,10 @@
     </row>
     <row r="87" spans="1:4" ht="15">
       <c r="A87" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B87" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C87" s="4">
         <v>46461</v>
@@ -1803,10 +1782,10 @@
     </row>
     <row r="88" spans="1:4" ht="15">
       <c r="A88" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B88" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C88" s="4">
         <v>46489</v>
@@ -1817,10 +1796,10 @@
     </row>
     <row r="89" spans="1:4" ht="15">
       <c r="A89" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B89" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C89" s="4">
         <v>46517</v>
@@ -1831,10 +1810,10 @@
     </row>
     <row r="90" spans="1:4" ht="15">
       <c r="A90" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B90" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C90" s="4">
         <v>46545</v>
@@ -1845,10 +1824,10 @@
     </row>
     <row r="91" spans="1:4" ht="15">
       <c r="A91" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B91" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C91" s="4">
         <v>46573</v>
@@ -1859,10 +1838,10 @@
     </row>
     <row r="92" spans="1:4" ht="15">
       <c r="A92" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B92" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C92" s="4">
         <v>46601</v>
@@ -1873,10 +1852,10 @@
     </row>
     <row r="93" spans="1:4" ht="15">
       <c r="A93" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B93" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C93" s="4">
         <v>46629</v>
@@ -1887,10 +1866,10 @@
     </row>
     <row r="94" spans="1:4" ht="15">
       <c r="A94" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B94" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C94" s="4">
         <v>46657</v>
@@ -1901,10 +1880,10 @@
     </row>
     <row r="95" spans="1:4" ht="15">
       <c r="A95" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B95" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C95" s="4">
         <v>46685</v>
@@ -1915,10 +1894,10 @@
     </row>
     <row r="96" spans="1:4" ht="15">
       <c r="A96" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B96" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C96" s="4">
         <v>46713</v>
@@ -1929,10 +1908,10 @@
     </row>
     <row r="97" spans="1:4" ht="15">
       <c r="A97" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B97" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C97" s="4">
         <v>46748</v>
@@ -1943,10 +1922,10 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B98" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C98" s="1">
         <v>46034</v>
@@ -1957,10 +1936,10 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B99" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C99" s="1">
         <v>46062</v>
@@ -1971,10 +1950,10 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B100" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C100" s="1">
         <v>46090</v>
@@ -1985,10 +1964,10 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B101" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C101" s="1">
         <v>46118</v>
@@ -1999,10 +1978,10 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B102" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C102" s="1">
         <v>46146</v>
@@ -2013,10 +1992,10 @@
     </row>
     <row r="103" spans="1:4">
       <c r="A103" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B103" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C103" s="1">
         <v>46174</v>
@@ -2027,10 +2006,10 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B104" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C104" s="1">
         <v>46202</v>
@@ -2041,10 +2020,10 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B105" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C105" s="1">
         <v>46230</v>
@@ -2055,10 +2034,10 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B106" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C106" s="1">
         <v>46258</v>
@@ -2069,10 +2048,10 @@
     </row>
     <row r="107" spans="1:4">
       <c r="A107" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B107" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C107" s="1">
         <v>46286</v>
@@ -2083,10 +2062,10 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B108" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C108" s="1">
         <v>46314</v>
@@ -2097,10 +2076,10 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B109" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C109" s="1">
         <v>46342</v>
@@ -2111,10 +2090,10 @@
     </row>
     <row r="110" spans="1:4">
       <c r="A110" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B110" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C110" s="1">
         <v>46370</v>
@@ -2125,10 +2104,10 @@
     </row>
     <row r="111" spans="1:4" ht="15">
       <c r="A111" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B111" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C111" s="4">
         <v>46405</v>
@@ -2139,10 +2118,10 @@
     </row>
     <row r="112" spans="1:4" ht="15">
       <c r="A112" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B112" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C112" s="4">
         <v>46433</v>
@@ -2153,10 +2132,10 @@
     </row>
     <row r="113" spans="1:4" ht="15">
       <c r="A113" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B113" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C113" s="4">
         <v>46461</v>
@@ -2167,10 +2146,10 @@
     </row>
     <row r="114" spans="1:4" ht="15">
       <c r="A114" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B114" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C114" s="4">
         <v>46489</v>
@@ -2181,10 +2160,10 @@
     </row>
     <row r="115" spans="1:4" ht="15">
       <c r="A115" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B115" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C115" s="4">
         <v>46517</v>
@@ -2195,10 +2174,10 @@
     </row>
     <row r="116" spans="1:4" ht="15">
       <c r="A116" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B116" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C116" s="4">
         <v>46545</v>
@@ -2209,10 +2188,10 @@
     </row>
     <row r="117" spans="1:4" ht="15">
       <c r="A117" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B117" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C117" s="4">
         <v>46573</v>
@@ -2223,10 +2202,10 @@
     </row>
     <row r="118" spans="1:4" ht="15">
       <c r="A118" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B118" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C118" s="4">
         <v>46601</v>
@@ -2237,10 +2216,10 @@
     </row>
     <row r="119" spans="1:4" ht="15">
       <c r="A119" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B119" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C119" s="4">
         <v>46629</v>
@@ -2251,10 +2230,10 @@
     </row>
     <row r="120" spans="1:4" ht="15">
       <c r="A120" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B120" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C120" s="4">
         <v>46657</v>
@@ -2265,10 +2244,10 @@
     </row>
     <row r="121" spans="1:4" ht="15">
       <c r="A121" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B121" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C121" s="4">
         <v>46685</v>
@@ -2279,10 +2258,10 @@
     </row>
     <row r="122" spans="1:4" ht="15">
       <c r="A122" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B122" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C122" s="4">
         <v>46713</v>
@@ -2293,10 +2272,10 @@
     </row>
     <row r="123" spans="1:4" ht="15">
       <c r="A123" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B123" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C123" s="4">
         <v>46748</v>
@@ -2307,10 +2286,10 @@
     </row>
     <row r="124" spans="1:4">
       <c r="A124" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B124" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C124" s="1">
         <v>46048</v>
@@ -2321,10 +2300,10 @@
     </row>
     <row r="125" spans="1:4">
       <c r="A125" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B125" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C125" s="1">
         <v>46076</v>
@@ -2335,10 +2314,10 @@
     </row>
     <row r="126" spans="1:4">
       <c r="A126" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B126" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C126" s="1">
         <v>46104</v>
@@ -2349,10 +2328,10 @@
     </row>
     <row r="127" spans="1:4">
       <c r="A127" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B127" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C127" s="1">
         <v>46132</v>
@@ -2363,10 +2342,10 @@
     </row>
     <row r="128" spans="1:4">
       <c r="A128" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B128" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C128" s="1">
         <v>46160</v>
@@ -2377,10 +2356,10 @@
     </row>
     <row r="129" spans="1:4">
       <c r="A129" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B129" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C129" s="1">
         <v>46188</v>
@@ -2391,10 +2370,10 @@
     </row>
     <row r="130" spans="1:4">
       <c r="A130" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B130" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C130" s="1">
         <v>46216</v>
@@ -2405,10 +2384,10 @@
     </row>
     <row r="131" spans="1:4">
       <c r="A131" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B131" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C131" s="1">
         <v>46244</v>
@@ -2419,10 +2398,10 @@
     </row>
     <row r="132" spans="1:4">
       <c r="A132" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B132" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C132" s="1">
         <v>46272</v>
@@ -2433,10 +2412,10 @@
     </row>
     <row r="133" spans="1:4">
       <c r="A133" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B133" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C133" s="1">
         <v>46300</v>
@@ -2447,10 +2426,10 @@
     </row>
     <row r="134" spans="1:4">
       <c r="A134" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B134" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C134" s="1">
         <v>46328</v>
@@ -2461,10 +2440,10 @@
     </row>
     <row r="135" spans="1:4">
       <c r="A135" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B135" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C135" s="1">
         <v>46356</v>
@@ -2475,10 +2454,10 @@
     </row>
     <row r="136" spans="1:4" ht="15">
       <c r="A136" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B136" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C136" s="1">
         <v>46384</v>
@@ -2489,10 +2468,10 @@
     </row>
     <row r="137" spans="1:4" ht="15">
       <c r="A137" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B137" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C137" s="4">
         <v>46419</v>
@@ -2503,10 +2482,10 @@
     </row>
     <row r="138" spans="1:4" ht="15">
       <c r="A138" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B138" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C138" s="4">
         <v>46447</v>
@@ -2517,10 +2496,10 @@
     </row>
     <row r="139" spans="1:4" ht="15">
       <c r="A139" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B139" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C139" s="4">
         <v>46475</v>
@@ -2531,10 +2510,10 @@
     </row>
     <row r="140" spans="1:4" ht="15">
       <c r="A140" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B140" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C140" s="4">
         <v>46503</v>
@@ -2545,10 +2524,10 @@
     </row>
     <row r="141" spans="1:4" ht="15">
       <c r="A141" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B141" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C141" s="4">
         <v>46531</v>
@@ -2559,10 +2538,10 @@
     </row>
     <row r="142" spans="1:4" ht="15">
       <c r="A142" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B142" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C142" s="4">
         <v>46559</v>
@@ -2573,10 +2552,10 @@
     </row>
     <row r="143" spans="1:4" ht="15">
       <c r="A143" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B143" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C143" s="4">
         <v>46587</v>
@@ -2587,10 +2566,10 @@
     </row>
     <row r="144" spans="1:4" ht="15">
       <c r="A144" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C144" s="4">
         <v>46615</v>
@@ -2601,10 +2580,10 @@
     </row>
     <row r="145" spans="1:4" ht="15">
       <c r="A145" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B145" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C145" s="4">
         <v>46643</v>
@@ -2615,10 +2594,10 @@
     </row>
     <row r="146" spans="1:4" ht="15">
       <c r="A146" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B146" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C146" s="4">
         <v>46671</v>
@@ -2629,10 +2608,10 @@
     </row>
     <row r="147" spans="1:4" ht="15">
       <c r="A147" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B147" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C147" s="4">
         <v>46699</v>
@@ -2643,10 +2622,10 @@
     </row>
     <row r="148" spans="1:4" ht="15">
       <c r="A148" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B148" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C148" s="4">
         <v>46727</v>
@@ -2657,10 +2636,10 @@
     </row>
     <row r="149" spans="1:4">
       <c r="A149" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B149" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C149" s="1">
         <v>46034</v>
@@ -2671,10 +2650,10 @@
     </row>
     <row r="150" spans="1:4">
       <c r="A150" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B150" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C150" s="1">
         <v>46062</v>
@@ -2685,10 +2664,10 @@
     </row>
     <row r="151" spans="1:4">
       <c r="A151" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B151" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C151" s="1">
         <v>46090</v>
@@ -2699,10 +2678,10 @@
     </row>
     <row r="152" spans="1:4">
       <c r="A152" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B152" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C152" s="1">
         <v>46118</v>
@@ -2713,10 +2692,10 @@
     </row>
     <row r="153" spans="1:4">
       <c r="A153" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B153" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C153" s="1">
         <v>46146</v>
@@ -2727,10 +2706,10 @@
     </row>
     <row r="154" spans="1:4">
       <c r="A154" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B154" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C154" s="1">
         <v>46174</v>
@@ -2741,10 +2720,10 @@
     </row>
     <row r="155" spans="1:4">
       <c r="A155" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B155" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C155" s="1">
         <v>46202</v>
@@ -2755,10 +2734,10 @@
     </row>
     <row r="156" spans="1:4">
       <c r="A156" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B156" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C156" s="1">
         <v>46230</v>
@@ -2769,10 +2748,10 @@
     </row>
     <row r="157" spans="1:4">
       <c r="A157" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B157" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C157" s="1">
         <v>46258</v>
@@ -2783,10 +2762,10 @@
     </row>
     <row r="158" spans="1:4">
       <c r="A158" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B158" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C158" s="1">
         <v>46286</v>
@@ -2797,10 +2776,10 @@
     </row>
     <row r="159" spans="1:4">
       <c r="A159" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B159" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C159" s="1">
         <v>46314</v>
@@ -2811,10 +2790,10 @@
     </row>
     <row r="160" spans="1:4">
       <c r="A160" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B160" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C160" s="1">
         <v>46342</v>
@@ -2825,10 +2804,10 @@
     </row>
     <row r="161" spans="1:4">
       <c r="A161" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B161" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C161" s="1">
         <v>46370</v>
@@ -2839,10 +2818,10 @@
     </row>
     <row r="162" spans="1:4" ht="15">
       <c r="A162" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B162" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C162" s="4">
         <v>46405</v>
@@ -2853,10 +2832,10 @@
     </row>
     <row r="163" spans="1:4" ht="15">
       <c r="A163" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B163" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C163" s="4">
         <v>46433</v>
@@ -2867,10 +2846,10 @@
     </row>
     <row r="164" spans="1:4" ht="15">
       <c r="A164" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B164" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C164" s="4">
         <v>46461</v>
@@ -2881,10 +2860,10 @@
     </row>
     <row r="165" spans="1:4" ht="15">
       <c r="A165" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B165" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C165" s="4">
         <v>46489</v>
@@ -2895,10 +2874,10 @@
     </row>
     <row r="166" spans="1:4" ht="15">
       <c r="A166" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B166" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C166" s="4">
         <v>46517</v>
@@ -2909,10 +2888,10 @@
     </row>
     <row r="167" spans="1:4" ht="15">
       <c r="A167" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B167" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C167" s="4">
         <v>46545</v>
@@ -2923,10 +2902,10 @@
     </row>
     <row r="168" spans="1:4" ht="15">
       <c r="A168" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B168" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C168" s="4">
         <v>46573</v>
@@ -2937,10 +2916,10 @@
     </row>
     <row r="169" spans="1:4" ht="15">
       <c r="A169" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B169" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C169" s="4">
         <v>46601</v>
@@ -2951,10 +2930,10 @@
     </row>
     <row r="170" spans="1:4" ht="15">
       <c r="A170" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B170" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C170" s="4">
         <v>46629</v>
@@ -2965,10 +2944,10 @@
     </row>
     <row r="171" spans="1:4" ht="15">
       <c r="A171" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B171" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C171" s="4">
         <v>46657</v>
@@ -2979,10 +2958,10 @@
     </row>
     <row r="172" spans="1:4" ht="15">
       <c r="A172" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B172" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C172" s="4">
         <v>46685</v>
@@ -2993,10 +2972,10 @@
     </row>
     <row r="173" spans="1:4" ht="15">
       <c r="A173" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B173" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C173" s="4">
         <v>46713</v>
@@ -3007,10 +2986,10 @@
     </row>
     <row r="174" spans="1:4" ht="15">
       <c r="A174" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B174" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C174" s="4">
         <v>46748</v>
@@ -3021,10 +3000,10 @@
     </row>
     <row r="175" spans="1:4">
       <c r="A175" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B175" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C175" s="1">
         <v>46090</v>
@@ -3035,10 +3014,10 @@
     </row>
     <row r="176" spans="1:4">
       <c r="A176" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B176" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C176" s="1">
         <v>46174</v>
@@ -3049,10 +3028,10 @@
     </row>
     <row r="177" spans="1:4">
       <c r="A177" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B177" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C177" s="1">
         <v>46258</v>
@@ -3063,10 +3042,10 @@
     </row>
     <row r="178" spans="1:4">
       <c r="A178" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B178" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C178" s="1">
         <v>46342</v>
@@ -3077,10 +3056,10 @@
     </row>
     <row r="179" spans="1:4" ht="15">
       <c r="A179" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B179" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C179" s="4">
         <v>46433</v>
@@ -3091,10 +3070,10 @@
     </row>
     <row r="180" spans="1:4" ht="15">
       <c r="A180" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B180" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C180" s="4">
         <v>46517</v>
@@ -3105,10 +3084,10 @@
     </row>
     <row r="181" spans="1:4" ht="15">
       <c r="A181" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B181" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C181" s="4">
         <v>46601</v>
@@ -3119,10 +3098,10 @@
     </row>
     <row r="182" spans="1:4" ht="15">
       <c r="A182" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B182" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C182" s="4">
         <v>46685</v>
@@ -3133,10 +3112,10 @@
     </row>
     <row r="183" spans="1:4">
       <c r="A183" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B183" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C183" s="1">
         <v>46034</v>
@@ -3147,10 +3126,10 @@
     </row>
     <row r="184" spans="1:4">
       <c r="A184" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B184" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C184" s="1">
         <v>46118</v>
@@ -3161,10 +3140,10 @@
     </row>
     <row r="185" spans="1:4">
       <c r="A185" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B185" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C185" s="1">
         <v>46202</v>
@@ -3175,10 +3154,10 @@
     </row>
     <row r="186" spans="1:4">
       <c r="A186" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B186" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C186" s="1">
         <v>46286</v>
@@ -3189,10 +3168,10 @@
     </row>
     <row r="187" spans="1:4">
       <c r="A187" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B187" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C187" s="1">
         <v>46370</v>
@@ -3203,10 +3182,10 @@
     </row>
     <row r="188" spans="1:4" ht="15">
       <c r="A188" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B188" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C188" s="4">
         <v>46461</v>
@@ -3217,10 +3196,10 @@
     </row>
     <row r="189" spans="1:4" ht="15">
       <c r="A189" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B189" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C189" s="4">
         <v>46545</v>
@@ -3231,10 +3210,10 @@
     </row>
     <row r="190" spans="1:4" ht="15">
       <c r="A190" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B190" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C190" s="4">
         <v>46629</v>
@@ -3245,10 +3224,10 @@
     </row>
     <row r="191" spans="1:4" ht="15">
       <c r="A191" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B191" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C191" s="4">
         <v>46713</v>
@@ -3259,10 +3238,10 @@
     </row>
     <row r="192" spans="1:4">
       <c r="A192" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B192" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C192" s="1">
         <v>46048</v>
@@ -3273,10 +3252,10 @@
     </row>
     <row r="193" spans="1:4">
       <c r="A193" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B193" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C193" s="1">
         <v>46076</v>
@@ -3287,10 +3266,10 @@
     </row>
     <row r="194" spans="1:4">
       <c r="A194" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B194" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C194" s="1">
         <v>46104</v>
@@ -3301,24 +3280,24 @@
     </row>
     <row r="195" spans="1:4">
       <c r="A195" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B195" t="s">
-        <v>25</v>
-      </c>
-      <c r="C195" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D195" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
+      </c>
+      <c r="C195" s="1">
+        <v>46132</v>
+      </c>
+      <c r="D195" s="1">
+        <v>46143</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="A196" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B196" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C196" s="1">
         <v>46160</v>
@@ -3329,24 +3308,24 @@
     </row>
     <row r="197" spans="1:4">
       <c r="A197" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B197" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C197" s="1">
         <v>46188</v>
       </c>
-      <c r="D197" s="1" t="s">
-        <v>28</v>
+      <c r="D197" s="1">
+        <v>46199</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B198" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C198" s="1">
         <v>46216</v>
@@ -3357,10 +3336,10 @@
     </row>
     <row r="199" spans="1:4">
       <c r="A199" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B199" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C199" s="1">
         <v>46244</v>
@@ -3371,10 +3350,10 @@
     </row>
     <row r="200" spans="1:4">
       <c r="A200" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B200" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C200" s="1">
         <v>46272</v>
@@ -3385,10 +3364,10 @@
     </row>
     <row r="201" spans="1:4">
       <c r="A201" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B201" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C201" s="1">
         <v>46300</v>
@@ -3399,10 +3378,10 @@
     </row>
     <row r="202" spans="1:4">
       <c r="A202" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B202" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C202" s="1">
         <v>46328</v>
@@ -3413,10 +3392,10 @@
     </row>
     <row r="203" spans="1:4">
       <c r="A203" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B203" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C203" s="1">
         <v>46356</v>
@@ -3427,10 +3406,10 @@
     </row>
     <row r="204" spans="1:4" ht="15">
       <c r="A204" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B204" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C204" s="4">
         <v>46384</v>
@@ -3441,10 +3420,10 @@
     </row>
     <row r="205" spans="1:4" ht="15">
       <c r="A205" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B205" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C205" s="4">
         <v>46419</v>
@@ -3455,10 +3434,10 @@
     </row>
     <row r="206" spans="1:4" ht="15">
       <c r="A206" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B206" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C206" s="4">
         <v>46447</v>
@@ -3469,10 +3448,10 @@
     </row>
     <row r="207" spans="1:4" ht="15">
       <c r="A207" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B207" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C207" s="4">
         <v>46475</v>
@@ -3483,10 +3462,10 @@
     </row>
     <row r="208" spans="1:4" ht="15">
       <c r="A208" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B208" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C208" s="4">
         <v>46503</v>
@@ -3497,10 +3476,10 @@
     </row>
     <row r="209" spans="1:4" ht="15">
       <c r="A209" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B209" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C209" s="4">
         <v>46531</v>
@@ -3511,10 +3490,10 @@
     </row>
     <row r="210" spans="1:4" ht="15">
       <c r="A210" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B210" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C210" s="4">
         <v>46559</v>
@@ -3525,10 +3504,10 @@
     </row>
     <row r="211" spans="1:4" ht="15">
       <c r="A211" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B211" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C211" s="4">
         <v>46587</v>
@@ -3539,10 +3518,10 @@
     </row>
     <row r="212" spans="1:4" ht="15">
       <c r="A212" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B212" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C212" s="4">
         <v>46615</v>
@@ -3553,10 +3532,10 @@
     </row>
     <row r="213" spans="1:4" ht="15">
       <c r="A213" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B213" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C213" s="4">
         <v>46643</v>
@@ -3567,10 +3546,10 @@
     </row>
     <row r="214" spans="1:4" ht="15">
       <c r="A214" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B214" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C214" s="4">
         <v>46671</v>
@@ -3581,10 +3560,10 @@
     </row>
     <row r="215" spans="1:4" ht="15">
       <c r="A215" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B215" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C215" s="4">
         <v>46699</v>
@@ -3595,10 +3574,10 @@
     </row>
     <row r="216" spans="1:4" ht="15">
       <c r="A216" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C216" s="4">
         <v>46727</v>
@@ -3609,10 +3588,10 @@
     </row>
     <row r="217" spans="1:4">
       <c r="A217" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B217" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C217" s="1">
         <v>46034</v>
@@ -3623,10 +3602,10 @@
     </row>
     <row r="218" spans="1:4">
       <c r="A218" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C218" s="1">
         <v>46062</v>
@@ -3637,10 +3616,10 @@
     </row>
     <row r="219" spans="1:4">
       <c r="A219" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B219" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C219" s="1">
         <v>46090</v>
@@ -3651,10 +3630,10 @@
     </row>
     <row r="220" spans="1:4">
       <c r="A220" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B220" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C220" s="1">
         <v>46118</v>
@@ -3665,10 +3644,10 @@
     </row>
     <row r="221" spans="1:4">
       <c r="A221" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B221" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C221" s="1">
         <v>46146</v>
@@ -3679,10 +3658,10 @@
     </row>
     <row r="222" spans="1:4">
       <c r="A222" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B222" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C222" s="1">
         <v>46174</v>
@@ -3693,10 +3672,10 @@
     </row>
     <row r="223" spans="1:4">
       <c r="A223" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B223" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C223" s="1">
         <v>46202</v>
@@ -3707,10 +3686,10 @@
     </row>
     <row r="224" spans="1:4">
       <c r="A224" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B224" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C224" s="1">
         <v>46230</v>
@@ -3721,10 +3700,10 @@
     </row>
     <row r="225" spans="1:4">
       <c r="A225" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B225" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C225" s="1">
         <v>46258</v>
@@ -3735,10 +3714,10 @@
     </row>
     <row r="226" spans="1:4">
       <c r="A226" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B226" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C226" s="1">
         <v>46286</v>
@@ -3749,10 +3728,10 @@
     </row>
     <row r="227" spans="1:4">
       <c r="A227" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B227" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C227" s="1">
         <v>46314</v>
@@ -3763,10 +3742,10 @@
     </row>
     <row r="228" spans="1:4">
       <c r="A228" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B228" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C228" s="1">
         <v>46342</v>
@@ -3777,10 +3756,10 @@
     </row>
     <row r="229" spans="1:4">
       <c r="A229" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B229" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C229" s="1">
         <v>46370</v>
@@ -3791,10 +3770,10 @@
     </row>
     <row r="230" spans="1:4" ht="15">
       <c r="A230" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B230" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C230" s="4">
         <v>46405</v>
@@ -3805,10 +3784,10 @@
     </row>
     <row r="231" spans="1:4" ht="15">
       <c r="A231" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B231" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C231" s="4">
         <v>46433</v>
@@ -3819,10 +3798,10 @@
     </row>
     <row r="232" spans="1:4" ht="15">
       <c r="A232" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B232" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C232" s="4">
         <v>46461</v>
@@ -3833,10 +3812,10 @@
     </row>
     <row r="233" spans="1:4" ht="15">
       <c r="A233" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B233" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C233" s="4">
         <v>46489</v>
@@ -3847,10 +3826,10 @@
     </row>
     <row r="234" spans="1:4" ht="15">
       <c r="A234" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B234" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C234" s="4">
         <v>46517</v>
@@ -3861,10 +3840,10 @@
     </row>
     <row r="235" spans="1:4" ht="15">
       <c r="A235" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B235" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C235" s="4">
         <v>46545</v>
@@ -3875,10 +3854,10 @@
     </row>
     <row r="236" spans="1:4" ht="15">
       <c r="A236" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B236" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C236" s="4">
         <v>46573</v>
@@ -3889,10 +3868,10 @@
     </row>
     <row r="237" spans="1:4" ht="15">
       <c r="A237" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B237" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C237" s="4">
         <v>46601</v>
@@ -3903,10 +3882,10 @@
     </row>
     <row r="238" spans="1:4" ht="15">
       <c r="A238" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B238" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C238" s="4">
         <v>46629</v>
@@ -3917,10 +3896,10 @@
     </row>
     <row r="239" spans="1:4" ht="15">
       <c r="A239" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B239" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C239" s="4">
         <v>46657</v>
@@ -3931,10 +3910,10 @@
     </row>
     <row r="240" spans="1:4" ht="15">
       <c r="A240" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B240" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C240" s="4">
         <v>46685</v>
@@ -3945,10 +3924,10 @@
     </row>
     <row r="241" spans="1:4" ht="15">
       <c r="A241" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B241" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C241" s="4">
         <v>46713</v>
@@ -3959,10 +3938,10 @@
     </row>
     <row r="242" spans="1:4" ht="15">
       <c r="A242" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B242" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C242" s="4">
         <v>46748</v>
@@ -3973,10 +3952,10 @@
     </row>
     <row r="243" spans="1:4">
       <c r="A243" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B243" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C243" s="1">
         <v>46034</v>
@@ -3987,10 +3966,10 @@
     </row>
     <row r="244" spans="1:4">
       <c r="A244" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B244" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C244" s="1">
         <v>46048</v>
@@ -4001,24 +3980,24 @@
     </row>
     <row r="245" spans="1:4">
       <c r="A245" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B245" t="s">
-        <v>32</v>
-      </c>
-      <c r="C245" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D245" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
+      </c>
+      <c r="C245" s="1">
+        <v>46062</v>
+      </c>
+      <c r="D245" s="1">
+        <v>46073</v>
       </c>
     </row>
     <row r="246" spans="1:4">
       <c r="A246" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B246" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C246" s="1">
         <v>46076</v>
@@ -4029,10 +4008,10 @@
     </row>
     <row r="247" spans="1:4">
       <c r="A247" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B247" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C247" s="1">
         <v>46090</v>
@@ -4043,10 +4022,10 @@
     </row>
     <row r="248" spans="1:4">
       <c r="A248" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B248" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C248" s="1">
         <v>46104</v>
@@ -4057,10 +4036,10 @@
     </row>
     <row r="249" spans="1:4">
       <c r="A249" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B249" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C249" s="1">
         <v>46118</v>
@@ -4071,24 +4050,24 @@
     </row>
     <row r="250" spans="1:4">
       <c r="A250" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B250" t="s">
-        <v>32</v>
-      </c>
-      <c r="C250" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D250" s="1" t="s">
         <v>27</v>
+      </c>
+      <c r="C250" s="1">
+        <v>46132</v>
+      </c>
+      <c r="D250" s="1">
+        <v>46143</v>
       </c>
     </row>
     <row r="251" spans="1:4">
       <c r="A251" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B251" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C251" s="1">
         <v>46146</v>
@@ -4099,10 +4078,10 @@
     </row>
     <row r="252" spans="1:4">
       <c r="A252" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B252" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C252" s="1">
         <v>46160</v>
@@ -4113,13 +4092,13 @@
     </row>
     <row r="253" spans="1:4">
       <c r="A253" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B253" t="s">
-        <v>32</v>
-      </c>
-      <c r="C253" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
+      </c>
+      <c r="C253" s="1">
+        <v>46174</v>
       </c>
       <c r="D253" s="1">
         <v>46185</v>
@@ -4127,24 +4106,24 @@
     </row>
     <row r="254" spans="1:4">
       <c r="A254" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B254" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C254" s="1">
         <v>46188</v>
       </c>
-      <c r="D254" s="1" t="s">
-        <v>28</v>
+      <c r="D254" s="1">
+        <v>46199</v>
       </c>
     </row>
     <row r="255" spans="1:4">
       <c r="A255" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B255" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C255" s="1">
         <v>46202</v>
@@ -4155,10 +4134,10 @@
     </row>
     <row r="256" spans="1:4">
       <c r="A256" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B256" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C256" s="1">
         <v>46216</v>
@@ -4169,10 +4148,10 @@
     </row>
     <row r="257" spans="1:4">
       <c r="A257" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B257" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C257" s="1">
         <v>46230</v>
@@ -4183,10 +4162,10 @@
     </row>
     <row r="258" spans="1:4">
       <c r="A258" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B258" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C258" s="1">
         <v>46244</v>
@@ -4197,10 +4176,10 @@
     </row>
     <row r="259" spans="1:4">
       <c r="A259" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B259" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C259" s="1">
         <v>46258</v>
@@ -4211,10 +4190,10 @@
     </row>
     <row r="260" spans="1:4">
       <c r="A260" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B260" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C260" s="1">
         <v>46272</v>
@@ -4225,10 +4204,10 @@
     </row>
     <row r="261" spans="1:4">
       <c r="A261" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B261" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C261" s="1">
         <v>46286</v>
@@ -4239,10 +4218,10 @@
     </row>
     <row r="262" spans="1:4">
       <c r="A262" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B262" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C262" s="1">
         <v>46300</v>
@@ -4253,10 +4232,10 @@
     </row>
     <row r="263" spans="1:4">
       <c r="A263" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B263" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C263" s="1">
         <v>46314</v>
@@ -4267,10 +4246,10 @@
     </row>
     <row r="264" spans="1:4">
       <c r="A264" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B264" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C264" s="1">
         <v>46328</v>
@@ -4281,10 +4260,10 @@
     </row>
     <row r="265" spans="1:4">
       <c r="A265" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B265" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C265" s="1">
         <v>46342</v>
@@ -4295,10 +4274,10 @@
     </row>
     <row r="266" spans="1:4">
       <c r="A266" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B266" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C266" s="1">
         <v>46356</v>
@@ -4309,10 +4288,10 @@
     </row>
     <row r="267" spans="1:4">
       <c r="A267" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B267" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C267" s="1">
         <v>46370</v>
@@ -4323,10 +4302,10 @@
     </row>
     <row r="268" spans="1:4" ht="15">
       <c r="A268" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B268" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C268" s="4">
         <v>46391</v>
@@ -4337,10 +4316,10 @@
     </row>
     <row r="269" spans="1:4" ht="15">
       <c r="A269" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B269" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C269" s="4">
         <v>46405</v>
@@ -4351,10 +4330,10 @@
     </row>
     <row r="270" spans="1:4" ht="15">
       <c r="A270" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B270" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C270" s="4">
         <v>46419</v>
@@ -4365,10 +4344,10 @@
     </row>
     <row r="271" spans="1:4" ht="15">
       <c r="A271" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B271" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C271" s="4">
         <v>46433</v>
@@ -4379,10 +4358,10 @@
     </row>
     <row r="272" spans="1:4" ht="15">
       <c r="A272" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B272" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C272" s="4">
         <v>46447</v>
@@ -4393,10 +4372,10 @@
     </row>
     <row r="273" spans="1:4" ht="15">
       <c r="A273" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B273" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C273" s="4">
         <v>46461</v>
@@ -4407,10 +4386,10 @@
     </row>
     <row r="274" spans="1:4" ht="15">
       <c r="A274" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B274" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C274" s="4">
         <v>46475</v>
@@ -4421,10 +4400,10 @@
     </row>
     <row r="275" spans="1:4" ht="15">
       <c r="A275" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B275" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C275" s="4">
         <v>46489</v>
@@ -4435,10 +4414,10 @@
     </row>
     <row r="276" spans="1:4" ht="15">
       <c r="A276" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B276" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C276" s="4">
         <v>46503</v>
@@ -4449,10 +4428,10 @@
     </row>
     <row r="277" spans="1:4" ht="15">
       <c r="A277" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B277" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C277" s="4">
         <v>46517</v>
@@ -4463,10 +4442,10 @@
     </row>
     <row r="278" spans="1:4" ht="15">
       <c r="A278" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B278" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C278" s="4">
         <v>46531</v>
@@ -4477,10 +4456,10 @@
     </row>
     <row r="279" spans="1:4" ht="15">
       <c r="A279" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B279" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C279" s="4">
         <v>46545</v>
@@ -4491,10 +4470,10 @@
     </row>
     <row r="280" spans="1:4" ht="15">
       <c r="A280" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B280" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C280" s="4">
         <v>46559</v>
@@ -4505,10 +4484,10 @@
     </row>
     <row r="281" spans="1:4" ht="15">
       <c r="A281" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B281" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C281" s="4">
         <v>46573</v>
@@ -4519,10 +4498,10 @@
     </row>
     <row r="282" spans="1:4" ht="15">
       <c r="A282" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B282" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C282" s="4">
         <v>46587</v>
@@ -4533,10 +4512,10 @@
     </row>
     <row r="283" spans="1:4" ht="15">
       <c r="A283" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B283" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C283" s="4">
         <v>46601</v>
@@ -4547,10 +4526,10 @@
     </row>
     <row r="284" spans="1:4" ht="15">
       <c r="A284" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B284" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C284" s="4">
         <v>46615</v>
@@ -4561,10 +4540,10 @@
     </row>
     <row r="285" spans="1:4" ht="15">
       <c r="A285" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B285" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C285" s="4">
         <v>46629</v>
@@ -4575,10 +4554,10 @@
     </row>
     <row r="286" spans="1:4" ht="15">
       <c r="A286" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B286" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C286" s="4">
         <v>46643</v>
@@ -4589,10 +4568,10 @@
     </row>
     <row r="287" spans="1:4" ht="15">
       <c r="A287" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B287" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C287" s="4">
         <v>46657</v>
@@ -4603,10 +4582,10 @@
     </row>
     <row r="288" spans="1:4" ht="15">
       <c r="A288" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B288" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C288" s="4">
         <v>46671</v>
@@ -4617,10 +4596,10 @@
     </row>
     <row r="289" spans="1:4" ht="15">
       <c r="A289" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B289" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C289" s="4">
         <v>46685</v>
@@ -4631,10 +4610,10 @@
     </row>
     <row r="290" spans="1:4" ht="15">
       <c r="A290" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B290" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C290" s="4">
         <v>46699</v>
@@ -4645,10 +4624,10 @@
     </row>
     <row r="291" spans="1:4" ht="15">
       <c r="A291" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B291" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C291" s="4">
         <v>46713</v>
@@ -4659,10 +4638,10 @@
     </row>
     <row r="292" spans="1:4" ht="15">
       <c r="A292" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B292" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C292" s="4">
         <v>46727</v>
@@ -4673,10 +4652,10 @@
     </row>
     <row r="293" spans="1:4" ht="15">
       <c r="A293" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B293" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C293" s="4">
         <v>46748</v>
@@ -4687,10 +4666,10 @@
     </row>
     <row r="294" spans="1:4">
       <c r="A294" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B294" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C294" s="1">
         <v>46034</v>
@@ -4701,10 +4680,10 @@
     </row>
     <row r="295" spans="1:4">
       <c r="A295" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B295" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C295" s="1">
         <v>46048</v>
@@ -4715,10 +4694,10 @@
     </row>
     <row r="296" spans="1:4">
       <c r="A296" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B296" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C296" s="1">
         <v>46062</v>
@@ -4729,10 +4708,10 @@
     </row>
     <row r="297" spans="1:4">
       <c r="A297" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B297" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C297" s="1">
         <v>46076</v>
@@ -4743,10 +4722,10 @@
     </row>
     <row r="298" spans="1:4">
       <c r="A298" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B298" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C298" s="1">
         <v>46090</v>
@@ -4757,10 +4736,10 @@
     </row>
     <row r="299" spans="1:4">
       <c r="A299" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B299" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C299" s="1">
         <v>46104</v>
@@ -4771,10 +4750,10 @@
     </row>
     <row r="300" spans="1:4">
       <c r="A300" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B300" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C300" s="1">
         <v>46118</v>
@@ -4785,10 +4764,10 @@
     </row>
     <row r="301" spans="1:4">
       <c r="A301" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B301" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C301" s="1">
         <v>46132</v>
@@ -4799,10 +4778,10 @@
     </row>
     <row r="302" spans="1:4">
       <c r="A302" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B302" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C302" s="1">
         <v>46146</v>
@@ -4813,10 +4792,10 @@
     </row>
     <row r="303" spans="1:4">
       <c r="A303" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B303" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C303" s="1">
         <v>46160</v>
@@ -4827,10 +4806,10 @@
     </row>
     <row r="304" spans="1:4">
       <c r="A304" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B304" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C304" s="1">
         <v>46174</v>
@@ -4841,10 +4820,10 @@
     </row>
     <row r="305" spans="1:4">
       <c r="A305" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B305" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C305" s="1">
         <v>46188</v>
@@ -4855,10 +4834,10 @@
     </row>
     <row r="306" spans="1:4">
       <c r="A306" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B306" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C306" s="1">
         <v>46202</v>
@@ -4869,10 +4848,10 @@
     </row>
     <row r="307" spans="1:4">
       <c r="A307" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B307" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C307" s="1">
         <v>46216</v>
@@ -4883,10 +4862,10 @@
     </row>
     <row r="308" spans="1:4">
       <c r="A308" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B308" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C308" s="1">
         <v>46230</v>
@@ -4897,10 +4876,10 @@
     </row>
     <row r="309" spans="1:4">
       <c r="A309" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B309" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C309" s="1">
         <v>46244</v>
@@ -4911,10 +4890,10 @@
     </row>
     <row r="310" spans="1:4">
       <c r="A310" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B310" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C310" s="1">
         <v>46258</v>
@@ -4925,10 +4904,10 @@
     </row>
     <row r="311" spans="1:4">
       <c r="A311" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B311" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C311" s="1">
         <v>46272</v>
@@ -4939,10 +4918,10 @@
     </row>
     <row r="312" spans="1:4">
       <c r="A312" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B312" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C312" s="1">
         <v>46286</v>
@@ -4953,10 +4932,10 @@
     </row>
     <row r="313" spans="1:4">
       <c r="A313" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B313" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C313" s="1">
         <v>46300</v>
@@ -4967,10 +4946,10 @@
     </row>
     <row r="314" spans="1:4">
       <c r="A314" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B314" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C314" s="1">
         <v>46314</v>
@@ -4981,10 +4960,10 @@
     </row>
     <row r="315" spans="1:4">
       <c r="A315" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B315" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C315" s="1">
         <v>46328</v>
@@ -4995,10 +4974,10 @@
     </row>
     <row r="316" spans="1:4">
       <c r="A316" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B316" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C316" s="1">
         <v>46342</v>
@@ -5009,10 +4988,10 @@
     </row>
     <row r="317" spans="1:4">
       <c r="A317" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B317" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C317" s="1">
         <v>46356</v>
@@ -5023,10 +5002,10 @@
     </row>
     <row r="318" spans="1:4">
       <c r="A318" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B318" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C318" s="1">
         <v>46370</v>
@@ -5037,10 +5016,10 @@
     </row>
     <row r="319" spans="1:4">
       <c r="A319" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B319" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C319" s="1">
         <v>46384</v>
@@ -5051,10 +5030,10 @@
     </row>
     <row r="320" spans="1:4">
       <c r="A320" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B320" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C320" s="1">
         <v>46034</v>
@@ -5065,10 +5044,10 @@
     </row>
     <row r="321" spans="1:4">
       <c r="A321" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B321" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C321" s="1">
         <v>46062</v>
@@ -5079,10 +5058,10 @@
     </row>
     <row r="322" spans="1:4">
       <c r="A322" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B322" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C322" s="1">
         <v>46090</v>
@@ -5093,10 +5072,10 @@
     </row>
     <row r="323" spans="1:4">
       <c r="A323" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B323" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C323" s="1">
         <v>46118</v>
@@ -5107,10 +5086,10 @@
     </row>
     <row r="324" spans="1:4">
       <c r="A324" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B324" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C324" s="1">
         <v>46146</v>
@@ -5121,10 +5100,10 @@
     </row>
     <row r="325" spans="1:4">
       <c r="A325" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B325" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C325" s="1">
         <v>46174</v>
@@ -5135,10 +5114,10 @@
     </row>
     <row r="326" spans="1:4">
       <c r="A326" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B326" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C326" s="1">
         <v>46202</v>
@@ -5149,10 +5128,10 @@
     </row>
     <row r="327" spans="1:4">
       <c r="A327" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B327" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C327" s="1">
         <v>46230</v>
@@ -5163,10 +5142,10 @@
     </row>
     <row r="328" spans="1:4">
       <c r="A328" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B328" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C328" s="1">
         <v>46258</v>
@@ -5177,10 +5156,10 @@
     </row>
     <row r="329" spans="1:4">
       <c r="A329" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B329" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C329" s="1">
         <v>46286</v>
@@ -5191,10 +5170,10 @@
     </row>
     <row r="330" spans="1:4">
       <c r="A330" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B330" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C330" s="1">
         <v>46314</v>
@@ -5205,10 +5184,10 @@
     </row>
     <row r="331" spans="1:4">
       <c r="A331" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B331" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C331" s="1">
         <v>46342</v>
@@ -5219,10 +5198,10 @@
     </row>
     <row r="332" spans="1:4">
       <c r="A332" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B332" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C332" s="1">
         <v>46370</v>
@@ -5233,10 +5212,10 @@
     </row>
     <row r="333" spans="1:4" ht="15">
       <c r="A333" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B333" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C333" s="1">
         <v>46384</v>
@@ -5247,10 +5226,10 @@
     </row>
     <row r="334" spans="1:4" ht="15">
       <c r="A334" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B334" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C334" s="4">
         <v>46405</v>
@@ -5261,10 +5240,10 @@
     </row>
     <row r="335" spans="1:4" ht="15">
       <c r="A335" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B335" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C335" s="4">
         <v>46419</v>
@@ -5275,10 +5254,10 @@
     </row>
     <row r="336" spans="1:4" ht="15">
       <c r="A336" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B336" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C336" s="4">
         <v>46433</v>
@@ -5289,10 +5268,10 @@
     </row>
     <row r="337" spans="1:4" ht="15">
       <c r="A337" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B337" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C337" s="4">
         <v>46447</v>
@@ -5303,10 +5282,10 @@
     </row>
     <row r="338" spans="1:4" ht="15">
       <c r="A338" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B338" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C338" s="4">
         <v>46461</v>
@@ -5317,10 +5296,10 @@
     </row>
     <row r="339" spans="1:4" ht="15">
       <c r="A339" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B339" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C339" s="4">
         <v>46475</v>
@@ -5331,10 +5310,10 @@
     </row>
     <row r="340" spans="1:4" ht="15">
       <c r="A340" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B340" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C340" s="4">
         <v>46489</v>
@@ -5345,10 +5324,10 @@
     </row>
     <row r="341" spans="1:4" ht="15">
       <c r="A341" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B341" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C341" s="4">
         <v>46503</v>
@@ -5359,10 +5338,10 @@
     </row>
     <row r="342" spans="1:4" ht="15">
       <c r="A342" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B342" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C342" s="4">
         <v>46517</v>
@@ -5373,10 +5352,10 @@
     </row>
     <row r="343" spans="1:4" ht="15">
       <c r="A343" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B343" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C343" s="4">
         <v>46531</v>
@@ -5387,10 +5366,10 @@
     </row>
     <row r="344" spans="1:4" ht="15">
       <c r="A344" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B344" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C344" s="4">
         <v>46545</v>
@@ -5401,10 +5380,10 @@
     </row>
     <row r="345" spans="1:4" ht="15">
       <c r="A345" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B345" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C345" s="4">
         <v>46559</v>
@@ -5415,10 +5394,10 @@
     </row>
     <row r="346" spans="1:4" ht="15">
       <c r="A346" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B346" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C346" s="4">
         <v>46573</v>
@@ -5429,10 +5408,10 @@
     </row>
     <row r="347" spans="1:4" ht="15">
       <c r="A347" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B347" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C347" s="4">
         <v>46587</v>
@@ -5443,10 +5422,10 @@
     </row>
     <row r="348" spans="1:4" ht="15">
       <c r="A348" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B348" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C348" s="4">
         <v>46601</v>
@@ -5457,10 +5436,10 @@
     </row>
     <row r="349" spans="1:4" ht="15">
       <c r="A349" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B349" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C349" s="4">
         <v>46615</v>
@@ -5471,10 +5450,10 @@
     </row>
     <row r="350" spans="1:4" ht="15">
       <c r="A350" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B350" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C350" s="4">
         <v>46629</v>
@@ -5485,10 +5464,10 @@
     </row>
     <row r="351" spans="1:4" ht="15">
       <c r="A351" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B351" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C351" s="4">
         <v>46643</v>
@@ -5499,10 +5478,10 @@
     </row>
     <row r="352" spans="1:4" ht="15">
       <c r="A352" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B352" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C352" s="4">
         <v>46657</v>
@@ -5513,10 +5492,10 @@
     </row>
     <row r="353" spans="1:4" ht="15">
       <c r="A353" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B353" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C353" s="4">
         <v>46671</v>
@@ -5527,10 +5506,10 @@
     </row>
     <row r="354" spans="1:4" ht="15">
       <c r="A354" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B354" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C354" s="4">
         <v>46685</v>
@@ -5541,10 +5520,10 @@
     </row>
     <row r="355" spans="1:4" ht="15">
       <c r="A355" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B355" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C355" s="4">
         <v>46699</v>
@@ -5555,10 +5534,10 @@
     </row>
     <row r="356" spans="1:4" ht="15">
       <c r="A356" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B356" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C356" s="4">
         <v>46713</v>
@@ -5569,10 +5548,10 @@
     </row>
     <row r="357" spans="1:4" ht="15">
       <c r="A357" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B357" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C357" s="4">
         <v>46727</v>
@@ -5583,10 +5562,10 @@
     </row>
     <row r="358" spans="1:4" ht="15">
       <c r="A358" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B358" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C358" s="4">
         <v>46748</v>
@@ -5597,10 +5576,10 @@
     </row>
     <row r="359" spans="1:4" ht="15">
       <c r="A359" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B359" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C359" s="1">
         <v>46034</v>
@@ -5611,10 +5590,10 @@
     </row>
     <row r="360" spans="1:4" ht="15">
       <c r="A360" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B360" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C360" s="1">
         <v>46048</v>
@@ -5625,10 +5604,10 @@
     </row>
     <row r="361" spans="1:4" ht="15">
       <c r="A361" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B361" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C361" s="1">
         <v>46062</v>
@@ -5639,10 +5618,10 @@
     </row>
     <row r="362" spans="1:4" ht="15">
       <c r="A362" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B362" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C362" s="1">
         <v>46076</v>
@@ -5653,10 +5632,10 @@
     </row>
     <row r="363" spans="1:4">
       <c r="A363" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B363" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C363" s="1">
         <v>46090</v>
@@ -5667,10 +5646,10 @@
     </row>
     <row r="364" spans="1:4">
       <c r="A364" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B364" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C364" s="1">
         <v>46104</v>
@@ -5681,10 +5660,10 @@
     </row>
     <row r="365" spans="1:4">
       <c r="A365" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B365" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C365" s="1">
         <v>46118</v>
@@ -5695,10 +5674,10 @@
     </row>
     <row r="366" spans="1:4">
       <c r="A366" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B366" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C366" s="1">
         <v>46132</v>
@@ -5709,10 +5688,10 @@
     </row>
     <row r="367" spans="1:4">
       <c r="A367" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B367" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C367" s="1">
         <v>46146</v>
@@ -5723,10 +5702,10 @@
     </row>
     <row r="368" spans="1:4">
       <c r="A368" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B368" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C368" s="1">
         <v>46160</v>
@@ -5737,10 +5716,10 @@
     </row>
     <row r="369" spans="1:4">
       <c r="A369" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B369" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C369" s="1">
         <v>46174</v>
@@ -5751,10 +5730,10 @@
     </row>
     <row r="370" spans="1:4">
       <c r="A370" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B370" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C370" s="1">
         <v>46188</v>
@@ -5765,10 +5744,10 @@
     </row>
     <row r="371" spans="1:4">
       <c r="A371" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B371" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C371" s="1">
         <v>46202</v>
@@ -5779,10 +5758,10 @@
     </row>
     <row r="372" spans="1:4">
       <c r="A372" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B372" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C372" s="1">
         <v>46216</v>
@@ -5793,10 +5772,10 @@
     </row>
     <row r="373" spans="1:4">
       <c r="A373" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B373" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C373" s="1">
         <v>46230</v>
@@ -5807,10 +5786,10 @@
     </row>
     <row r="374" spans="1:4">
       <c r="A374" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B374" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C374" s="1">
         <v>46244</v>
@@ -5821,10 +5800,10 @@
     </row>
     <row r="375" spans="1:4">
       <c r="A375" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B375" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C375" s="1">
         <v>46258</v>
@@ -5835,10 +5814,10 @@
     </row>
     <row r="376" spans="1:4">
       <c r="A376" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B376" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C376" s="1">
         <v>46272</v>
@@ -5849,10 +5828,10 @@
     </row>
     <row r="377" spans="1:4">
       <c r="A377" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B377" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C377" s="1">
         <v>46286</v>
@@ -5863,10 +5842,10 @@
     </row>
     <row r="378" spans="1:4">
       <c r="A378" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B378" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C378" s="1">
         <v>46300</v>
@@ -5877,10 +5856,10 @@
     </row>
     <row r="379" spans="1:4">
       <c r="A379" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B379" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C379" s="1">
         <v>46314</v>
@@ -5891,10 +5870,10 @@
     </row>
     <row r="380" spans="1:4">
       <c r="A380" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B380" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C380" s="1">
         <v>46328</v>
@@ -5905,10 +5884,10 @@
     </row>
     <row r="381" spans="1:4">
       <c r="A381" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B381" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C381" s="1">
         <v>46342</v>
@@ -5919,10 +5898,10 @@
     </row>
     <row r="382" spans="1:4">
       <c r="A382" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B382" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C382" s="1">
         <v>46356</v>
@@ -5933,10 +5912,10 @@
     </row>
     <row r="383" spans="1:4">
       <c r="A383" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B383" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C383" s="1">
         <v>46370</v>
@@ -5947,10 +5926,10 @@
     </row>
     <row r="384" spans="1:4">
       <c r="A384" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B384" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C384" s="1">
         <v>46384</v>
@@ -5961,10 +5940,10 @@
     </row>
     <row r="385" spans="1:4">
       <c r="A385" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B385" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C385" s="1">
         <v>46034</v>
@@ -5975,10 +5954,10 @@
     </row>
     <row r="386" spans="1:4">
       <c r="A386" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B386" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C386" s="1">
         <v>46062</v>
@@ -5989,10 +5968,10 @@
     </row>
     <row r="387" spans="1:4">
       <c r="A387" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B387" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C387" s="1">
         <v>46090</v>
@@ -6003,10 +5982,10 @@
     </row>
     <row r="388" spans="1:4">
       <c r="A388" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B388" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C388" s="1">
         <v>46118</v>
@@ -6017,10 +5996,10 @@
     </row>
     <row r="389" spans="1:4">
       <c r="A389" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B389" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C389" s="1">
         <v>46146</v>
@@ -6031,10 +6010,10 @@
     </row>
     <row r="390" spans="1:4">
       <c r="A390" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B390" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C390" s="1">
         <v>46174</v>
@@ -6045,10 +6024,10 @@
     </row>
     <row r="391" spans="1:4">
       <c r="A391" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B391" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C391" s="1">
         <v>46202</v>
@@ -6059,10 +6038,10 @@
     </row>
     <row r="392" spans="1:4">
       <c r="A392" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B392" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C392" s="1">
         <v>46230</v>
@@ -6073,10 +6052,10 @@
     </row>
     <row r="393" spans="1:4">
       <c r="A393" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B393" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C393" s="1">
         <v>46258</v>
@@ -6087,10 +6066,10 @@
     </row>
     <row r="394" spans="1:4">
       <c r="A394" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B394" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C394" s="1">
         <v>46286</v>
@@ -6101,10 +6080,10 @@
     </row>
     <row r="395" spans="1:4">
       <c r="A395" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B395" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C395" s="1">
         <v>46314</v>
@@ -6115,10 +6094,10 @@
     </row>
     <row r="396" spans="1:4">
       <c r="A396" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B396" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C396" s="1">
         <v>46342</v>
@@ -6129,10 +6108,10 @@
     </row>
     <row r="397" spans="1:4">
       <c r="A397" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B397" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C397" s="1">
         <v>46370</v>
@@ -6143,10 +6122,10 @@
     </row>
     <row r="398" spans="1:4" ht="15">
       <c r="A398" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B398" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C398" s="1">
         <v>46384</v>
@@ -6157,10 +6136,10 @@
     </row>
     <row r="399" spans="1:4" ht="15">
       <c r="A399" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B399" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C399" s="1">
         <v>46034</v>
@@ -6171,10 +6150,10 @@
     </row>
     <row r="400" spans="1:4" ht="15">
       <c r="A400" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B400" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C400" s="1">
         <v>46062</v>
@@ -6185,10 +6164,10 @@
     </row>
     <row r="401" spans="1:4" ht="15">
       <c r="A401" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B401" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C401" s="1">
         <v>46090</v>
@@ -6199,10 +6178,10 @@
     </row>
     <row r="402" spans="1:4" ht="15">
       <c r="A402" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B402" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C402" s="1">
         <v>46118</v>
@@ -6213,10 +6192,10 @@
     </row>
     <row r="403" spans="1:4" ht="15">
       <c r="A403" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B403" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C403" s="1">
         <v>46146</v>
@@ -6227,10 +6206,10 @@
     </row>
     <row r="404" spans="1:4" ht="15">
       <c r="A404" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B404" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C404" s="1">
         <v>46174</v>
@@ -6241,10 +6220,10 @@
     </row>
     <row r="405" spans="1:4" ht="15">
       <c r="A405" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B405" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C405" s="1">
         <v>46202</v>
@@ -6255,10 +6234,10 @@
     </row>
     <row r="406" spans="1:4" ht="15">
       <c r="A406" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B406" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C406" s="1">
         <v>46230</v>
@@ -6269,10 +6248,10 @@
     </row>
     <row r="407" spans="1:4" ht="15">
       <c r="A407" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B407" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C407" s="1">
         <v>46258</v>
@@ -6283,10 +6262,10 @@
     </row>
     <row r="408" spans="1:4" ht="15">
       <c r="A408" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B408" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C408" s="1">
         <v>46286</v>
@@ -6297,10 +6276,10 @@
     </row>
     <row r="409" spans="1:4" ht="15">
       <c r="A409" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B409" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C409" s="1">
         <v>46314</v>
@@ -6311,10 +6290,10 @@
     </row>
     <row r="410" spans="1:4" ht="15">
       <c r="A410" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B410" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C410" s="1">
         <v>46342</v>
@@ -6325,10 +6304,10 @@
     </row>
     <row r="411" spans="1:4" ht="15">
       <c r="A411" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B411" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C411" s="1">
         <v>46370</v>
@@ -6339,10 +6318,10 @@
     </row>
     <row r="412" spans="1:4" ht="15">
       <c r="A412" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B412" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C412" s="1">
         <v>46384</v>
@@ -6353,10 +6332,10 @@
     </row>
     <row r="413" spans="1:4" ht="15">
       <c r="A413" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B413" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C413" s="4">
         <v>46405</v>
@@ -6367,10 +6346,10 @@
     </row>
     <row r="414" spans="1:4" ht="15">
       <c r="A414" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B414" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C414" s="4">
         <v>46419</v>
@@ -6381,10 +6360,10 @@
     </row>
     <row r="415" spans="1:4" ht="15">
       <c r="A415" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B415" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C415" s="4">
         <v>46433</v>
@@ -6395,10 +6374,10 @@
     </row>
     <row r="416" spans="1:4" ht="15">
       <c r="A416" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B416" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C416" s="4">
         <v>46447</v>
@@ -6409,10 +6388,10 @@
     </row>
     <row r="417" spans="1:4" ht="15">
       <c r="A417" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B417" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C417" s="4">
         <v>46461</v>
@@ -6423,10 +6402,10 @@
     </row>
     <row r="418" spans="1:4" ht="15">
       <c r="A418" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B418" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C418" s="4">
         <v>46475</v>
@@ -6437,10 +6416,10 @@
     </row>
     <row r="419" spans="1:4" ht="15">
       <c r="A419" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B419" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C419" s="4">
         <v>46489</v>
@@ -6451,10 +6430,10 @@
     </row>
     <row r="420" spans="1:4" ht="15">
       <c r="A420" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B420" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C420" s="4">
         <v>46503</v>
@@ -6465,10 +6444,10 @@
     </row>
     <row r="421" spans="1:4" ht="15">
       <c r="A421" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B421" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C421" s="4">
         <v>46517</v>
@@ -6479,10 +6458,10 @@
     </row>
     <row r="422" spans="1:4" ht="15">
       <c r="A422" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B422" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C422" s="4">
         <v>46531</v>
@@ -6493,10 +6472,10 @@
     </row>
     <row r="423" spans="1:4" ht="15">
       <c r="A423" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B423" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C423" s="4">
         <v>46545</v>
@@ -6507,10 +6486,10 @@
     </row>
     <row r="424" spans="1:4" ht="15">
       <c r="A424" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B424" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C424" s="4">
         <v>46559</v>
@@ -6521,10 +6500,10 @@
     </row>
     <row r="425" spans="1:4" ht="15">
       <c r="A425" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B425" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C425" s="4">
         <v>46573</v>
@@ -6535,10 +6514,10 @@
     </row>
     <row r="426" spans="1:4" ht="15">
       <c r="A426" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B426" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C426" s="4">
         <v>46587</v>
@@ -6549,10 +6528,10 @@
     </row>
     <row r="427" spans="1:4" ht="15">
       <c r="A427" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B427" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C427" s="4">
         <v>46601</v>
@@ -6563,10 +6542,10 @@
     </row>
     <row r="428" spans="1:4" ht="15">
       <c r="A428" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B428" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C428" s="4">
         <v>46615</v>
@@ -6577,10 +6556,10 @@
     </row>
     <row r="429" spans="1:4" ht="15">
       <c r="A429" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B429" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C429" s="4">
         <v>46629</v>
@@ -6591,10 +6570,10 @@
     </row>
     <row r="430" spans="1:4" ht="15">
       <c r="A430" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B430" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C430" s="4">
         <v>46643</v>
@@ -6605,10 +6584,10 @@
     </row>
     <row r="431" spans="1:4" ht="15">
       <c r="A431" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B431" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C431" s="4">
         <v>46657</v>
@@ -6619,10 +6598,10 @@
     </row>
     <row r="432" spans="1:4" ht="15">
       <c r="A432" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B432" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C432" s="4">
         <v>46671</v>
@@ -6633,10 +6612,10 @@
     </row>
     <row r="433" spans="1:4" ht="15">
       <c r="A433" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B433" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C433" s="4">
         <v>46685</v>
@@ -6647,10 +6626,10 @@
     </row>
     <row r="434" spans="1:4" ht="15">
       <c r="A434" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B434" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C434" s="4">
         <v>46699</v>
@@ -6661,10 +6640,10 @@
     </row>
     <row r="435" spans="1:4" ht="15">
       <c r="A435" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B435" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C435" s="4">
         <v>46713</v>
@@ -6675,10 +6654,10 @@
     </row>
     <row r="436" spans="1:4" ht="15">
       <c r="A436" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B436" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C436" s="4">
         <v>46727</v>
@@ -6689,10 +6668,10 @@
     </row>
     <row r="437" spans="1:4" ht="15">
       <c r="A437" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B437" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C437" s="4">
         <v>46748</v>
@@ -6703,10 +6682,10 @@
     </row>
     <row r="438" spans="1:4">
       <c r="A438" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B438" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C438" s="1">
         <v>46034</v>
@@ -6717,10 +6696,10 @@
     </row>
     <row r="439" spans="1:4">
       <c r="A439" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B439" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C439" s="1">
         <v>46146</v>
@@ -6731,13 +6710,13 @@
     </row>
     <row r="440" spans="1:4">
       <c r="A440" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B440" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C440" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D440" s="1">
         <v>46283</v>
@@ -6745,10 +6724,10 @@
     </row>
     <row r="441" spans="1:4">
       <c r="A441" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B441" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C441" s="1">
         <v>46370</v>
@@ -6759,10 +6738,10 @@
     </row>
     <row r="442" spans="1:4" ht="15">
       <c r="A442" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B442" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C442" s="4">
         <v>46489</v>
@@ -6773,10 +6752,10 @@
     </row>
     <row r="443" spans="1:4" ht="15">
       <c r="A443" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B443" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C443" s="4">
         <v>46601</v>
@@ -6787,10 +6766,10 @@
     </row>
     <row r="444" spans="1:4" ht="15">
       <c r="A444" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B444" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C444" s="4">
         <v>46713</v>
@@ -6801,10 +6780,10 @@
     </row>
     <row r="445" spans="1:4" ht="29.1">
       <c r="A445" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C445" s="1">
         <v>46090</v>
@@ -6815,24 +6794,24 @@
     </row>
     <row r="446" spans="1:4" ht="29.1">
       <c r="A446" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C446" s="1">
         <v>46202</v>
       </c>
-      <c r="D446" s="1" t="s">
-        <v>44</v>
+      <c r="D446" s="1">
+        <v>46227</v>
       </c>
     </row>
     <row r="447" spans="1:4" ht="29.1">
       <c r="A447" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C447" s="1">
         <v>46314</v>
@@ -6843,10 +6822,10 @@
     </row>
     <row r="448" spans="1:4" ht="30.75">
       <c r="A448" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C448" s="4">
         <v>46433</v>
@@ -6857,10 +6836,10 @@
     </row>
     <row r="449" spans="1:4" ht="30.75">
       <c r="A449" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C449" s="4">
         <v>46545</v>
@@ -6871,10 +6850,10 @@
     </row>
     <row r="450" spans="1:4" ht="30.75">
       <c r="A450" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C450" s="4">
         <v>46657</v>
@@ -6885,10 +6864,10 @@
     </row>
     <row r="451" spans="1:4">
       <c r="A451" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C451" s="1">
         <v>46118</v>
@@ -6899,10 +6878,10 @@
     </row>
     <row r="452" spans="1:4">
       <c r="A452" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C452" s="1">
         <v>46230</v>
@@ -6913,10 +6892,10 @@
     </row>
     <row r="453" spans="1:4">
       <c r="A453" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C453" s="1">
         <v>46342</v>
@@ -6927,10 +6906,10 @@
     </row>
     <row r="454" spans="1:4" ht="15">
       <c r="A454" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C454" s="4">
         <v>46461</v>
@@ -6941,10 +6920,10 @@
     </row>
     <row r="455" spans="1:4" ht="15">
       <c r="A455" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B455" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C455" s="4">
         <v>46573</v>
@@ -6955,10 +6934,10 @@
     </row>
     <row r="456" spans="1:4" ht="15">
       <c r="A456" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C456" s="4">
         <v>46685</v>
@@ -6969,10 +6948,10 @@
     </row>
     <row r="457" spans="1:4">
       <c r="A457" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B457" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C457" s="1">
         <v>46062</v>
@@ -6983,10 +6962,10 @@
     </row>
     <row r="458" spans="1:4">
       <c r="A458" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B458" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C458" s="1">
         <v>46174</v>
@@ -6997,10 +6976,10 @@
     </row>
     <row r="459" spans="1:4">
       <c r="A459" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B459" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C459" s="1">
         <v>46286</v>
@@ -7011,10 +6990,10 @@
     </row>
     <row r="460" spans="1:4" ht="15">
       <c r="A460" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B460" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C460" s="4">
         <v>46405</v>
@@ -7025,10 +7004,10 @@
     </row>
     <row r="461" spans="1:4" ht="15">
       <c r="A461" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B461" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C461" s="4">
         <v>46517</v>
@@ -7039,10 +7018,10 @@
     </row>
     <row r="462" spans="1:4" ht="15">
       <c r="A462" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B462" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C462" s="4">
         <v>46629</v>
@@ -7053,10 +7032,10 @@
     </row>
     <row r="463" spans="1:4" ht="15">
       <c r="A463" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B463" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C463" s="4">
         <v>46748</v>
@@ -7067,10 +7046,10 @@
     </row>
     <row r="464" spans="1:4">
       <c r="A464" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B464" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C464" s="1">
         <v>46034</v>
@@ -7081,10 +7060,10 @@
     </row>
     <row r="465" spans="1:4">
       <c r="A465" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B465" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C465" s="1">
         <v>46034</v>
@@ -7095,10 +7074,10 @@
     </row>
     <row r="466" spans="1:4">
       <c r="A466" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B466" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C466" s="1">
         <v>46118</v>
@@ -7109,24 +7088,24 @@
     </row>
     <row r="467" spans="1:4">
       <c r="A467" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B467" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C467" s="1">
         <v>46202</v>
       </c>
       <c r="D467" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="468" spans="1:4">
       <c r="A468" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B468" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C468" s="1">
         <v>46286</v>
@@ -7137,10 +7116,10 @@
     </row>
     <row r="469" spans="1:4">
       <c r="A469" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B469" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C469" s="1">
         <v>46370</v>
@@ -7151,10 +7130,10 @@
     </row>
     <row r="470" spans="1:4" ht="15">
       <c r="A470" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B470" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C470" s="4">
         <v>46489</v>
@@ -7165,10 +7144,10 @@
     </row>
     <row r="471" spans="1:4" ht="15">
       <c r="A471" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B471" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C471" s="4">
         <v>46573</v>
@@ -7179,10 +7158,10 @@
     </row>
     <row r="472" spans="1:4" ht="15">
       <c r="A472" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B472" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C472" s="4">
         <v>46657</v>
@@ -7193,10 +7172,10 @@
     </row>
     <row r="473" spans="1:4" ht="15">
       <c r="A473" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B473" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C473" s="4">
         <v>46748</v>
@@ -7207,10 +7186,10 @@
     </row>
     <row r="474" spans="1:4">
       <c r="A474" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B474" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C474" s="1">
         <v>46090</v>
@@ -7221,10 +7200,10 @@
     </row>
     <row r="475" spans="1:4">
       <c r="A475" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B475" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C475" s="1">
         <v>46146</v>
@@ -7235,24 +7214,24 @@
     </row>
     <row r="476" spans="1:4">
       <c r="A476" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B476" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C476" s="1">
         <v>46202</v>
       </c>
       <c r="D476" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="477" spans="1:4">
       <c r="A477" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B477" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C477" s="1">
         <v>46258</v>
@@ -7263,10 +7242,10 @@
     </row>
     <row r="478" spans="1:4">
       <c r="A478" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B478" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C478" s="1">
         <v>46314</v>
@@ -7277,10 +7256,10 @@
     </row>
     <row r="479" spans="1:4">
       <c r="A479" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B479" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C479" s="1">
         <v>46370</v>
@@ -7291,10 +7270,10 @@
     </row>
     <row r="480" spans="1:4" ht="15">
       <c r="A480" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B480" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C480" s="4">
         <v>46433</v>
@@ -7305,10 +7284,10 @@
     </row>
     <row r="481" spans="1:4" ht="15">
       <c r="A481" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B481" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C481" s="4">
         <v>46489</v>
@@ -7319,10 +7298,10 @@
     </row>
     <row r="482" spans="1:4" ht="15">
       <c r="A482" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B482" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C482" s="4">
         <v>46545</v>
@@ -7333,10 +7312,10 @@
     </row>
     <row r="483" spans="1:4" ht="15">
       <c r="A483" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B483" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C483" s="4">
         <v>46601</v>
@@ -7347,10 +7326,10 @@
     </row>
     <row r="484" spans="1:4" ht="15">
       <c r="A484" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B484" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C484" s="4">
         <v>46657</v>
@@ -7361,10 +7340,10 @@
     </row>
     <row r="485" spans="1:4" ht="15">
       <c r="A485" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B485" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C485" s="4">
         <v>46713</v>
@@ -7375,10 +7354,10 @@
     </row>
     <row r="486" spans="1:4">
       <c r="A486" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B486" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C486" s="1">
         <v>46118</v>
@@ -7389,10 +7368,10 @@
     </row>
     <row r="487" spans="1:4">
       <c r="A487" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B487" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C487" s="1">
         <v>46174</v>
@@ -7403,10 +7382,10 @@
     </row>
     <row r="488" spans="1:4">
       <c r="A488" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B488" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C488" s="1">
         <v>46230</v>
@@ -7417,10 +7396,10 @@
     </row>
     <row r="489" spans="1:4">
       <c r="A489" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B489" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C489" s="1">
         <v>46286</v>
@@ -7431,10 +7410,10 @@
     </row>
     <row r="490" spans="1:4">
       <c r="A490" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B490" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C490" s="1">
         <v>46342</v>
@@ -7445,10 +7424,10 @@
     </row>
     <row r="491" spans="1:4" ht="15">
       <c r="A491" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B491" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C491" s="4">
         <v>46405</v>
@@ -7459,10 +7438,10 @@
     </row>
     <row r="492" spans="1:4" ht="15">
       <c r="A492" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B492" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C492" s="4">
         <v>46461</v>
@@ -7473,10 +7452,10 @@
     </row>
     <row r="493" spans="1:4" ht="15">
       <c r="A493" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B493" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C493" s="4">
         <v>46517</v>
@@ -7487,10 +7466,10 @@
     </row>
     <row r="494" spans="1:4" ht="15">
       <c r="A494" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B494" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C494" s="4">
         <v>46573</v>
@@ -7501,10 +7480,10 @@
     </row>
     <row r="495" spans="1:4" ht="15">
       <c r="A495" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B495" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C495" s="4">
         <v>46629</v>
@@ -7515,10 +7494,10 @@
     </row>
     <row r="496" spans="1:4" ht="15">
       <c r="A496" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B496" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C496" s="4">
         <v>46685</v>
@@ -7529,10 +7508,10 @@
     </row>
     <row r="497" spans="1:4" ht="15">
       <c r="A497" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B497" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C497" s="4">
         <v>46748</v>
@@ -7543,10 +7522,10 @@
     </row>
     <row r="498" spans="1:4">
       <c r="A498" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B498" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C498" s="1">
         <v>46090</v>
@@ -7557,10 +7536,10 @@
     </row>
     <row r="499" spans="1:4">
       <c r="A499" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B499" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C499" s="1">
         <v>46174</v>
@@ -7571,10 +7550,10 @@
     </row>
     <row r="500" spans="1:4">
       <c r="A500" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B500" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C500" s="1">
         <v>46258</v>
@@ -7585,10 +7564,10 @@
     </row>
     <row r="501" spans="1:4">
       <c r="A501" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B501" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C501" s="1">
         <v>46342</v>
@@ -7599,10 +7578,10 @@
     </row>
     <row r="502" spans="1:4" ht="15">
       <c r="A502" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B502" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C502" s="4">
         <v>46433</v>
@@ -7613,10 +7592,10 @@
     </row>
     <row r="503" spans="1:4" ht="15">
       <c r="A503" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B503" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C503" s="4">
         <v>46517</v>
@@ -7627,10 +7606,10 @@
     </row>
     <row r="504" spans="1:4" ht="15">
       <c r="A504" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B504" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C504" s="1">
         <v>46601</v>
@@ -7641,10 +7620,10 @@
     </row>
     <row r="505" spans="1:4" ht="15">
       <c r="A505" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B505" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C505" s="4">
         <v>46685</v>
@@ -7655,10 +7634,10 @@
     </row>
     <row r="506" spans="1:4">
       <c r="A506" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B506" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C506" s="1">
         <v>46034</v>
@@ -7669,10 +7648,10 @@
     </row>
     <row r="507" spans="1:4">
       <c r="A507" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B507" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C507" s="1">
         <v>46118</v>
@@ -7683,10 +7662,10 @@
     </row>
     <row r="508" spans="1:4">
       <c r="A508" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B508" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C508" s="1">
         <v>46286</v>
@@ -7697,10 +7676,10 @@
     </row>
     <row r="509" spans="1:4">
       <c r="A509" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B509" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C509" s="1">
         <v>46370</v>
@@ -7711,10 +7690,10 @@
     </row>
     <row r="510" spans="1:4" ht="15">
       <c r="A510" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B510" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C510" s="4">
         <v>46461</v>
@@ -7725,10 +7704,10 @@
     </row>
     <row r="511" spans="1:4" ht="15">
       <c r="A511" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B511" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C511" s="4">
         <v>46545</v>
@@ -7739,10 +7718,10 @@
     </row>
     <row r="512" spans="1:4" ht="15">
       <c r="A512" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B512" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C512" s="4">
         <v>46629</v>
@@ -7753,10 +7732,10 @@
     </row>
     <row r="513" spans="1:4" ht="15">
       <c r="A513" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B513" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C513" s="4">
         <v>46713</v>
@@ -7767,10 +7746,10 @@
     </row>
     <row r="514" spans="1:4">
       <c r="A514" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B514" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C514" s="1">
         <v>46062</v>
@@ -7781,10 +7760,10 @@
     </row>
     <row r="515" spans="1:4">
       <c r="A515" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B515" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C515" s="1">
         <v>46146</v>
@@ -7795,10 +7774,10 @@
     </row>
     <row r="516" spans="1:4">
       <c r="A516" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B516" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C516" s="1">
         <v>46230</v>
@@ -7809,10 +7788,10 @@
     </row>
     <row r="517" spans="1:4">
       <c r="A517" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B517" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C517" s="1">
         <v>46314</v>
@@ -7823,10 +7802,10 @@
     </row>
     <row r="518" spans="1:4" ht="15">
       <c r="A518" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B518" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C518" s="4">
         <v>46405</v>
@@ -7837,10 +7816,10 @@
     </row>
     <row r="519" spans="1:4" ht="15">
       <c r="A519" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B519" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C519" s="4">
         <v>46489</v>
@@ -7851,10 +7830,10 @@
     </row>
     <row r="520" spans="1:4" ht="15">
       <c r="A520" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B520" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C520" s="4">
         <v>46573</v>
@@ -7865,10 +7844,10 @@
     </row>
     <row r="521" spans="1:4" ht="15">
       <c r="A521" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B521" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C521" s="4">
         <v>46657</v>
@@ -7879,10 +7858,10 @@
     </row>
     <row r="522" spans="1:4" ht="15">
       <c r="A522" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B522" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C522" s="4">
         <v>46748</v>

--- a/kursdaten.xlsx
+++ b/kursdaten.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MarcusKleuser\Documents\Planer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="466" documentId="13_ncr:1_{E28ED437-FB49-4FB7-9FAD-F2DC67C662FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA68F156-E6C6-48ED-A1BF-C7417355A826}"/>
+  <xr:revisionPtr revIDLastSave="531" documentId="13_ncr:1_{E28ED437-FB49-4FB7-9FAD-F2DC67C662FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{403E78C4-6811-4C64-B6F3-D14669AB47F8}"/>
   <bookViews>
     <workbookView xWindow="1894" yWindow="2709" windowWidth="24686" windowHeight="13054" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="56">
   <si>
     <t>Kuerzel</t>
   </si>
@@ -132,6 +132,12 @@
   </si>
   <si>
     <t>Anwendung Künstlicher Intelligenz (Aufbaukurs)</t>
+  </si>
+  <si>
+    <t>AKI-AU</t>
+  </si>
+  <si>
+    <t>KI-Automatisierung und Prozessdigitalisierung</t>
   </si>
   <si>
     <t>PeMa</t>
@@ -538,10 +544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G799"/>
+  <dimension ref="A1:G820"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A193" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D198" sqref="D198"/>
+    <sheetView tabSelected="1" topLeftCell="A415" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E447" sqref="E447"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="14.65"/>
@@ -6680,60 +6686,60 @@
         <v>46773</v>
       </c>
     </row>
-    <row r="438" spans="1:4">
+    <row r="438" spans="1:4" ht="15">
       <c r="A438" t="s">
         <v>32</v>
       </c>
       <c r="B438" t="s">
         <v>33</v>
       </c>
-      <c r="C438" s="1">
-        <v>46034</v>
-      </c>
-      <c r="D438" s="1">
-        <v>46059</v>
-      </c>
-    </row>
-    <row r="439" spans="1:4">
+      <c r="C438" s="4">
+        <v>46174</v>
+      </c>
+      <c r="D438" s="4">
+        <v>46199</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4" ht="15">
       <c r="A439" t="s">
         <v>32</v>
       </c>
       <c r="B439" t="s">
         <v>33</v>
       </c>
-      <c r="C439" s="1">
-        <v>46146</v>
-      </c>
-      <c r="D439" s="1">
-        <v>46171</v>
-      </c>
-    </row>
-    <row r="440" spans="1:4">
+      <c r="C439" s="4">
+        <v>46202</v>
+      </c>
+      <c r="D439" s="4">
+        <v>46227</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" ht="15">
       <c r="A440" t="s">
         <v>32</v>
       </c>
       <c r="B440" t="s">
         <v>33</v>
       </c>
-      <c r="C440" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D440" s="1">
-        <v>46283</v>
-      </c>
-    </row>
-    <row r="441" spans="1:4">
+      <c r="C440" s="4">
+        <v>46230</v>
+      </c>
+      <c r="D440" s="4">
+        <v>46255</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" ht="15">
       <c r="A441" t="s">
         <v>32</v>
       </c>
       <c r="B441" t="s">
         <v>33</v>
       </c>
-      <c r="C441" s="1">
-        <v>46370</v>
-      </c>
-      <c r="D441" s="1">
-        <v>46402</v>
+      <c r="C441" s="4">
+        <v>46258</v>
+      </c>
+      <c r="D441" s="4">
+        <v>46283</v>
       </c>
     </row>
     <row r="442" spans="1:4" ht="15">
@@ -6744,10 +6750,10 @@
         <v>33</v>
       </c>
       <c r="C442" s="4">
-        <v>46489</v>
+        <v>46286</v>
       </c>
       <c r="D442" s="4">
-        <v>46514</v>
+        <v>46311</v>
       </c>
     </row>
     <row r="443" spans="1:4" ht="15">
@@ -6758,10 +6764,10 @@
         <v>33</v>
       </c>
       <c r="C443" s="4">
-        <v>46601</v>
+        <v>46314</v>
       </c>
       <c r="D443" s="4">
-        <v>46626</v>
+        <v>46339</v>
       </c>
     </row>
     <row r="444" spans="1:4" ht="15">
@@ -6772,172 +6778,172 @@
         <v>33</v>
       </c>
       <c r="C444" s="4">
-        <v>46713</v>
+        <v>46342</v>
       </c>
       <c r="D444" s="4">
-        <v>46738</v>
-      </c>
-    </row>
-    <row r="445" spans="1:4" ht="29.1">
+        <v>46367</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" ht="15">
       <c r="A445" t="s">
-        <v>35</v>
-      </c>
-      <c r="B445" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C445" s="1">
-        <v>46090</v>
-      </c>
-      <c r="D445" s="1">
-        <v>46115</v>
-      </c>
-    </row>
-    <row r="446" spans="1:4" ht="29.1">
+        <v>32</v>
+      </c>
+      <c r="B445" t="s">
+        <v>33</v>
+      </c>
+      <c r="C445" s="4">
+        <v>46370</v>
+      </c>
+      <c r="D445" s="4">
+        <v>46402</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" ht="15">
       <c r="A446" t="s">
-        <v>35</v>
-      </c>
-      <c r="B446" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C446" s="1">
-        <v>46202</v>
-      </c>
-      <c r="D446" s="1">
-        <v>46227</v>
-      </c>
-    </row>
-    <row r="447" spans="1:4" ht="29.1">
+        <v>32</v>
+      </c>
+      <c r="B446" t="s">
+        <v>33</v>
+      </c>
+      <c r="C446" s="4">
+        <v>46405</v>
+      </c>
+      <c r="D446" s="4">
+        <v>46430</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" ht="15">
       <c r="A447" t="s">
-        <v>35</v>
-      </c>
-      <c r="B447" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C447" s="1">
-        <v>46314</v>
-      </c>
-      <c r="D447" s="1">
-        <v>46339</v>
-      </c>
-    </row>
-    <row r="448" spans="1:4" ht="30.75">
+        <v>32</v>
+      </c>
+      <c r="B447" t="s">
+        <v>33</v>
+      </c>
+      <c r="C447" s="4">
+        <v>46433</v>
+      </c>
+      <c r="D447" s="4">
+        <v>46458</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" ht="15">
       <c r="A448" t="s">
-        <v>35</v>
-      </c>
-      <c r="B448" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
+      </c>
+      <c r="B448" t="s">
+        <v>33</v>
       </c>
       <c r="C448" s="4">
-        <v>46433</v>
+        <v>46461</v>
       </c>
       <c r="D448" s="4">
-        <v>46458</v>
-      </c>
-    </row>
-    <row r="449" spans="1:4" ht="30.75">
+        <v>46486</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" ht="15">
       <c r="A449" t="s">
-        <v>35</v>
-      </c>
-      <c r="B449" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
+      </c>
+      <c r="B449" t="s">
+        <v>33</v>
       </c>
       <c r="C449" s="4">
+        <v>46489</v>
+      </c>
+      <c r="D449" s="4">
+        <v>46514</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" ht="15">
+      <c r="A450" t="s">
+        <v>32</v>
+      </c>
+      <c r="B450" t="s">
+        <v>33</v>
+      </c>
+      <c r="C450" s="4">
+        <v>46517</v>
+      </c>
+      <c r="D450" s="4">
+        <v>46542</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" ht="15">
+      <c r="A451" t="s">
+        <v>32</v>
+      </c>
+      <c r="B451" t="s">
+        <v>33</v>
+      </c>
+      <c r="C451" s="4">
         <v>46545</v>
       </c>
-      <c r="D449" s="4">
+      <c r="D451" s="4">
         <v>46570</v>
       </c>
     </row>
-    <row r="450" spans="1:4" ht="30.75">
-      <c r="A450" t="s">
-        <v>35</v>
-      </c>
-      <c r="B450" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C450" s="4">
-        <v>46657</v>
-      </c>
-      <c r="D450" s="4">
-        <v>46682</v>
-      </c>
-    </row>
-    <row r="451" spans="1:4">
-      <c r="A451" t="s">
-        <v>37</v>
-      </c>
-      <c r="B451" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C451" s="1">
-        <v>46118</v>
-      </c>
-      <c r="D451" s="1">
-        <v>46143</v>
-      </c>
-    </row>
-    <row r="452" spans="1:4">
+    <row r="452" spans="1:4" ht="15">
       <c r="A452" t="s">
-        <v>37</v>
-      </c>
-      <c r="B452" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C452" s="1">
-        <v>46230</v>
-      </c>
-      <c r="D452" s="1">
-        <v>46255</v>
-      </c>
-    </row>
-    <row r="453" spans="1:4">
+        <v>32</v>
+      </c>
+      <c r="B452" t="s">
+        <v>33</v>
+      </c>
+      <c r="C452" s="4">
+        <v>46573</v>
+      </c>
+      <c r="D452" s="4">
+        <v>46598</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" ht="15">
       <c r="A453" t="s">
-        <v>37</v>
-      </c>
-      <c r="B453" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C453" s="1">
-        <v>46342</v>
-      </c>
-      <c r="D453" s="1">
-        <v>46367</v>
+        <v>32</v>
+      </c>
+      <c r="B453" t="s">
+        <v>33</v>
+      </c>
+      <c r="C453" s="4">
+        <v>46601</v>
+      </c>
+      <c r="D453" s="4">
+        <v>46626</v>
       </c>
     </row>
     <row r="454" spans="1:4" ht="15">
       <c r="A454" t="s">
-        <v>37</v>
-      </c>
-      <c r="B454" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
+      </c>
+      <c r="B454" t="s">
+        <v>33</v>
       </c>
       <c r="C454" s="4">
-        <v>46461</v>
+        <v>46629</v>
       </c>
       <c r="D454" s="4">
-        <v>46486</v>
+        <v>46654</v>
       </c>
     </row>
     <row r="455" spans="1:4" ht="15">
       <c r="A455" t="s">
-        <v>37</v>
-      </c>
-      <c r="B455" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
+      </c>
+      <c r="B455" t="s">
+        <v>33</v>
       </c>
       <c r="C455" s="4">
-        <v>46573</v>
+        <v>46657</v>
       </c>
       <c r="D455" s="4">
-        <v>46598</v>
+        <v>46682</v>
       </c>
     </row>
     <row r="456" spans="1:4" ht="15">
       <c r="A456" t="s">
-        <v>37</v>
-      </c>
-      <c r="B456" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
+      </c>
+      <c r="B456" t="s">
+        <v>33</v>
       </c>
       <c r="C456" s="4">
         <v>46685</v>
@@ -6946,460 +6952,460 @@
         <v>46710</v>
       </c>
     </row>
-    <row r="457" spans="1:4">
+    <row r="457" spans="1:4" ht="15">
       <c r="A457" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B457" t="s">
-        <v>40</v>
-      </c>
-      <c r="C457" s="1">
-        <v>46062</v>
-      </c>
-      <c r="D457" s="1">
-        <v>46087</v>
-      </c>
-    </row>
-    <row r="458" spans="1:4">
+        <v>33</v>
+      </c>
+      <c r="C457" s="4">
+        <v>46409</v>
+      </c>
+      <c r="D457" s="4">
+        <v>46738</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" ht="15">
       <c r="A458" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B458" t="s">
-        <v>40</v>
-      </c>
-      <c r="C458" s="1">
-        <v>46174</v>
-      </c>
-      <c r="D458" s="1">
-        <v>46199</v>
+        <v>33</v>
+      </c>
+      <c r="C458" s="4">
+        <v>46748</v>
+      </c>
+      <c r="D458" s="4">
+        <v>46773</v>
       </c>
     </row>
     <row r="459" spans="1:4">
       <c r="A459" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B459" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C459" s="1">
-        <v>46286</v>
+        <v>46034</v>
       </c>
       <c r="D459" s="1">
-        <v>46311</v>
-      </c>
-    </row>
-    <row r="460" spans="1:4" ht="15">
+        <v>46059</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4">
       <c r="A460" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B460" t="s">
-        <v>40</v>
-      </c>
-      <c r="C460" s="4">
-        <v>46405</v>
-      </c>
-      <c r="D460" s="4">
-        <v>46430</v>
-      </c>
-    </row>
-    <row r="461" spans="1:4" ht="15">
+        <v>35</v>
+      </c>
+      <c r="C460" s="1">
+        <v>46146</v>
+      </c>
+      <c r="D460" s="1">
+        <v>46171</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4">
       <c r="A461" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B461" t="s">
-        <v>40</v>
-      </c>
-      <c r="C461" s="4">
-        <v>46517</v>
-      </c>
-      <c r="D461" s="4">
-        <v>46542</v>
-      </c>
-    </row>
-    <row r="462" spans="1:4" ht="15">
+        <v>35</v>
+      </c>
+      <c r="C461" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D461" s="1">
+        <v>46283</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4">
       <c r="A462" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B462" t="s">
-        <v>40</v>
-      </c>
-      <c r="C462" s="4">
-        <v>46629</v>
-      </c>
-      <c r="D462" s="4">
-        <v>46654</v>
+        <v>35</v>
+      </c>
+      <c r="C462" s="1">
+        <v>46370</v>
+      </c>
+      <c r="D462" s="1">
+        <v>46402</v>
       </c>
     </row>
     <row r="463" spans="1:4" ht="15">
       <c r="A463" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B463" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C463" s="4">
-        <v>46748</v>
+        <v>46489</v>
       </c>
       <c r="D463" s="4">
-        <v>46773</v>
-      </c>
-    </row>
-    <row r="464" spans="1:4">
+        <v>46514</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" ht="15">
       <c r="A464" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B464" t="s">
-        <v>42</v>
-      </c>
-      <c r="C464" s="1">
-        <v>46034</v>
-      </c>
-      <c r="D464" s="1">
-        <v>46059</v>
-      </c>
-    </row>
-    <row r="465" spans="1:4">
+        <v>35</v>
+      </c>
+      <c r="C464" s="4">
+        <v>46601</v>
+      </c>
+      <c r="D464" s="4">
+        <v>46626</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" ht="15">
       <c r="A465" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B465" t="s">
-        <v>42</v>
-      </c>
-      <c r="C465" s="1">
-        <v>46034</v>
-      </c>
-      <c r="D465" s="1">
-        <v>46059</v>
-      </c>
-    </row>
-    <row r="466" spans="1:4">
+        <v>35</v>
+      </c>
+      <c r="C465" s="4">
+        <v>46713</v>
+      </c>
+      <c r="D465" s="4">
+        <v>46738</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" ht="29.1">
       <c r="A466" t="s">
-        <v>41</v>
-      </c>
-      <c r="B466" t="s">
-        <v>42</v>
+        <v>37</v>
+      </c>
+      <c r="B466" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="C466" s="1">
-        <v>46118</v>
+        <v>46090</v>
       </c>
       <c r="D466" s="1">
-        <v>46143</v>
-      </c>
-    </row>
-    <row r="467" spans="1:4">
+        <v>46115</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" ht="29.1">
       <c r="A467" t="s">
-        <v>41</v>
-      </c>
-      <c r="B467" t="s">
-        <v>42</v>
+        <v>37</v>
+      </c>
+      <c r="B467" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="C467" s="1">
         <v>46202</v>
       </c>
-      <c r="D467" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="468" spans="1:4">
+      <c r="D467" s="1">
+        <v>46227</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4" ht="29.1">
       <c r="A468" t="s">
-        <v>41</v>
-      </c>
-      <c r="B468" t="s">
-        <v>42</v>
+        <v>37</v>
+      </c>
+      <c r="B468" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="C468" s="1">
-        <v>46286</v>
+        <v>46314</v>
       </c>
       <c r="D468" s="1">
-        <v>46311</v>
-      </c>
-    </row>
-    <row r="469" spans="1:4">
+        <v>46339</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4" ht="30.75">
       <c r="A469" t="s">
-        <v>41</v>
-      </c>
-      <c r="B469" t="s">
-        <v>42</v>
-      </c>
-      <c r="C469" s="1">
-        <v>46370</v>
-      </c>
-      <c r="D469" s="1">
-        <v>46402</v>
-      </c>
-    </row>
-    <row r="470" spans="1:4" ht="15">
+        <v>37</v>
+      </c>
+      <c r="B469" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C469" s="4">
+        <v>46433</v>
+      </c>
+      <c r="D469" s="4">
+        <v>46458</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4" ht="30.75">
       <c r="A470" t="s">
-        <v>41</v>
-      </c>
-      <c r="B470" t="s">
-        <v>42</v>
+        <v>37</v>
+      </c>
+      <c r="B470" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="C470" s="4">
-        <v>46489</v>
+        <v>46545</v>
       </c>
       <c r="D470" s="4">
-        <v>46514</v>
-      </c>
-    </row>
-    <row r="471" spans="1:4" ht="15">
+        <v>46570</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4" ht="30.75">
       <c r="A471" t="s">
-        <v>41</v>
-      </c>
-      <c r="B471" t="s">
-        <v>42</v>
+        <v>37</v>
+      </c>
+      <c r="B471" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="C471" s="4">
-        <v>46573</v>
+        <v>46657</v>
       </c>
       <c r="D471" s="4">
-        <v>46598</v>
-      </c>
-    </row>
-    <row r="472" spans="1:4" ht="15">
+        <v>46682</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4">
       <c r="A472" t="s">
-        <v>41</v>
-      </c>
-      <c r="B472" t="s">
-        <v>42</v>
-      </c>
-      <c r="C472" s="4">
-        <v>46657</v>
-      </c>
-      <c r="D472" s="4">
-        <v>46682</v>
-      </c>
-    </row>
-    <row r="473" spans="1:4" ht="15">
+        <v>39</v>
+      </c>
+      <c r="B472" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C472" s="1">
+        <v>46118</v>
+      </c>
+      <c r="D472" s="1">
+        <v>46143</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4">
       <c r="A473" t="s">
-        <v>41</v>
-      </c>
-      <c r="B473" t="s">
-        <v>42</v>
-      </c>
-      <c r="C473" s="4">
-        <v>46748</v>
-      </c>
-      <c r="D473" s="4">
-        <v>46773</v>
+        <v>39</v>
+      </c>
+      <c r="B473" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C473" s="1">
+        <v>46230</v>
+      </c>
+      <c r="D473" s="1">
+        <v>46255</v>
       </c>
     </row>
     <row r="474" spans="1:4">
       <c r="A474" t="s">
-        <v>44</v>
-      </c>
-      <c r="B474" t="s">
-        <v>45</v>
+        <v>39</v>
+      </c>
+      <c r="B474" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="C474" s="1">
-        <v>46090</v>
+        <v>46342</v>
       </c>
       <c r="D474" s="1">
-        <v>46115</v>
-      </c>
-    </row>
-    <row r="475" spans="1:4">
+        <v>46367</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4" ht="15">
       <c r="A475" t="s">
-        <v>44</v>
-      </c>
-      <c r="B475" t="s">
-        <v>45</v>
-      </c>
-      <c r="C475" s="1">
-        <v>46146</v>
-      </c>
-      <c r="D475" s="1">
-        <v>46171</v>
-      </c>
-    </row>
-    <row r="476" spans="1:4">
+        <v>39</v>
+      </c>
+      <c r="B475" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C475" s="4">
+        <v>46461</v>
+      </c>
+      <c r="D475" s="4">
+        <v>46486</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4" ht="15">
       <c r="A476" t="s">
-        <v>44</v>
-      </c>
-      <c r="B476" t="s">
-        <v>45</v>
-      </c>
-      <c r="C476" s="1">
-        <v>46202</v>
-      </c>
-      <c r="D476" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="477" spans="1:4">
+        <v>39</v>
+      </c>
+      <c r="B476" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C476" s="4">
+        <v>46573</v>
+      </c>
+      <c r="D476" s="4">
+        <v>46598</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4" ht="15">
       <c r="A477" t="s">
-        <v>44</v>
-      </c>
-      <c r="B477" t="s">
-        <v>45</v>
-      </c>
-      <c r="C477" s="1">
-        <v>46258</v>
-      </c>
-      <c r="D477" s="1">
-        <v>46283</v>
+        <v>39</v>
+      </c>
+      <c r="B477" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C477" s="4">
+        <v>46685</v>
+      </c>
+      <c r="D477" s="4">
+        <v>46710</v>
       </c>
     </row>
     <row r="478" spans="1:4">
       <c r="A478" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B478" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C478" s="1">
-        <v>46314</v>
+        <v>46062</v>
       </c>
       <c r="D478" s="1">
-        <v>46339</v>
+        <v>46087</v>
       </c>
     </row>
     <row r="479" spans="1:4">
       <c r="A479" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B479" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C479" s="1">
-        <v>46370</v>
+        <v>46174</v>
       </c>
       <c r="D479" s="1">
-        <v>46402</v>
-      </c>
-    </row>
-    <row r="480" spans="1:4" ht="15">
+        <v>46199</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4">
       <c r="A480" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B480" t="s">
-        <v>45</v>
-      </c>
-      <c r="C480" s="4">
-        <v>46433</v>
-      </c>
-      <c r="D480" s="4">
-        <v>46458</v>
+        <v>42</v>
+      </c>
+      <c r="C480" s="1">
+        <v>46286</v>
+      </c>
+      <c r="D480" s="1">
+        <v>46311</v>
       </c>
     </row>
     <row r="481" spans="1:4" ht="15">
       <c r="A481" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B481" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C481" s="4">
-        <v>46489</v>
+        <v>46405</v>
       </c>
       <c r="D481" s="4">
-        <v>46514</v>
+        <v>46430</v>
       </c>
     </row>
     <row r="482" spans="1:4" ht="15">
       <c r="A482" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B482" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C482" s="4">
-        <v>46545</v>
+        <v>46517</v>
       </c>
       <c r="D482" s="4">
-        <v>46570</v>
+        <v>46542</v>
       </c>
     </row>
     <row r="483" spans="1:4" ht="15">
       <c r="A483" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B483" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C483" s="4">
-        <v>46601</v>
+        <v>46629</v>
       </c>
       <c r="D483" s="4">
-        <v>46626</v>
+        <v>46654</v>
       </c>
     </row>
     <row r="484" spans="1:4" ht="15">
       <c r="A484" t="s">
+        <v>41</v>
+      </c>
+      <c r="B484" t="s">
+        <v>42</v>
+      </c>
+      <c r="C484" s="4">
+        <v>46748</v>
+      </c>
+      <c r="D484" s="4">
+        <v>46773</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4">
+      <c r="A485" t="s">
+        <v>43</v>
+      </c>
+      <c r="B485" t="s">
         <v>44</v>
       </c>
-      <c r="B484" t="s">
-        <v>45</v>
-      </c>
-      <c r="C484" s="4">
-        <v>46657</v>
-      </c>
-      <c r="D484" s="4">
-        <v>46682</v>
-      </c>
-    </row>
-    <row r="485" spans="1:4" ht="15">
-      <c r="A485" t="s">
-        <v>44</v>
-      </c>
-      <c r="B485" t="s">
-        <v>45</v>
-      </c>
-      <c r="C485" s="4">
-        <v>46713</v>
-      </c>
-      <c r="D485" s="4">
-        <v>46738</v>
+      <c r="C485" s="1">
+        <v>46034</v>
+      </c>
+      <c r="D485" s="1">
+        <v>46059</v>
       </c>
     </row>
     <row r="486" spans="1:4">
       <c r="A486" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B486" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C486" s="1">
-        <v>46118</v>
+        <v>46034</v>
       </c>
       <c r="D486" s="1">
-        <v>46143</v>
+        <v>46059</v>
       </c>
     </row>
     <row r="487" spans="1:4">
       <c r="A487" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B487" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C487" s="1">
-        <v>46174</v>
+        <v>46118</v>
       </c>
       <c r="D487" s="1">
-        <v>46199</v>
+        <v>46143</v>
       </c>
     </row>
     <row r="488" spans="1:4">
       <c r="A488" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B488" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C488" s="1">
-        <v>46230</v>
-      </c>
-      <c r="D488" s="1">
-        <v>46255</v>
+        <v>46202</v>
+      </c>
+      <c r="D488" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="489" spans="1:4">
       <c r="A489" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B489" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C489" s="1">
         <v>46286</v>
@@ -7410,208 +7416,208 @@
     </row>
     <row r="490" spans="1:4">
       <c r="A490" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B490" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C490" s="1">
-        <v>46342</v>
+        <v>46370</v>
       </c>
       <c r="D490" s="1">
-        <v>46367</v>
+        <v>46402</v>
       </c>
     </row>
     <row r="491" spans="1:4" ht="15">
       <c r="A491" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B491" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C491" s="4">
-        <v>46405</v>
+        <v>46489</v>
       </c>
       <c r="D491" s="4">
-        <v>46430</v>
+        <v>46514</v>
       </c>
     </row>
     <row r="492" spans="1:4" ht="15">
       <c r="A492" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B492" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C492" s="4">
-        <v>46461</v>
+        <v>46573</v>
       </c>
       <c r="D492" s="4">
-        <v>46486</v>
+        <v>46598</v>
       </c>
     </row>
     <row r="493" spans="1:4" ht="15">
       <c r="A493" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B493" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C493" s="4">
-        <v>46517</v>
+        <v>46657</v>
       </c>
       <c r="D493" s="4">
-        <v>46542</v>
+        <v>46682</v>
       </c>
     </row>
     <row r="494" spans="1:4" ht="15">
       <c r="A494" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B494" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C494" s="4">
-        <v>46573</v>
+        <v>46748</v>
       </c>
       <c r="D494" s="4">
-        <v>46598</v>
-      </c>
-    </row>
-    <row r="495" spans="1:4" ht="15">
+        <v>46773</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4">
       <c r="A495" t="s">
         <v>46</v>
       </c>
       <c r="B495" t="s">
         <v>47</v>
       </c>
-      <c r="C495" s="4">
-        <v>46629</v>
-      </c>
-      <c r="D495" s="4">
-        <v>46654</v>
-      </c>
-    </row>
-    <row r="496" spans="1:4" ht="15">
+      <c r="C495" s="1">
+        <v>46090</v>
+      </c>
+      <c r="D495" s="1">
+        <v>46115</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4">
       <c r="A496" t="s">
         <v>46</v>
       </c>
       <c r="B496" t="s">
         <v>47</v>
       </c>
-      <c r="C496" s="4">
-        <v>46685</v>
-      </c>
-      <c r="D496" s="4">
-        <v>46710</v>
-      </c>
-    </row>
-    <row r="497" spans="1:4" ht="15">
+      <c r="C496" s="1">
+        <v>46146</v>
+      </c>
+      <c r="D496" s="1">
+        <v>46171</v>
+      </c>
+    </row>
+    <row r="497" spans="1:4">
       <c r="A497" t="s">
         <v>46</v>
       </c>
       <c r="B497" t="s">
         <v>47</v>
       </c>
-      <c r="C497" s="4">
-        <v>46748</v>
-      </c>
-      <c r="D497" s="4">
-        <v>46773</v>
+      <c r="C497" s="1">
+        <v>46202</v>
+      </c>
+      <c r="D497" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="498" spans="1:4">
       <c r="A498" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B498" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C498" s="1">
-        <v>46090</v>
+        <v>46258</v>
       </c>
       <c r="D498" s="1">
-        <v>46115</v>
+        <v>46283</v>
       </c>
     </row>
     <row r="499" spans="1:4">
       <c r="A499" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B499" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C499" s="1">
-        <v>46174</v>
+        <v>46314</v>
       </c>
       <c r="D499" s="1">
-        <v>46199</v>
+        <v>46339</v>
       </c>
     </row>
     <row r="500" spans="1:4">
       <c r="A500" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B500" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C500" s="1">
-        <v>46258</v>
+        <v>46370</v>
       </c>
       <c r="D500" s="1">
-        <v>46283</v>
-      </c>
-    </row>
-    <row r="501" spans="1:4">
+        <v>46402</v>
+      </c>
+    </row>
+    <row r="501" spans="1:4" ht="15">
       <c r="A501" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B501" t="s">
-        <v>49</v>
-      </c>
-      <c r="C501" s="1">
-        <v>46342</v>
-      </c>
-      <c r="D501" s="1">
-        <v>46367</v>
+        <v>47</v>
+      </c>
+      <c r="C501" s="4">
+        <v>46433</v>
+      </c>
+      <c r="D501" s="4">
+        <v>46458</v>
       </c>
     </row>
     <row r="502" spans="1:4" ht="15">
       <c r="A502" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B502" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C502" s="4">
-        <v>46433</v>
+        <v>46489</v>
       </c>
       <c r="D502" s="4">
-        <v>46458</v>
+        <v>46514</v>
       </c>
     </row>
     <row r="503" spans="1:4" ht="15">
       <c r="A503" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B503" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C503" s="4">
-        <v>46517</v>
+        <v>46545</v>
       </c>
       <c r="D503" s="4">
-        <v>46542</v>
+        <v>46570</v>
       </c>
     </row>
     <row r="504" spans="1:4" ht="15">
       <c r="A504" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B504" t="s">
-        <v>49</v>
-      </c>
-      <c r="C504" s="1">
+        <v>47</v>
+      </c>
+      <c r="C504" s="4">
         <v>46601</v>
       </c>
       <c r="D504" s="4">
@@ -7620,38 +7626,38 @@
     </row>
     <row r="505" spans="1:4" ht="15">
       <c r="A505" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B505" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C505" s="4">
-        <v>46685</v>
+        <v>46657</v>
       </c>
       <c r="D505" s="4">
-        <v>46710</v>
-      </c>
-    </row>
-    <row r="506" spans="1:4">
+        <v>46682</v>
+      </c>
+    </row>
+    <row r="506" spans="1:4" ht="15">
       <c r="A506" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B506" t="s">
-        <v>51</v>
-      </c>
-      <c r="C506" s="1">
-        <v>46034</v>
-      </c>
-      <c r="D506" s="1">
-        <v>46059</v>
+        <v>47</v>
+      </c>
+      <c r="C506" s="4">
+        <v>46713</v>
+      </c>
+      <c r="D506" s="4">
+        <v>46738</v>
       </c>
     </row>
     <row r="507" spans="1:4">
       <c r="A507" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B507" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C507" s="1">
         <v>46118</v>
@@ -7662,243 +7668,537 @@
     </row>
     <row r="508" spans="1:4">
       <c r="A508" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B508" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C508" s="1">
-        <v>46286</v>
+        <v>46174</v>
       </c>
       <c r="D508" s="1">
-        <v>46311</v>
+        <v>46199</v>
       </c>
     </row>
     <row r="509" spans="1:4">
       <c r="A509" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B509" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C509" s="1">
-        <v>46370</v>
+        <v>46230</v>
       </c>
       <c r="D509" s="1">
-        <v>46402</v>
-      </c>
-    </row>
-    <row r="510" spans="1:4" ht="15">
+        <v>46255</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4">
       <c r="A510" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B510" t="s">
-        <v>51</v>
-      </c>
-      <c r="C510" s="4">
-        <v>46461</v>
-      </c>
-      <c r="D510" s="4">
-        <v>46486</v>
-      </c>
-    </row>
-    <row r="511" spans="1:4" ht="15">
+        <v>49</v>
+      </c>
+      <c r="C510" s="1">
+        <v>46286</v>
+      </c>
+      <c r="D510" s="1">
+        <v>46311</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4">
       <c r="A511" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B511" t="s">
-        <v>51</v>
-      </c>
-      <c r="C511" s="4">
-        <v>46545</v>
-      </c>
-      <c r="D511" s="4">
-        <v>46570</v>
+        <v>49</v>
+      </c>
+      <c r="C511" s="1">
+        <v>46342</v>
+      </c>
+      <c r="D511" s="1">
+        <v>46367</v>
       </c>
     </row>
     <row r="512" spans="1:4" ht="15">
       <c r="A512" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B512" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C512" s="4">
-        <v>46629</v>
+        <v>46405</v>
       </c>
       <c r="D512" s="4">
-        <v>46654</v>
+        <v>46430</v>
       </c>
     </row>
     <row r="513" spans="1:4" ht="15">
       <c r="A513" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B513" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C513" s="4">
-        <v>46713</v>
+        <v>46461</v>
       </c>
       <c r="D513" s="4">
-        <v>46738</v>
-      </c>
-    </row>
-    <row r="514" spans="1:4">
+        <v>46486</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4" ht="15">
       <c r="A514" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B514" t="s">
-        <v>53</v>
-      </c>
-      <c r="C514" s="1">
-        <v>46062</v>
-      </c>
-      <c r="D514" s="1">
-        <v>46087</v>
-      </c>
-    </row>
-    <row r="515" spans="1:4">
+        <v>49</v>
+      </c>
+      <c r="C514" s="4">
+        <v>46517</v>
+      </c>
+      <c r="D514" s="4">
+        <v>46542</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4" ht="15">
       <c r="A515" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B515" t="s">
-        <v>53</v>
-      </c>
-      <c r="C515" s="1">
-        <v>46146</v>
-      </c>
-      <c r="D515" s="1">
-        <v>46171</v>
-      </c>
-    </row>
-    <row r="516" spans="1:4">
+        <v>49</v>
+      </c>
+      <c r="C515" s="4">
+        <v>46573</v>
+      </c>
+      <c r="D515" s="4">
+        <v>46598</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4" ht="15">
       <c r="A516" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B516" t="s">
-        <v>53</v>
-      </c>
-      <c r="C516" s="1">
-        <v>46230</v>
-      </c>
-      <c r="D516" s="1">
-        <v>46255</v>
-      </c>
-    </row>
-    <row r="517" spans="1:4">
+        <v>49</v>
+      </c>
+      <c r="C516" s="4">
+        <v>46629</v>
+      </c>
+      <c r="D516" s="4">
+        <v>46654</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4" ht="15">
       <c r="A517" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B517" t="s">
-        <v>53</v>
-      </c>
-      <c r="C517" s="1">
-        <v>46314</v>
-      </c>
-      <c r="D517" s="1">
-        <v>46339</v>
+        <v>49</v>
+      </c>
+      <c r="C517" s="4">
+        <v>46685</v>
+      </c>
+      <c r="D517" s="4">
+        <v>46710</v>
       </c>
     </row>
     <row r="518" spans="1:4" ht="15">
       <c r="A518" t="s">
+        <v>48</v>
+      </c>
+      <c r="B518" t="s">
+        <v>49</v>
+      </c>
+      <c r="C518" s="4">
+        <v>46748</v>
+      </c>
+      <c r="D518" s="4">
+        <v>46773</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4">
+      <c r="A519" t="s">
+        <v>50</v>
+      </c>
+      <c r="B519" t="s">
+        <v>51</v>
+      </c>
+      <c r="C519" s="1">
+        <v>46090</v>
+      </c>
+      <c r="D519" s="1">
+        <v>46115</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4">
+      <c r="A520" t="s">
+        <v>50</v>
+      </c>
+      <c r="B520" t="s">
+        <v>51</v>
+      </c>
+      <c r="C520" s="1">
+        <v>46174</v>
+      </c>
+      <c r="D520" s="1">
+        <v>46199</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4">
+      <c r="A521" t="s">
+        <v>50</v>
+      </c>
+      <c r="B521" t="s">
+        <v>51</v>
+      </c>
+      <c r="C521" s="1">
+        <v>46258</v>
+      </c>
+      <c r="D521" s="1">
+        <v>46283</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4">
+      <c r="A522" t="s">
+        <v>50</v>
+      </c>
+      <c r="B522" t="s">
+        <v>51</v>
+      </c>
+      <c r="C522" s="1">
+        <v>46342</v>
+      </c>
+      <c r="D522" s="1">
+        <v>46367</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4" ht="15">
+      <c r="A523" t="s">
+        <v>50</v>
+      </c>
+      <c r="B523" t="s">
+        <v>51</v>
+      </c>
+      <c r="C523" s="4">
+        <v>46433</v>
+      </c>
+      <c r="D523" s="4">
+        <v>46458</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4" ht="15">
+      <c r="A524" t="s">
+        <v>50</v>
+      </c>
+      <c r="B524" t="s">
+        <v>51</v>
+      </c>
+      <c r="C524" s="4">
+        <v>46517</v>
+      </c>
+      <c r="D524" s="4">
+        <v>46542</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4" ht="15">
+      <c r="A525" t="s">
+        <v>50</v>
+      </c>
+      <c r="B525" t="s">
+        <v>51</v>
+      </c>
+      <c r="C525" s="1">
+        <v>46601</v>
+      </c>
+      <c r="D525" s="4">
+        <v>46626</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4" ht="15">
+      <c r="A526" t="s">
+        <v>50</v>
+      </c>
+      <c r="B526" t="s">
+        <v>51</v>
+      </c>
+      <c r="C526" s="4">
+        <v>46685</v>
+      </c>
+      <c r="D526" s="4">
+        <v>46710</v>
+      </c>
+    </row>
+    <row r="527" spans="1:4">
+      <c r="A527" t="s">
         <v>52</v>
       </c>
-      <c r="B518" t="s">
+      <c r="B527" t="s">
         <v>53</v>
       </c>
-      <c r="C518" s="4">
+      <c r="C527" s="1">
+        <v>46034</v>
+      </c>
+      <c r="D527" s="1">
+        <v>46059</v>
+      </c>
+    </row>
+    <row r="528" spans="1:4">
+      <c r="A528" t="s">
+        <v>52</v>
+      </c>
+      <c r="B528" t="s">
+        <v>53</v>
+      </c>
+      <c r="C528" s="1">
+        <v>46118</v>
+      </c>
+      <c r="D528" s="1">
+        <v>46143</v>
+      </c>
+    </row>
+    <row r="529" spans="1:4">
+      <c r="A529" t="s">
+        <v>52</v>
+      </c>
+      <c r="B529" t="s">
+        <v>53</v>
+      </c>
+      <c r="C529" s="1">
+        <v>46286</v>
+      </c>
+      <c r="D529" s="1">
+        <v>46311</v>
+      </c>
+    </row>
+    <row r="530" spans="1:4">
+      <c r="A530" t="s">
+        <v>52</v>
+      </c>
+      <c r="B530" t="s">
+        <v>53</v>
+      </c>
+      <c r="C530" s="1">
+        <v>46370</v>
+      </c>
+      <c r="D530" s="1">
+        <v>46402</v>
+      </c>
+    </row>
+    <row r="531" spans="1:4" ht="15">
+      <c r="A531" t="s">
+        <v>52</v>
+      </c>
+      <c r="B531" t="s">
+        <v>53</v>
+      </c>
+      <c r="C531" s="4">
+        <v>46461</v>
+      </c>
+      <c r="D531" s="4">
+        <v>46486</v>
+      </c>
+    </row>
+    <row r="532" spans="1:4" ht="15">
+      <c r="A532" t="s">
+        <v>52</v>
+      </c>
+      <c r="B532" t="s">
+        <v>53</v>
+      </c>
+      <c r="C532" s="4">
+        <v>46545</v>
+      </c>
+      <c r="D532" s="4">
+        <v>46570</v>
+      </c>
+    </row>
+    <row r="533" spans="1:4" ht="15">
+      <c r="A533" t="s">
+        <v>52</v>
+      </c>
+      <c r="B533" t="s">
+        <v>53</v>
+      </c>
+      <c r="C533" s="4">
+        <v>46629</v>
+      </c>
+      <c r="D533" s="4">
+        <v>46654</v>
+      </c>
+    </row>
+    <row r="534" spans="1:4" ht="15">
+      <c r="A534" t="s">
+        <v>52</v>
+      </c>
+      <c r="B534" t="s">
+        <v>53</v>
+      </c>
+      <c r="C534" s="4">
+        <v>46713</v>
+      </c>
+      <c r="D534" s="4">
+        <v>46738</v>
+      </c>
+    </row>
+    <row r="535" spans="1:4">
+      <c r="A535" t="s">
+        <v>54</v>
+      </c>
+      <c r="B535" t="s">
+        <v>55</v>
+      </c>
+      <c r="C535" s="1">
+        <v>46062</v>
+      </c>
+      <c r="D535" s="1">
+        <v>46087</v>
+      </c>
+    </row>
+    <row r="536" spans="1:4">
+      <c r="A536" t="s">
+        <v>54</v>
+      </c>
+      <c r="B536" t="s">
+        <v>55</v>
+      </c>
+      <c r="C536" s="1">
+        <v>46146</v>
+      </c>
+      <c r="D536" s="1">
+        <v>46171</v>
+      </c>
+    </row>
+    <row r="537" spans="1:4">
+      <c r="A537" t="s">
+        <v>54</v>
+      </c>
+      <c r="B537" t="s">
+        <v>55</v>
+      </c>
+      <c r="C537" s="1">
+        <v>46230</v>
+      </c>
+      <c r="D537" s="1">
+        <v>46255</v>
+      </c>
+    </row>
+    <row r="538" spans="1:4">
+      <c r="A538" t="s">
+        <v>54</v>
+      </c>
+      <c r="B538" t="s">
+        <v>55</v>
+      </c>
+      <c r="C538" s="1">
+        <v>46314</v>
+      </c>
+      <c r="D538" s="1">
+        <v>46339</v>
+      </c>
+    </row>
+    <row r="539" spans="1:4" ht="15">
+      <c r="A539" t="s">
+        <v>54</v>
+      </c>
+      <c r="B539" t="s">
+        <v>55</v>
+      </c>
+      <c r="C539" s="4">
         <v>46405</v>
       </c>
-      <c r="D518" s="4">
+      <c r="D539" s="4">
         <v>46430</v>
       </c>
     </row>
-    <row r="519" spans="1:4" ht="15">
-      <c r="A519" t="s">
-        <v>52</v>
-      </c>
-      <c r="B519" t="s">
-        <v>53</v>
-      </c>
-      <c r="C519" s="4">
+    <row r="540" spans="1:4" ht="15">
+      <c r="A540" t="s">
+        <v>54</v>
+      </c>
+      <c r="B540" t="s">
+        <v>55</v>
+      </c>
+      <c r="C540" s="4">
         <v>46489</v>
       </c>
-      <c r="D519" s="4">
+      <c r="D540" s="4">
         <v>46514</v>
       </c>
     </row>
-    <row r="520" spans="1:4" ht="15">
-      <c r="A520" t="s">
-        <v>52</v>
-      </c>
-      <c r="B520" t="s">
-        <v>53</v>
-      </c>
-      <c r="C520" s="4">
+    <row r="541" spans="1:4" ht="15">
+      <c r="A541" t="s">
+        <v>54</v>
+      </c>
+      <c r="B541" t="s">
+        <v>55</v>
+      </c>
+      <c r="C541" s="4">
         <v>46573</v>
       </c>
-      <c r="D520" s="4">
+      <c r="D541" s="4">
         <v>46598</v>
       </c>
     </row>
-    <row r="521" spans="1:4" ht="15">
-      <c r="A521" t="s">
-        <v>52</v>
-      </c>
-      <c r="B521" t="s">
-        <v>53</v>
-      </c>
-      <c r="C521" s="4">
+    <row r="542" spans="1:4" ht="15">
+      <c r="A542" t="s">
+        <v>54</v>
+      </c>
+      <c r="B542" t="s">
+        <v>55</v>
+      </c>
+      <c r="C542" s="4">
         <v>46657</v>
       </c>
-      <c r="D521" s="4">
+      <c r="D542" s="4">
         <v>46682</v>
       </c>
     </row>
-    <row r="522" spans="1:4" ht="15">
-      <c r="A522" t="s">
-        <v>52</v>
-      </c>
-      <c r="B522" t="s">
-        <v>53</v>
-      </c>
-      <c r="C522" s="4">
+    <row r="543" spans="1:4" ht="15">
+      <c r="A543" t="s">
+        <v>54</v>
+      </c>
+      <c r="B543" t="s">
+        <v>55</v>
+      </c>
+      <c r="C543" s="4">
         <v>46748</v>
       </c>
-      <c r="D522" s="4">
+      <c r="D543" s="4">
         <v>46773</v>
       </c>
     </row>
-    <row r="524" spans="1:4" ht="15"/>
-    <row r="528" spans="1:4" ht="15"/>
-    <row r="539" ht="15"/>
-    <row r="552" ht="15"/>
-    <row r="587" ht="15"/>
-    <row r="591" ht="15"/>
-    <row r="609" ht="15"/>
-    <row r="621" ht="15"/>
-    <row r="622" ht="15"/>
-    <row r="635" ht="15"/>
-    <row r="660" ht="15"/>
-    <row r="682" ht="15"/>
-    <row r="700" ht="15"/>
-    <row r="704" ht="15"/>
-    <row r="707" ht="15"/>
-    <row r="710" ht="15"/>
-    <row r="713" ht="15"/>
-    <row r="717" ht="15"/>
-    <row r="722" ht="15"/>
-    <row r="727" ht="15"/>
+    <row r="545" ht="15"/>
+    <row r="549" ht="15"/>
+    <row r="560" ht="15"/>
+    <row r="573" ht="15"/>
+    <row r="608" ht="15"/>
+    <row r="612" ht="15"/>
+    <row r="630" ht="15"/>
+    <row r="642" ht="15"/>
+    <row r="643" ht="15"/>
+    <row r="656" ht="15"/>
+    <row r="681" ht="15"/>
+    <row r="703" ht="15"/>
+    <row r="721" ht="15"/>
+    <row r="725" ht="15"/>
     <row r="728" ht="15"/>
-    <row r="739" ht="15"/>
-    <row r="745" ht="15"/>
-    <row r="750" ht="15"/>
-    <row r="762" ht="15"/>
-    <row r="770" ht="15"/>
-    <row r="774" ht="15"/>
-    <row r="777" ht="15"/>
-    <row r="799" ht="15"/>
+    <row r="731" ht="15"/>
+    <row r="734" ht="15"/>
+    <row r="738" ht="15"/>
+    <row r="743" ht="15"/>
+    <row r="748" ht="15"/>
+    <row r="749" ht="15"/>
+    <row r="760" ht="15"/>
+    <row r="766" ht="15"/>
+    <row r="771" ht="15"/>
+    <row r="783" ht="15"/>
+    <row r="791" ht="15"/>
+    <row r="795" ht="15"/>
+    <row r="798" ht="15"/>
+    <row r="820" ht="15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
